--- a/Мера тестовая.xlsx
+++ b/Мера тестовая.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="6000" windowWidth="27840" windowHeight="16740" activeTab="1"/>
+    <workbookView xWindow="11880" yWindow="6000" windowWidth="27840" windowHeight="16740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Фактическая" sheetId="1" r:id="rId1"/>
-    <sheet name="Мера труб" sheetId="2" r:id="rId2"/>
-    <sheet name="Оборудование" sheetId="3" r:id="rId3"/>
-    <sheet name="Патрубки" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId2"/>
+    <sheet name="Мера труб" sheetId="2" r:id="rId3"/>
+    <sheet name="Оборудование" sheetId="3" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="6" r:id="rId5"/>
+    <sheet name="Патрубки" sheetId="4" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
@@ -52,113 +52,115 @@
     <externalReference r:id="rId36"/>
     <externalReference r:id="rId37"/>
     <externalReference r:id="rId38"/>
+    <externalReference r:id="rId39"/>
+    <externalReference r:id="rId40"/>
   </externalReferences>
   <definedNames>
-    <definedName name="\A" localSheetId="2">#REF!</definedName>
     <definedName name="\A" localSheetId="3">#REF!</definedName>
+    <definedName name="\A" localSheetId="5">#REF!</definedName>
     <definedName name="\A">#REF!</definedName>
     <definedName name="\p">[1]IFE!$Z$1:$AB$20</definedName>
-    <definedName name="______________________dop1" localSheetId="2">#REF!</definedName>
     <definedName name="______________________dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="______________________dop1" localSheetId="5">#REF!</definedName>
     <definedName name="______________________dop1">#REF!</definedName>
-    <definedName name="_____________________dop1" localSheetId="2">#REF!</definedName>
     <definedName name="_____________________dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="_____________________dop1" localSheetId="5">#REF!</definedName>
     <definedName name="_____________________dop1">#REF!</definedName>
-    <definedName name="____________________dop1" localSheetId="2">#REF!</definedName>
     <definedName name="____________________dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="____________________dop1" localSheetId="5">#REF!</definedName>
     <definedName name="____________________dop1">#REF!</definedName>
-    <definedName name="___________________dop1" localSheetId="2">#REF!</definedName>
     <definedName name="___________________dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="___________________dop1" localSheetId="5">#REF!</definedName>
     <definedName name="___________________dop1">#REF!</definedName>
-    <definedName name="__________________dop1" localSheetId="2">#REF!</definedName>
     <definedName name="__________________dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="__________________dop1" localSheetId="5">#REF!</definedName>
     <definedName name="__________________dop1">#REF!</definedName>
-    <definedName name="_________________dop1" localSheetId="2">#REF!</definedName>
     <definedName name="_________________dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="_________________dop1" localSheetId="5">#REF!</definedName>
     <definedName name="_________________dop1">#REF!</definedName>
-    <definedName name="________________dop1" localSheetId="2">#REF!</definedName>
     <definedName name="________________dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="________________dop1" localSheetId="5">#REF!</definedName>
     <definedName name="________________dop1">#REF!</definedName>
-    <definedName name="_______________dop1" localSheetId="2">#REF!</definedName>
     <definedName name="_______________dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="_______________dop1" localSheetId="5">#REF!</definedName>
     <definedName name="_______________dop1">#REF!</definedName>
-    <definedName name="______________dop1" localSheetId="2">#REF!</definedName>
     <definedName name="______________dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="______________dop1" localSheetId="5">#REF!</definedName>
     <definedName name="______________dop1">#REF!</definedName>
-    <definedName name="_____________dop1" localSheetId="2">#REF!</definedName>
     <definedName name="_____________dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="_____________dop1" localSheetId="5">#REF!</definedName>
     <definedName name="_____________dop1">#REF!</definedName>
-    <definedName name="____________dop1" localSheetId="2">#REF!</definedName>
     <definedName name="____________dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="____________dop1" localSheetId="5">#REF!</definedName>
     <definedName name="____________dop1">#REF!</definedName>
-    <definedName name="___________dop1" localSheetId="2">#REF!</definedName>
     <definedName name="___________dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="___________dop1" localSheetId="5">#REF!</definedName>
     <definedName name="___________dop1">#REF!</definedName>
-    <definedName name="__________dop1" localSheetId="2">#REF!</definedName>
     <definedName name="__________dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="__________dop1" localSheetId="5">#REF!</definedName>
     <definedName name="__________dop1">#REF!</definedName>
     <definedName name="__________Otx1">'[2]Проектные данные'!$F$7</definedName>
-    <definedName name="_________dop1" localSheetId="2">#REF!</definedName>
     <definedName name="_________dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="_________dop1" localSheetId="5">#REF!</definedName>
     <definedName name="_________dop1">#REF!</definedName>
     <definedName name="_________Otx1">'[3]Проектные данные'!$F$7</definedName>
     <definedName name="_________wrn1" hidden="1">{#N/A,#N/A,FALSE,"Volume"}</definedName>
-    <definedName name="________dop1" localSheetId="2">#REF!</definedName>
     <definedName name="________dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="________dop1" localSheetId="5">#REF!</definedName>
     <definedName name="________dop1">#REF!</definedName>
     <definedName name="________Otx1">'[4]Проектные данные'!$F$7</definedName>
     <definedName name="________wrn1" hidden="1">{#N/A,#N/A,FALSE,"Volume"}</definedName>
-    <definedName name="_______dop1" localSheetId="2">#REF!</definedName>
     <definedName name="_______dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="_______dop1" localSheetId="5">#REF!</definedName>
     <definedName name="_______dop1">#REF!</definedName>
     <definedName name="_______Otx1">'[5]Проектные данные'!$F$7</definedName>
     <definedName name="_______wrn1" hidden="1">{#N/A,#N/A,FALSE,"Volume"}</definedName>
-    <definedName name="______dop1" localSheetId="2">#REF!</definedName>
     <definedName name="______dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="______dop1" localSheetId="5">#REF!</definedName>
     <definedName name="______dop1">#REF!</definedName>
     <definedName name="______Otx1">'[6]Проектные данные'!$F$7</definedName>
     <definedName name="______wrn1" hidden="1">{#N/A,#N/A,FALSE,"Volume"}</definedName>
-    <definedName name="_____dop1" localSheetId="2">#REF!</definedName>
     <definedName name="_____dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="_____dop1" localSheetId="5">#REF!</definedName>
     <definedName name="_____dop1">#REF!</definedName>
     <definedName name="_____Otx1">'[7]Проектные данные'!$F$7</definedName>
     <definedName name="_____wrn1" hidden="1">{#N/A,#N/A,FALSE,"Volume"}</definedName>
-    <definedName name="____dop1" localSheetId="2">#REF!</definedName>
     <definedName name="____dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="____dop1" localSheetId="5">#REF!</definedName>
     <definedName name="____dop1">#REF!</definedName>
     <definedName name="____Otx1">'[8]Проектные данные'!$F$7</definedName>
     <definedName name="____wrn1" hidden="1">{#N/A,#N/A,FALSE,"Volume"}</definedName>
-    <definedName name="___dop1" localSheetId="2">#REF!</definedName>
     <definedName name="___dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="___dop1" localSheetId="5">#REF!</definedName>
     <definedName name="___dop1">#REF!</definedName>
     <definedName name="___Otx1">'[9]Проектные данные'!$F$7</definedName>
     <definedName name="___wrn1" hidden="1">{#N/A,#N/A,FALSE,"Volume"}</definedName>
-    <definedName name="__123Graph_A" localSheetId="2" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="__123Graph_A" localSheetId="3" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
+    <definedName name="__123Graph_A" localSheetId="5" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="__123Graph_A" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
-    <definedName name="__123Graph_B" localSheetId="2" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="__123Graph_B" localSheetId="3" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
+    <definedName name="__123Graph_B" localSheetId="5" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="__123Graph_B" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
-    <definedName name="__123Graph_X" localSheetId="2" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="__123Graph_X" localSheetId="3" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
+    <definedName name="__123Graph_X" localSheetId="5" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="__123Graph_X" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
-    <definedName name="__dop1" localSheetId="2">#REF!</definedName>
     <definedName name="__dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="__dop1" localSheetId="5">#REF!</definedName>
     <definedName name="__dop1">#REF!</definedName>
     <definedName name="__Otx1">'[11]Проектные данные'!$F$7</definedName>
     <definedName name="__wrn1" hidden="1">{#N/A,#N/A,FALSE,"Volume"}</definedName>
-    <definedName name="_10__123Graph_XGRAPH_G" localSheetId="2" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="_10__123Graph_XGRAPH_G" localSheetId="3" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
+    <definedName name="_10__123Graph_XGRAPH_G" localSheetId="5" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="_10__123Graph_XGRAPH_G" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
-    <definedName name="_12__123Graph_XGRAPH_H" localSheetId="2" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="_12__123Graph_XGRAPH_H" localSheetId="3" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
+    <definedName name="_12__123Graph_XGRAPH_H" localSheetId="5" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="_12__123Graph_XGRAPH_H" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
-    <definedName name="_12345" localSheetId="2" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="_12345" localSheetId="3" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
+    <definedName name="_12345" localSheetId="5" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="_12345" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="_19._Volume_Balance">[1]IFE!$A$328</definedName>
-    <definedName name="_2__123Graph_AGRAPH_G" localSheetId="2" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="_2__123Graph_AGRAPH_G" localSheetId="3" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
+    <definedName name="_2__123Graph_AGRAPH_G" localSheetId="5" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="_2__123Graph_AGRAPH_G" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="_20._ADDITIONAL_DAILY_MUD_PROPERTIES">[1]IFE!$A$344</definedName>
     <definedName name="_21._SOLIDS_ANALYSIS_DATA_2">[1]IFE!$A$388</definedName>
@@ -166,25 +168,25 @@
     <definedName name="_23.__Waste_Management_Description__Sludge">[1]IFE!$A$499</definedName>
     <definedName name="_24.__Waste_Management_Description__Liquid">[1]IFE!$A$523</definedName>
     <definedName name="_25.__SHAKER_SCREEN_ACCOUNTING">[1]IFE!$A$547</definedName>
-    <definedName name="_26.__WM_Header_Information" localSheetId="2">[1]IFE!#REF!</definedName>
     <definedName name="_26.__WM_Header_Information" localSheetId="3">[1]IFE!#REF!</definedName>
+    <definedName name="_26.__WM_Header_Information" localSheetId="5">[1]IFE!#REF!</definedName>
     <definedName name="_26.__WM_Header_Information">[1]IFE!#REF!</definedName>
     <definedName name="_27.__WM_Daily_Information">[1]IFE!$A$580</definedName>
     <definedName name="_28.__WM_Cuttings_Injection_Daily_Info">[1]IFE!$A$823</definedName>
     <definedName name="_29.__WM_Cuttings_Injection_Detail">[1]IFE!$A$854</definedName>
     <definedName name="_30.__WM_Product_List">[1]IFE!$A$886</definedName>
     <definedName name="_31.__WMWt_Treatment">[1]IFE!$A$918</definedName>
-    <definedName name="_4__123Graph_AGRAPH_H" localSheetId="2" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="_4__123Graph_AGRAPH_H" localSheetId="3" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
+    <definedName name="_4__123Graph_AGRAPH_H" localSheetId="5" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="_4__123Graph_AGRAPH_H" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
-    <definedName name="_6__123Graph_BGRAPH_G" localSheetId="2" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="_6__123Graph_BGRAPH_G" localSheetId="3" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
+    <definedName name="_6__123Graph_BGRAPH_G" localSheetId="5" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="_6__123Graph_BGRAPH_G" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
-    <definedName name="_8__123Graph_BGRAPH_H" localSheetId="2" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="_8__123Graph_BGRAPH_H" localSheetId="3" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
+    <definedName name="_8__123Graph_BGRAPH_H" localSheetId="5" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
     <definedName name="_8__123Graph_BGRAPH_H" hidden="1">'[10]Заполняет супервайзер'!#REF!</definedName>
-    <definedName name="_dop1" localSheetId="2">#REF!</definedName>
     <definedName name="_dop1" localSheetId="3">#REF!</definedName>
+    <definedName name="_dop1" localSheetId="5">#REF!</definedName>
     <definedName name="_dop1">#REF!</definedName>
     <definedName name="_Int1">'[5]Проектные данные'!$AA$4</definedName>
     <definedName name="_int10">'[5]Проектные данные'!$AA$13</definedName>
@@ -200,62 +202,62 @@
     <definedName name="_int7">'[5]Проектные данные'!$AA$10</definedName>
     <definedName name="_int8">'[5]Проектные данные'!$AA$11</definedName>
     <definedName name="_int9">'[5]Проектные данные'!$AA$12</definedName>
-    <definedName name="_Key1" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Key1" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="_Key1" localSheetId="5" hidden="1">#REF!</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
-    <definedName name="_m" localSheetId="2">#REF!</definedName>
     <definedName name="_m" localSheetId="3">#REF!</definedName>
+    <definedName name="_m" localSheetId="5">#REF!</definedName>
     <definedName name="_m">#REF!</definedName>
-    <definedName name="_MV1" localSheetId="2">#REF!</definedName>
     <definedName name="_MV1" localSheetId="3">#REF!</definedName>
+    <definedName name="_MV1" localSheetId="5">#REF!</definedName>
     <definedName name="_MV1">#REF!</definedName>
-    <definedName name="_MV2" localSheetId="2">#REF!</definedName>
     <definedName name="_MV2" localSheetId="3">#REF!</definedName>
+    <definedName name="_MV2" localSheetId="5">#REF!</definedName>
     <definedName name="_MV2">#REF!</definedName>
-    <definedName name="_MV3" localSheetId="2">#REF!</definedName>
     <definedName name="_MV3" localSheetId="3">#REF!</definedName>
+    <definedName name="_MV3" localSheetId="5">#REF!</definedName>
     <definedName name="_MV3">#REF!</definedName>
-    <definedName name="_MV4" localSheetId="2">#REF!</definedName>
     <definedName name="_MV4" localSheetId="3">#REF!</definedName>
+    <definedName name="_MV4" localSheetId="5">#REF!</definedName>
     <definedName name="_MV4">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Otx1">'[12]Проектные данные'!$F$7</definedName>
-    <definedName name="_Sort" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Sort" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="_Sort" localSheetId="5" hidden="1">#REF!</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
-    <definedName name="_vol1" localSheetId="2">#REF!</definedName>
     <definedName name="_vol1" localSheetId="3">#REF!</definedName>
+    <definedName name="_vol1" localSheetId="5">#REF!</definedName>
     <definedName name="_vol1">#REF!</definedName>
     <definedName name="_wrn1" hidden="1">{#N/A,#N/A,FALSE,"Volume"}</definedName>
-    <definedName name="A" localSheetId="2">#REF!</definedName>
     <definedName name="A" localSheetId="3">#REF!</definedName>
+    <definedName name="A" localSheetId="5">#REF!</definedName>
     <definedName name="A">#REF!</definedName>
-    <definedName name="A_A" localSheetId="2">#REF!</definedName>
     <definedName name="A_A" localSheetId="3">#REF!</definedName>
+    <definedName name="A_A" localSheetId="5">#REF!</definedName>
     <definedName name="A_A">#REF!</definedName>
-    <definedName name="adrgdsfg" localSheetId="2">#REF!</definedName>
     <definedName name="adrgdsfg" localSheetId="3">#REF!</definedName>
+    <definedName name="adrgdsfg" localSheetId="5">#REF!</definedName>
     <definedName name="adrgdsfg">#REF!</definedName>
     <definedName name="aeds">[13]List!$B$2:$B$36</definedName>
-    <definedName name="AFE" localSheetId="2">#REF!</definedName>
     <definedName name="AFE" localSheetId="3">#REF!</definedName>
+    <definedName name="AFE" localSheetId="5">#REF!</definedName>
     <definedName name="AFE">#REF!</definedName>
-    <definedName name="Ai" localSheetId="2">#REF!</definedName>
     <definedName name="Ai" localSheetId="3">#REF!</definedName>
+    <definedName name="Ai" localSheetId="5">#REF!</definedName>
     <definedName name="Ai">#REF!</definedName>
     <definedName name="Altit">[12]Данные!$F$4</definedName>
     <definedName name="AMACRO.n2foam">#N/A</definedName>
     <definedName name="andrey">[14]List!$B$2:$B$36</definedName>
     <definedName name="ANN">[15]Macro2!$A$1</definedName>
-    <definedName name="As" localSheetId="2">#REF!</definedName>
     <definedName name="As" localSheetId="3">#REF!</definedName>
+    <definedName name="As" localSheetId="5">#REF!</definedName>
     <definedName name="As">#REF!</definedName>
-    <definedName name="Asr" localSheetId="2">#REF!</definedName>
     <definedName name="Asr" localSheetId="3">#REF!</definedName>
+    <definedName name="Asr" localSheetId="5">#REF!</definedName>
     <definedName name="Asr">#REF!</definedName>
     <definedName name="asssss">'[16]Проектные данные'!$E$6</definedName>
-    <definedName name="ASSYBY" localSheetId="2">#REF!</definedName>
     <definedName name="ASSYBY" localSheetId="3">#REF!</definedName>
+    <definedName name="ASSYBY" localSheetId="5">#REF!</definedName>
     <definedName name="ASSYBY">#REF!</definedName>
     <definedName name="AutoCAD">[17]!AutoCAD</definedName>
     <definedName name="awwww">[13]List!$D$2:$D$36</definedName>
@@ -277,110 +279,110 @@
     <definedName name="azint7">'[5]Проектные данные'!$AC$10</definedName>
     <definedName name="azint8">'[5]Проектные данные'!$AC$11</definedName>
     <definedName name="azint9">'[5]Проектные данные'!$AC$12</definedName>
-    <definedName name="B" localSheetId="2">#REF!</definedName>
     <definedName name="B" localSheetId="3">#REF!</definedName>
+    <definedName name="B" localSheetId="5">#REF!</definedName>
     <definedName name="B">#REF!</definedName>
     <definedName name="back">#N/A</definedName>
-    <definedName name="Badger" localSheetId="2">#REF!</definedName>
     <definedName name="Badger" localSheetId="3">#REF!</definedName>
+    <definedName name="Badger" localSheetId="5">#REF!</definedName>
     <definedName name="Badger">#REF!</definedName>
-    <definedName name="Ballooning_Area" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Ballooning_Area" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Ballooning_Area" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Ballooning_Area">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Ballooning_Forces" localSheetId="2">#REF!</definedName>
     <definedName name="Ballooning_Forces" localSheetId="3">#REF!</definedName>
+    <definedName name="Ballooning_Forces" localSheetId="5">#REF!</definedName>
     <definedName name="Ballooning_Forces">#REF!</definedName>
-    <definedName name="BallPurpose" localSheetId="2">#REF!</definedName>
     <definedName name="BallPurpose" localSheetId="3">#REF!</definedName>
+    <definedName name="BallPurpose" localSheetId="5">#REF!</definedName>
     <definedName name="BallPurpose">#REF!</definedName>
-    <definedName name="Ballseat" localSheetId="2">#REF!</definedName>
     <definedName name="Ballseat" localSheetId="3">#REF!</definedName>
+    <definedName name="Ballseat" localSheetId="5">#REF!</definedName>
     <definedName name="Ballseat">#REF!</definedName>
-    <definedName name="billprob" localSheetId="2">#REF!</definedName>
     <definedName name="billprob" localSheetId="3">#REF!</definedName>
+    <definedName name="billprob" localSheetId="5">#REF!</definedName>
     <definedName name="billprob">#REF!</definedName>
-    <definedName name="Bitsize" localSheetId="2">#REF!</definedName>
     <definedName name="Bitsize" localSheetId="3">#REF!</definedName>
+    <definedName name="Bitsize" localSheetId="5">#REF!</definedName>
     <definedName name="Bitsize">#REF!</definedName>
-    <definedName name="BJ_Tens" localSheetId="2">#REF!</definedName>
     <definedName name="BJ_Tens" localSheetId="3">#REF!</definedName>
+    <definedName name="BJ_Tens" localSheetId="5">#REF!</definedName>
     <definedName name="BJ_Tens">#REF!</definedName>
-    <definedName name="Block" localSheetId="2">#REF!</definedName>
     <definedName name="Block" localSheetId="3">#REF!</definedName>
+    <definedName name="Block" localSheetId="5">#REF!</definedName>
     <definedName name="Block">#REF!</definedName>
-    <definedName name="BLock_TD_Wt" localSheetId="2">#REF!</definedName>
     <definedName name="BLock_TD_Wt" localSheetId="3">#REF!</definedName>
+    <definedName name="BLock_TD_Wt" localSheetId="5">#REF!</definedName>
     <definedName name="BLock_TD_Wt">#REF!</definedName>
     <definedName name="Block_Wt">[20]Calculations!$G$16</definedName>
-    <definedName name="Bsr" localSheetId="2">#REF!</definedName>
     <definedName name="Bsr" localSheetId="3">#REF!</definedName>
+    <definedName name="Bsr" localSheetId="5">#REF!</definedName>
     <definedName name="Bsr">#REF!</definedName>
-    <definedName name="Btm_DPXCSG" localSheetId="2">#REF!</definedName>
     <definedName name="Btm_DPXCSG" localSheetId="3">#REF!</definedName>
+    <definedName name="Btm_DPXCSG" localSheetId="5">#REF!</definedName>
     <definedName name="Btm_DPXCSG">#REF!</definedName>
-    <definedName name="Buoy_Factor" localSheetId="2">#REF!</definedName>
     <definedName name="Buoy_Factor" localSheetId="3">#REF!</definedName>
+    <definedName name="Buoy_Factor" localSheetId="5">#REF!</definedName>
     <definedName name="Buoy_Factor">#REF!</definedName>
-    <definedName name="Bypass_Set" localSheetId="2">#REF!</definedName>
     <definedName name="Bypass_Set" localSheetId="3">#REF!</definedName>
+    <definedName name="Bypass_Set" localSheetId="5">#REF!</definedName>
     <definedName name="Bypass_Set">#REF!</definedName>
-    <definedName name="Bypass_Unset" localSheetId="2">#REF!</definedName>
     <definedName name="Bypass_Unset" localSheetId="3">#REF!</definedName>
+    <definedName name="Bypass_Unset" localSheetId="5">#REF!</definedName>
     <definedName name="Bypass_Unset">#REF!</definedName>
-    <definedName name="C_" localSheetId="2">#REF!</definedName>
     <definedName name="C_" localSheetId="3">#REF!</definedName>
+    <definedName name="C_" localSheetId="5">#REF!</definedName>
     <definedName name="C_">#REF!</definedName>
-    <definedName name="Carbolite" localSheetId="2">#REF!</definedName>
     <definedName name="Carbolite" localSheetId="3">#REF!</definedName>
+    <definedName name="Carbolite" localSheetId="5">#REF!</definedName>
     <definedName name="Carbolite">#REF!</definedName>
     <definedName name="Casing">[21]List!$D$2:$D$36</definedName>
     <definedName name="Casingthread">[22]DATA!$J$2:$J$73</definedName>
-    <definedName name="CCC" localSheetId="2">[23]Титульный!#REF!</definedName>
     <definedName name="CCC" localSheetId="3">[23]Титульный!#REF!</definedName>
+    <definedName name="CCC" localSheetId="5">[23]Титульный!#REF!</definedName>
     <definedName name="CCC">[23]Титульный!#REF!</definedName>
-    <definedName name="CementCompany" localSheetId="2">#REF!</definedName>
     <definedName name="CementCompany" localSheetId="3">#REF!</definedName>
+    <definedName name="CementCompany" localSheetId="5">#REF!</definedName>
     <definedName name="CementCompany">#REF!</definedName>
-    <definedName name="Centralizers" localSheetId="2">#REF!</definedName>
     <definedName name="Centralizers" localSheetId="3">#REF!</definedName>
+    <definedName name="Centralizers" localSheetId="5">#REF!</definedName>
     <definedName name="Centralizers">#REF!</definedName>
-    <definedName name="Chamical" localSheetId="2">#REF!</definedName>
     <definedName name="Chamical" localSheetId="3">#REF!</definedName>
+    <definedName name="Chamical" localSheetId="5">#REF!</definedName>
     <definedName name="Chamical">#REF!</definedName>
     <definedName name="Chemmac">#N/A</definedName>
     <definedName name="CIPMACRO.n2foam">#N/A</definedName>
-    <definedName name="City" localSheetId="2">#REF!</definedName>
     <definedName name="City" localSheetId="3">#REF!</definedName>
+    <definedName name="City" localSheetId="5">#REF!</definedName>
     <definedName name="City">#REF!</definedName>
-    <definedName name="Comments1" localSheetId="2">#REF!</definedName>
     <definedName name="Comments1" localSheetId="3">#REF!</definedName>
+    <definedName name="Comments1" localSheetId="5">#REF!</definedName>
     <definedName name="Comments1">#REF!</definedName>
-    <definedName name="Comments2" localSheetId="2">#REF!</definedName>
     <definedName name="Comments2" localSheetId="3">#REF!</definedName>
+    <definedName name="Comments2" localSheetId="5">#REF!</definedName>
     <definedName name="Comments2">#REF!</definedName>
-    <definedName name="Comments3" localSheetId="2">#REF!</definedName>
     <definedName name="Comments3" localSheetId="3">#REF!</definedName>
+    <definedName name="Comments3" localSheetId="5">#REF!</definedName>
     <definedName name="Comments3">#REF!</definedName>
-    <definedName name="Comments4" localSheetId="2">#REF!</definedName>
     <definedName name="Comments4" localSheetId="3">#REF!</definedName>
+    <definedName name="Comments4" localSheetId="5">#REF!</definedName>
     <definedName name="Comments4">#REF!</definedName>
-    <definedName name="Company_Man" localSheetId="2">#REF!</definedName>
     <definedName name="Company_Man" localSheetId="3">#REF!</definedName>
+    <definedName name="Company_Man" localSheetId="5">#REF!</definedName>
     <definedName name="Company_Man">#REF!</definedName>
-    <definedName name="Company_Name" localSheetId="2">#REF!</definedName>
     <definedName name="Company_Name" localSheetId="3">#REF!</definedName>
+    <definedName name="Company_Name" localSheetId="5">#REF!</definedName>
     <definedName name="Company_Name">#REF!</definedName>
-    <definedName name="Cone_OD" localSheetId="2">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Cone_OD" localSheetId="3">'[20]Liner Job Info'!#REF!</definedName>
+    <definedName name="Cone_OD" localSheetId="5">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Cone_OD">'[20]Liner Job Info'!#REF!</definedName>
-    <definedName name="Coordinator" localSheetId="2">#REF!</definedName>
     <definedName name="Coordinator" localSheetId="3">#REF!</definedName>
+    <definedName name="Coordinator" localSheetId="5">#REF!</definedName>
     <definedName name="Coordinator">#REF!</definedName>
-    <definedName name="Copy" localSheetId="2">VLOOKUP(Оборудование!Csg_Wt,OFFSET(INDIRECT(ADDRESS(MATCH(Оборудование!CSG_OD,[0]!Objects,0)+1,2,,,"Casing Info")),0,1,COUNTIF([0]!Objects,Оборудование!CSG_OD),4),4)</definedName>
-    <definedName name="Copy" localSheetId="3">VLOOKUP(Патрубки!Csg_Wt,OFFSET(INDIRECT(ADDRESS(MATCH(Патрубки!CSG_OD,[0]!Objects,0)+1,2,,,"Casing Info")),0,1,COUNTIF([0]!Objects,Патрубки!CSG_OD),4),4)</definedName>
+    <definedName name="Copy" localSheetId="3">VLOOKUP(Оборудование!Csg_Wt,OFFSET(INDIRECT(ADDRESS(MATCH(Оборудование!CSG_OD,[0]!Objects,0)+1,2,,,"Casing Info")),0,1,COUNTIF([0]!Objects,Оборудование!CSG_OD),4),4)</definedName>
+    <definedName name="Copy" localSheetId="5">VLOOKUP(Патрубки!Csg_Wt,OFFSET(INDIRECT(ADDRESS(MATCH(Патрубки!CSG_OD,[0]!Objects,0)+1,2,,,"Casing Info")),0,1,COUNTIF([0]!Objects,Патрубки!CSG_OD),4),4)</definedName>
     <definedName name="Copy">VLOOKUP([0]!Csg_Wt,OFFSET(INDIRECT(ADDRESS(MATCH([0]!CSG_OD,Objects,0)+1,2,,,"Casing Info")),0,1,COUNTIF(Objects,[0]!CSG_OD),4),4)</definedName>
-    <definedName name="COREP" localSheetId="2">#REF!</definedName>
     <definedName name="COREP" localSheetId="3">#REF!</definedName>
+    <definedName name="COREP" localSheetId="5">#REF!</definedName>
     <definedName name="COREP">#REF!</definedName>
     <definedName name="corrdriftlist">#N/A</definedName>
     <definedName name="corrdriftlist2">#N/A</definedName>
@@ -393,571 +395,571 @@
     <definedName name="corrlist2">#N/A</definedName>
     <definedName name="corrlist3">#N/A</definedName>
     <definedName name="corrlist4">#N/A</definedName>
-    <definedName name="Country1" localSheetId="2">#REF!</definedName>
     <definedName name="Country1" localSheetId="3">#REF!</definedName>
+    <definedName name="Country1" localSheetId="5">#REF!</definedName>
     <definedName name="Country1">#REF!</definedName>
-    <definedName name="Csg_Bst" localSheetId="2">#REF!</definedName>
     <definedName name="Csg_Bst" localSheetId="3">#REF!</definedName>
+    <definedName name="Csg_Bst" localSheetId="5">#REF!</definedName>
     <definedName name="Csg_Bst">#REF!</definedName>
-    <definedName name="Csg_Dft" localSheetId="2">#REF!</definedName>
     <definedName name="Csg_Dft" localSheetId="3">#REF!</definedName>
+    <definedName name="Csg_Dft" localSheetId="5">#REF!</definedName>
     <definedName name="Csg_Dft">#REF!</definedName>
-    <definedName name="CSG_DPTH" localSheetId="2">#REF!</definedName>
     <definedName name="CSG_DPTH" localSheetId="3">#REF!</definedName>
+    <definedName name="CSG_DPTH" localSheetId="5">#REF!</definedName>
     <definedName name="CSG_DPTH">#REF!</definedName>
-    <definedName name="CSG_Grd" localSheetId="2">#REF!</definedName>
     <definedName name="CSG_Grd" localSheetId="3">#REF!</definedName>
+    <definedName name="CSG_Grd" localSheetId="5">#REF!</definedName>
     <definedName name="CSG_Grd">#REF!</definedName>
-    <definedName name="CSG_ID" localSheetId="2">#REF!</definedName>
     <definedName name="CSG_ID" localSheetId="3">#REF!</definedName>
+    <definedName name="CSG_ID" localSheetId="5">#REF!</definedName>
     <definedName name="CSG_ID">#REF!</definedName>
-    <definedName name="CSG_ID_Area" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="CSG_ID_Area" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="CSG_ID_Area" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="CSG_ID_Area">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="CSG_IDD" localSheetId="2">#REF!</definedName>
     <definedName name="CSG_IDD" localSheetId="3">#REF!</definedName>
+    <definedName name="CSG_IDD" localSheetId="5">#REF!</definedName>
     <definedName name="CSG_IDD">#REF!</definedName>
     <definedName name="CSG_MYS">[22]DATA!$M$3:$M$22</definedName>
-    <definedName name="CSG_OD" localSheetId="2">#REF!</definedName>
     <definedName name="CSG_OD" localSheetId="3">#REF!</definedName>
+    <definedName name="CSG_OD" localSheetId="5">#REF!</definedName>
     <definedName name="CSG_OD">#REF!</definedName>
-    <definedName name="CSG_Thread" localSheetId="2">#REF!</definedName>
     <definedName name="CSG_Thread" localSheetId="3">#REF!</definedName>
+    <definedName name="CSG_Thread" localSheetId="5">#REF!</definedName>
     <definedName name="CSG_Thread">#REF!</definedName>
-    <definedName name="Csg_Wt" localSheetId="2">#REF!</definedName>
     <definedName name="Csg_Wt" localSheetId="3">#REF!</definedName>
+    <definedName name="Csg_Wt" localSheetId="5">#REF!</definedName>
     <definedName name="Csg_Wt">#REF!</definedName>
-    <definedName name="Cum" localSheetId="2">#REF!</definedName>
     <definedName name="Cum" localSheetId="3">#REF!</definedName>
+    <definedName name="Cum" localSheetId="5">#REF!</definedName>
     <definedName name="Cum">#REF!</definedName>
-    <definedName name="customer" localSheetId="2">#REF!</definedName>
     <definedName name="customer" localSheetId="3">#REF!</definedName>
+    <definedName name="customer" localSheetId="5">#REF!</definedName>
     <definedName name="customer">#REF!</definedName>
-    <definedName name="customer_address" localSheetId="2">#REF!</definedName>
     <definedName name="customer_address" localSheetId="3">#REF!</definedName>
+    <definedName name="customer_address" localSheetId="5">#REF!</definedName>
     <definedName name="customer_address">#REF!</definedName>
-    <definedName name="customerid" localSheetId="2">#REF!</definedName>
     <definedName name="customerid" localSheetId="3">#REF!</definedName>
+    <definedName name="customerid" localSheetId="5">#REF!</definedName>
     <definedName name="customerid">#REF!</definedName>
-    <definedName name="Cyl_ID" localSheetId="2">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Cyl_ID" localSheetId="3">'[20]Liner Job Info'!#REF!</definedName>
+    <definedName name="Cyl_ID" localSheetId="5">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Cyl_ID">'[20]Liner Job Info'!#REF!</definedName>
-    <definedName name="Cyl_OD" localSheetId="2">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Cyl_OD" localSheetId="3">'[20]Liner Job Info'!#REF!</definedName>
+    <definedName name="Cyl_OD" localSheetId="5">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Cyl_OD">'[20]Liner Job Info'!#REF!</definedName>
-    <definedName name="Cyl_Yield" localSheetId="2">#REF!</definedName>
     <definedName name="Cyl_Yield" localSheetId="3">#REF!</definedName>
+    <definedName name="Cyl_Yield" localSheetId="5">#REF!</definedName>
     <definedName name="Cyl_Yield">#REF!</definedName>
-    <definedName name="d" localSheetId="2">#REF!</definedName>
     <definedName name="d" localSheetId="3">#REF!</definedName>
+    <definedName name="d" localSheetId="5">#REF!</definedName>
     <definedName name="d">#REF!</definedName>
-    <definedName name="D_t" localSheetId="2">#REF!</definedName>
     <definedName name="D_t" localSheetId="3">#REF!</definedName>
+    <definedName name="D_t" localSheetId="5">#REF!</definedName>
     <definedName name="D_t">#REF!</definedName>
-    <definedName name="D_t_pt" localSheetId="2">#REF!</definedName>
     <definedName name="D_t_pt" localSheetId="3">#REF!</definedName>
+    <definedName name="D_t_pt" localSheetId="5">#REF!</definedName>
     <definedName name="D_t_pt">#REF!</definedName>
-    <definedName name="D_t_te" localSheetId="2">#REF!</definedName>
     <definedName name="D_t_te" localSheetId="3">#REF!</definedName>
+    <definedName name="D_t_te" localSheetId="5">#REF!</definedName>
     <definedName name="D_t_te">#REF!</definedName>
-    <definedName name="D_t_yp" localSheetId="2">#REF!</definedName>
     <definedName name="D_t_yp" localSheetId="3">#REF!</definedName>
+    <definedName name="D_t_yp" localSheetId="5">#REF!</definedName>
     <definedName name="D_t_yp">#REF!</definedName>
-    <definedName name="D_ug" localSheetId="2">#REF!</definedName>
     <definedName name="D_ug" localSheetId="3">#REF!</definedName>
+    <definedName name="D_ug" localSheetId="5">#REF!</definedName>
     <definedName name="D_ug">#REF!</definedName>
-    <definedName name="DataTable" localSheetId="2">#REF!</definedName>
     <definedName name="DataTable" localSheetId="3">#REF!</definedName>
+    <definedName name="DataTable" localSheetId="5">#REF!</definedName>
     <definedName name="DataTable">#REF!</definedName>
-    <definedName name="Date" localSheetId="2">#REF!</definedName>
     <definedName name="Date" localSheetId="3">#REF!</definedName>
+    <definedName name="Date" localSheetId="5">#REF!</definedName>
     <definedName name="Date">#REF!</definedName>
-    <definedName name="DATEASSY" localSheetId="2">#REF!</definedName>
     <definedName name="DATEASSY" localSheetId="3">#REF!</definedName>
+    <definedName name="DATEASSY" localSheetId="5">#REF!</definedName>
     <definedName name="DATEASSY">#REF!</definedName>
-    <definedName name="datepostbriefed" localSheetId="2">#REF!</definedName>
     <definedName name="datepostbriefed" localSheetId="3">#REF!</definedName>
+    <definedName name="datepostbriefed" localSheetId="5">#REF!</definedName>
     <definedName name="datepostbriefed">#REF!</definedName>
-    <definedName name="dateprebriefed" localSheetId="2">#REF!</definedName>
     <definedName name="dateprebriefed" localSheetId="3">#REF!</definedName>
+    <definedName name="dateprebriefed" localSheetId="5">#REF!</definedName>
     <definedName name="dateprebriefed">#REF!</definedName>
-    <definedName name="david" localSheetId="2">#REF!</definedName>
     <definedName name="david" localSheetId="3">#REF!</definedName>
+    <definedName name="david" localSheetId="5">#REF!</definedName>
     <definedName name="david">#REF!</definedName>
-    <definedName name="Description" localSheetId="2">#REF!</definedName>
     <definedName name="Description" localSheetId="3">#REF!</definedName>
+    <definedName name="Description" localSheetId="5">#REF!</definedName>
     <definedName name="Description">#REF!</definedName>
-    <definedName name="Dev" localSheetId="2">#REF!</definedName>
     <definedName name="Dev" localSheetId="3">#REF!</definedName>
+    <definedName name="Dev" localSheetId="5">#REF!</definedName>
     <definedName name="Dev">#REF!</definedName>
     <definedName name="deviation">[22]DATA!$K$2:$K$103</definedName>
-    <definedName name="Discription" localSheetId="2">#REF!</definedName>
     <definedName name="Discription" localSheetId="3">#REF!</definedName>
+    <definedName name="Discription" localSheetId="5">#REF!</definedName>
     <definedName name="Discription">#REF!</definedName>
-    <definedName name="Displacement" localSheetId="2">#REF!</definedName>
     <definedName name="Displacement" localSheetId="3">#REF!</definedName>
+    <definedName name="Displacement" localSheetId="5">#REF!</definedName>
     <definedName name="Displacement">#REF!</definedName>
-    <definedName name="DisplacementMethod" localSheetId="2">#REF!</definedName>
     <definedName name="DisplacementMethod" localSheetId="3">#REF!</definedName>
+    <definedName name="DisplacementMethod" localSheetId="5">#REF!</definedName>
     <definedName name="DisplacementMethod">#REF!</definedName>
-    <definedName name="District" localSheetId="2">#REF!</definedName>
     <definedName name="District" localSheetId="3">#REF!</definedName>
+    <definedName name="District" localSheetId="5">#REF!</definedName>
     <definedName name="District">#REF!</definedName>
-    <definedName name="District_Phone" localSheetId="2">#REF!</definedName>
     <definedName name="District_Phone" localSheetId="3">#REF!</definedName>
+    <definedName name="District_Phone" localSheetId="5">#REF!</definedName>
     <definedName name="District_Phone">#REF!</definedName>
     <definedName name="Districts">[22]DATA!$A$2:$A$4</definedName>
-    <definedName name="diviation" localSheetId="2">#REF!</definedName>
     <definedName name="diviation" localSheetId="3">#REF!</definedName>
+    <definedName name="diviation" localSheetId="5">#REF!</definedName>
     <definedName name="diviation">#REF!</definedName>
-    <definedName name="Doc_Rev" localSheetId="2">#REF!</definedName>
     <definedName name="Doc_Rev" localSheetId="3">#REF!</definedName>
+    <definedName name="Doc_Rev" localSheetId="5">#REF!</definedName>
     <definedName name="Doc_Rev">#REF!</definedName>
-    <definedName name="Dogleg" localSheetId="2">#REF!</definedName>
     <definedName name="Dogleg" localSheetId="3">#REF!</definedName>
+    <definedName name="Dogleg" localSheetId="5">#REF!</definedName>
     <definedName name="Dogleg">#REF!</definedName>
-    <definedName name="dop" localSheetId="2">#REF!</definedName>
     <definedName name="dop" localSheetId="3">#REF!</definedName>
+    <definedName name="dop" localSheetId="5">#REF!</definedName>
     <definedName name="dop">#REF!</definedName>
-    <definedName name="DOUG" localSheetId="2">#REF!</definedName>
     <definedName name="DOUG" localSheetId="3">#REF!</definedName>
+    <definedName name="DOUG" localSheetId="5">#REF!</definedName>
     <definedName name="DOUG">#REF!</definedName>
-    <definedName name="DP_2_Wt_Per_Ft" localSheetId="2">#REF!</definedName>
     <definedName name="DP_2_Wt_Per_Ft" localSheetId="3">#REF!</definedName>
+    <definedName name="DP_2_Wt_Per_Ft" localSheetId="5">#REF!</definedName>
     <definedName name="DP_2_Wt_Per_Ft">#REF!</definedName>
-    <definedName name="DP_PSI" localSheetId="2">#REF!</definedName>
     <definedName name="DP_PSI" localSheetId="3">#REF!</definedName>
+    <definedName name="DP_PSI" localSheetId="5">#REF!</definedName>
     <definedName name="DP_PSI">#REF!</definedName>
-    <definedName name="DP_SF" localSheetId="2">#REF!</definedName>
     <definedName name="DP_SF" localSheetId="3">#REF!</definedName>
+    <definedName name="DP_SF" localSheetId="5">#REF!</definedName>
     <definedName name="DP_SF">#REF!</definedName>
-    <definedName name="DP1_Cap" localSheetId="2">#REF!</definedName>
     <definedName name="DP1_Cap" localSheetId="3">#REF!</definedName>
+    <definedName name="DP1_Cap" localSheetId="5">#REF!</definedName>
     <definedName name="DP1_Cap">#REF!</definedName>
-    <definedName name="dp1_conn" localSheetId="2">#REF!</definedName>
     <definedName name="dp1_conn" localSheetId="3">#REF!</definedName>
+    <definedName name="dp1_conn" localSheetId="5">#REF!</definedName>
     <definedName name="dp1_conn">#REF!</definedName>
-    <definedName name="DP1_Cross_Sect" localSheetId="2">#REF!</definedName>
     <definedName name="DP1_Cross_Sect" localSheetId="3">#REF!</definedName>
+    <definedName name="DP1_Cross_Sect" localSheetId="5">#REF!</definedName>
     <definedName name="DP1_Cross_Sect">#REF!</definedName>
-    <definedName name="DP1_Grd" localSheetId="2">#REF!</definedName>
     <definedName name="DP1_Grd" localSheetId="3">#REF!</definedName>
+    <definedName name="DP1_Grd" localSheetId="5">#REF!</definedName>
     <definedName name="DP1_Grd">#REF!</definedName>
     <definedName name="DP1_HYD_LENTH">[20]Calculations!$G$55</definedName>
-    <definedName name="DP1_ID" localSheetId="2">#REF!</definedName>
     <definedName name="DP1_ID" localSheetId="3">#REF!</definedName>
+    <definedName name="DP1_ID" localSheetId="5">#REF!</definedName>
     <definedName name="DP1_ID">#REF!</definedName>
-    <definedName name="DP1_Leng" localSheetId="2">#REF!</definedName>
     <definedName name="DP1_Leng" localSheetId="3">#REF!</definedName>
+    <definedName name="DP1_Leng" localSheetId="5">#REF!</definedName>
     <definedName name="DP1_Leng">#REF!</definedName>
-    <definedName name="DP1_MYS" localSheetId="2">#REF!</definedName>
     <definedName name="DP1_MYS" localSheetId="3">#REF!</definedName>
+    <definedName name="DP1_MYS" localSheetId="5">#REF!</definedName>
     <definedName name="DP1_MYS">#REF!</definedName>
-    <definedName name="DP1_OD" localSheetId="2">#REF!</definedName>
     <definedName name="DP1_OD" localSheetId="3">#REF!</definedName>
+    <definedName name="DP1_OD" localSheetId="5">#REF!</definedName>
     <definedName name="DP1_OD">#REF!</definedName>
-    <definedName name="DP1_Tens" localSheetId="2">#REF!</definedName>
     <definedName name="DP1_Tens" localSheetId="3">#REF!</definedName>
+    <definedName name="DP1_Tens" localSheetId="5">#REF!</definedName>
     <definedName name="DP1_Tens">#REF!</definedName>
-    <definedName name="DP1_Vol" localSheetId="2">#REF!</definedName>
     <definedName name="DP1_Vol" localSheetId="3">#REF!</definedName>
+    <definedName name="DP1_Vol" localSheetId="5">#REF!</definedName>
     <definedName name="DP1_Vol">#REF!</definedName>
-    <definedName name="DP1_Wt" localSheetId="2">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="DP1_Wt" localSheetId="3">'[20]Liner Job Info'!#REF!</definedName>
+    <definedName name="DP1_Wt" localSheetId="5">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="DP1_Wt">'[20]Liner Job Info'!#REF!</definedName>
-    <definedName name="DP1_Wt_Per_Ft" localSheetId="2">#REF!</definedName>
     <definedName name="DP1_Wt_Per_Ft" localSheetId="3">#REF!</definedName>
+    <definedName name="DP1_Wt_Per_Ft" localSheetId="5">#REF!</definedName>
     <definedName name="DP1_Wt_Per_Ft">#REF!</definedName>
-    <definedName name="DP1_X_Csg_Vol" localSheetId="2">#REF!</definedName>
     <definedName name="DP1_X_Csg_Vol" localSheetId="3">#REF!</definedName>
+    <definedName name="DP1_X_Csg_Vol" localSheetId="5">#REF!</definedName>
     <definedName name="DP1_X_Csg_Vol">#REF!</definedName>
-    <definedName name="DP2_Cap" localSheetId="2">#REF!</definedName>
     <definedName name="DP2_Cap" localSheetId="3">#REF!</definedName>
+    <definedName name="DP2_Cap" localSheetId="5">#REF!</definedName>
     <definedName name="DP2_Cap">#REF!</definedName>
-    <definedName name="dp2_conn" localSheetId="2">#REF!</definedName>
     <definedName name="dp2_conn" localSheetId="3">#REF!</definedName>
+    <definedName name="dp2_conn" localSheetId="5">#REF!</definedName>
     <definedName name="dp2_conn">#REF!</definedName>
-    <definedName name="DP2_Cross_Sect" localSheetId="2">#REF!</definedName>
     <definedName name="DP2_Cross_Sect" localSheetId="3">#REF!</definedName>
+    <definedName name="DP2_Cross_Sect" localSheetId="5">#REF!</definedName>
     <definedName name="DP2_Cross_Sect">#REF!</definedName>
-    <definedName name="DP2_Grd" localSheetId="2">#REF!</definedName>
     <definedName name="DP2_Grd" localSheetId="3">#REF!</definedName>
+    <definedName name="DP2_Grd" localSheetId="5">#REF!</definedName>
     <definedName name="DP2_Grd">#REF!</definedName>
-    <definedName name="DP2_ID" localSheetId="2">#REF!</definedName>
     <definedName name="DP2_ID" localSheetId="3">#REF!</definedName>
+    <definedName name="DP2_ID" localSheetId="5">#REF!</definedName>
     <definedName name="DP2_ID">#REF!</definedName>
-    <definedName name="DP2_Leng" localSheetId="2">#REF!</definedName>
     <definedName name="DP2_Leng" localSheetId="3">#REF!</definedName>
+    <definedName name="DP2_Leng" localSheetId="5">#REF!</definedName>
     <definedName name="DP2_Leng">#REF!</definedName>
-    <definedName name="DP2_MYS" localSheetId="2">#REF!</definedName>
     <definedName name="DP2_MYS" localSheetId="3">#REF!</definedName>
+    <definedName name="DP2_MYS" localSheetId="5">#REF!</definedName>
     <definedName name="DP2_MYS">#REF!</definedName>
-    <definedName name="DP2_OD" localSheetId="2">#REF!</definedName>
     <definedName name="DP2_OD" localSheetId="3">#REF!</definedName>
+    <definedName name="DP2_OD" localSheetId="5">#REF!</definedName>
     <definedName name="DP2_OD">#REF!</definedName>
-    <definedName name="DP2_Tens" localSheetId="2">#REF!</definedName>
     <definedName name="DP2_Tens" localSheetId="3">#REF!</definedName>
+    <definedName name="DP2_Tens" localSheetId="5">#REF!</definedName>
     <definedName name="DP2_Tens">#REF!</definedName>
-    <definedName name="DP2_Vol" localSheetId="2">#REF!</definedName>
     <definedName name="DP2_Vol" localSheetId="3">#REF!</definedName>
+    <definedName name="DP2_Vol" localSheetId="5">#REF!</definedName>
     <definedName name="DP2_Vol">#REF!</definedName>
-    <definedName name="DP2_Wt" localSheetId="2">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="DP2_Wt" localSheetId="3">'[20]Liner Job Info'!#REF!</definedName>
+    <definedName name="DP2_Wt" localSheetId="5">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="DP2_Wt">'[20]Liner Job Info'!#REF!</definedName>
-    <definedName name="DP2_Wt_Per_Ft" localSheetId="2">#REF!</definedName>
     <definedName name="DP2_Wt_Per_Ft" localSheetId="3">#REF!</definedName>
+    <definedName name="DP2_Wt_Per_Ft" localSheetId="5">#REF!</definedName>
     <definedName name="DP2_Wt_Per_Ft">#REF!</definedName>
-    <definedName name="DP2_X_Csg_Vol" localSheetId="2">#REF!</definedName>
     <definedName name="DP2_X_Csg_Vol" localSheetId="3">#REF!</definedName>
+    <definedName name="DP2_X_Csg_Vol" localSheetId="5">#REF!</definedName>
     <definedName name="DP2_X_Csg_Vol">#REF!</definedName>
-    <definedName name="DP3_bbl_per_ft" localSheetId="2">#REF!</definedName>
     <definedName name="DP3_bbl_per_ft" localSheetId="3">#REF!</definedName>
+    <definedName name="DP3_bbl_per_ft" localSheetId="5">#REF!</definedName>
     <definedName name="DP3_bbl_per_ft">#REF!</definedName>
-    <definedName name="DP3_Cap" localSheetId="2">#REF!</definedName>
     <definedName name="DP3_Cap" localSheetId="3">#REF!</definedName>
+    <definedName name="DP3_Cap" localSheetId="5">#REF!</definedName>
     <definedName name="DP3_Cap">#REF!</definedName>
-    <definedName name="dp3_conn" localSheetId="2">#REF!</definedName>
     <definedName name="dp3_conn" localSheetId="3">#REF!</definedName>
+    <definedName name="dp3_conn" localSheetId="5">#REF!</definedName>
     <definedName name="dp3_conn">#REF!</definedName>
-    <definedName name="DP3_Cross_Sect" localSheetId="2">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="DP3_Cross_Sect" localSheetId="3">'[20]Liner Job Info'!#REF!</definedName>
+    <definedName name="DP3_Cross_Sect" localSheetId="5">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="DP3_Cross_Sect">'[20]Liner Job Info'!#REF!</definedName>
-    <definedName name="DP3_Grd" localSheetId="2">#REF!</definedName>
     <definedName name="DP3_Grd" localSheetId="3">#REF!</definedName>
+    <definedName name="DP3_Grd" localSheetId="5">#REF!</definedName>
     <definedName name="DP3_Grd">#REF!</definedName>
     <definedName name="DP3_HYD_LENTH">[20]Calculations!$G$57</definedName>
-    <definedName name="DP3_ID" localSheetId="2">#REF!</definedName>
     <definedName name="DP3_ID" localSheetId="3">#REF!</definedName>
+    <definedName name="DP3_ID" localSheetId="5">#REF!</definedName>
     <definedName name="DP3_ID">#REF!</definedName>
-    <definedName name="DP3_Leng" localSheetId="2">#REF!</definedName>
     <definedName name="DP3_Leng" localSheetId="3">#REF!</definedName>
+    <definedName name="DP3_Leng" localSheetId="5">#REF!</definedName>
     <definedName name="DP3_Leng">#REF!</definedName>
-    <definedName name="DP3_MYS" localSheetId="2">#REF!</definedName>
     <definedName name="DP3_MYS" localSheetId="3">#REF!</definedName>
+    <definedName name="DP3_MYS" localSheetId="5">#REF!</definedName>
     <definedName name="DP3_MYS">#REF!</definedName>
-    <definedName name="DP3_OD" localSheetId="2">#REF!</definedName>
     <definedName name="DP3_OD" localSheetId="3">#REF!</definedName>
+    <definedName name="DP3_OD" localSheetId="5">#REF!</definedName>
     <definedName name="DP3_OD">#REF!</definedName>
-    <definedName name="DP3_Tens" localSheetId="2">#REF!</definedName>
     <definedName name="DP3_Tens" localSheetId="3">#REF!</definedName>
+    <definedName name="DP3_Tens" localSheetId="5">#REF!</definedName>
     <definedName name="DP3_Tens">#REF!</definedName>
-    <definedName name="DP3_Vol" localSheetId="2">#REF!</definedName>
     <definedName name="DP3_Vol" localSheetId="3">#REF!</definedName>
+    <definedName name="DP3_Vol" localSheetId="5">#REF!</definedName>
     <definedName name="DP3_Vol">#REF!</definedName>
-    <definedName name="DP3_Wt" localSheetId="2">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="DP3_Wt" localSheetId="3">'[20]Liner Job Info'!#REF!</definedName>
+    <definedName name="DP3_Wt" localSheetId="5">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="DP3_Wt">'[20]Liner Job Info'!#REF!</definedName>
-    <definedName name="DP3_Wt_Per_Ft" localSheetId="2">#REF!</definedName>
     <definedName name="DP3_Wt_Per_Ft" localSheetId="3">#REF!</definedName>
+    <definedName name="DP3_Wt_Per_Ft" localSheetId="5">#REF!</definedName>
     <definedName name="DP3_Wt_Per_Ft">#REF!</definedName>
-    <definedName name="DP3_X_Csg_Vol" localSheetId="2">#REF!</definedName>
     <definedName name="DP3_X_Csg_Vol" localSheetId="3">#REF!</definedName>
+    <definedName name="DP3_X_Csg_Vol" localSheetId="5">#REF!</definedName>
     <definedName name="DP3_X_Csg_Vol">#REF!</definedName>
-    <definedName name="DP4_Cap" localSheetId="2">#REF!</definedName>
     <definedName name="DP4_Cap" localSheetId="3">#REF!</definedName>
+    <definedName name="DP4_Cap" localSheetId="5">#REF!</definedName>
     <definedName name="DP4_Cap">#REF!</definedName>
-    <definedName name="dp4_conn" localSheetId="2">#REF!</definedName>
     <definedName name="dp4_conn" localSheetId="3">#REF!</definedName>
+    <definedName name="dp4_conn" localSheetId="5">#REF!</definedName>
     <definedName name="dp4_conn">#REF!</definedName>
-    <definedName name="DP4_Cross_Sect" localSheetId="2">#REF!</definedName>
     <definedName name="DP4_Cross_Sect" localSheetId="3">#REF!</definedName>
+    <definedName name="DP4_Cross_Sect" localSheetId="5">#REF!</definedName>
     <definedName name="DP4_Cross_Sect">#REF!</definedName>
-    <definedName name="DP4_Grd" localSheetId="2">#REF!</definedName>
     <definedName name="DP4_Grd" localSheetId="3">#REF!</definedName>
+    <definedName name="DP4_Grd" localSheetId="5">#REF!</definedName>
     <definedName name="DP4_Grd">#REF!</definedName>
-    <definedName name="DP4_ID" localSheetId="2">#REF!</definedName>
     <definedName name="DP4_ID" localSheetId="3">#REF!</definedName>
+    <definedName name="DP4_ID" localSheetId="5">#REF!</definedName>
     <definedName name="DP4_ID">#REF!</definedName>
-    <definedName name="DP4_Leng" localSheetId="2">#REF!</definedName>
     <definedName name="DP4_Leng" localSheetId="3">#REF!</definedName>
+    <definedName name="DP4_Leng" localSheetId="5">#REF!</definedName>
     <definedName name="DP4_Leng">#REF!</definedName>
-    <definedName name="DP4_MYS" localSheetId="2">#REF!</definedName>
     <definedName name="DP4_MYS" localSheetId="3">#REF!</definedName>
+    <definedName name="DP4_MYS" localSheetId="5">#REF!</definedName>
     <definedName name="DP4_MYS">#REF!</definedName>
-    <definedName name="DP4_OD" localSheetId="2">#REF!</definedName>
     <definedName name="DP4_OD" localSheetId="3">#REF!</definedName>
+    <definedName name="DP4_OD" localSheetId="5">#REF!</definedName>
     <definedName name="DP4_OD">#REF!</definedName>
-    <definedName name="DP4_Tens" localSheetId="2">#REF!</definedName>
     <definedName name="DP4_Tens" localSheetId="3">#REF!</definedName>
+    <definedName name="DP4_Tens" localSheetId="5">#REF!</definedName>
     <definedName name="DP4_Tens">#REF!</definedName>
-    <definedName name="DP4_Tensile" localSheetId="2">'[24]Gulf Example (2)'!#REF!</definedName>
     <definedName name="DP4_Tensile" localSheetId="3">'[24]Gulf Example (2)'!#REF!</definedName>
+    <definedName name="DP4_Tensile" localSheetId="5">'[24]Gulf Example (2)'!#REF!</definedName>
     <definedName name="DP4_Tensile">'[24]Gulf Example (2)'!#REF!</definedName>
-    <definedName name="DP4_Vol" localSheetId="2">#REF!</definedName>
     <definedName name="DP4_Vol" localSheetId="3">#REF!</definedName>
+    <definedName name="DP4_Vol" localSheetId="5">#REF!</definedName>
     <definedName name="DP4_Vol">#REF!</definedName>
-    <definedName name="DP4_Wt_Per_Ft" localSheetId="2">#REF!</definedName>
     <definedName name="DP4_Wt_Per_Ft" localSheetId="3">#REF!</definedName>
+    <definedName name="DP4_Wt_Per_Ft" localSheetId="5">#REF!</definedName>
     <definedName name="DP4_Wt_Per_Ft">#REF!</definedName>
-    <definedName name="DP4_X_Csg_Vol" localSheetId="2">#REF!</definedName>
     <definedName name="DP4_X_Csg_Vol" localSheetId="3">#REF!</definedName>
+    <definedName name="DP4_X_Csg_Vol" localSheetId="5">#REF!</definedName>
     <definedName name="DP4_X_Csg_Vol">#REF!</definedName>
-    <definedName name="DP5_BALL_Lenth" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="DP5_BALL_Lenth" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="DP5_BALL_Lenth" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="DP5_BALL_Lenth">[20]Calculations!#REF!</definedName>
-    <definedName name="DP5_bbl_per_ft" localSheetId="2">#REF!</definedName>
     <definedName name="DP5_bbl_per_ft" localSheetId="3">#REF!</definedName>
+    <definedName name="DP5_bbl_per_ft" localSheetId="5">#REF!</definedName>
     <definedName name="DP5_bbl_per_ft">#REF!</definedName>
-    <definedName name="DP5_Cap" localSheetId="2">#REF!</definedName>
     <definedName name="DP5_Cap" localSheetId="3">#REF!</definedName>
+    <definedName name="DP5_Cap" localSheetId="5">#REF!</definedName>
     <definedName name="DP5_Cap">#REF!</definedName>
-    <definedName name="dp5_conn" localSheetId="2">#REF!</definedName>
     <definedName name="dp5_conn" localSheetId="3">#REF!</definedName>
+    <definedName name="dp5_conn" localSheetId="5">#REF!</definedName>
     <definedName name="dp5_conn">#REF!</definedName>
-    <definedName name="DP5_Cross_Sect" localSheetId="2">#REF!</definedName>
     <definedName name="DP5_Cross_Sect" localSheetId="3">#REF!</definedName>
+    <definedName name="DP5_Cross_Sect" localSheetId="5">#REF!</definedName>
     <definedName name="DP5_Cross_Sect">#REF!</definedName>
-    <definedName name="DP5_Grd" localSheetId="2">#REF!</definedName>
     <definedName name="DP5_Grd" localSheetId="3">#REF!</definedName>
+    <definedName name="DP5_Grd" localSheetId="5">#REF!</definedName>
     <definedName name="DP5_Grd">#REF!</definedName>
-    <definedName name="DP5_HYD_Lenth" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="DP5_HYD_Lenth" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="DP5_HYD_Lenth" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="DP5_HYD_Lenth">[20]Calculations!#REF!</definedName>
-    <definedName name="DP5_ID" localSheetId="2">#REF!</definedName>
     <definedName name="DP5_ID" localSheetId="3">#REF!</definedName>
+    <definedName name="DP5_ID" localSheetId="5">#REF!</definedName>
     <definedName name="DP5_ID">#REF!</definedName>
-    <definedName name="DP5_Leng" localSheetId="2">#REF!</definedName>
     <definedName name="DP5_Leng" localSheetId="3">#REF!</definedName>
+    <definedName name="DP5_Leng" localSheetId="5">#REF!</definedName>
     <definedName name="DP5_Leng">#REF!</definedName>
-    <definedName name="DP5_MYS" localSheetId="2">#REF!</definedName>
     <definedName name="DP5_MYS" localSheetId="3">#REF!</definedName>
+    <definedName name="DP5_MYS" localSheetId="5">#REF!</definedName>
     <definedName name="DP5_MYS">#REF!</definedName>
-    <definedName name="DP5_OD" localSheetId="2">#REF!</definedName>
     <definedName name="DP5_OD" localSheetId="3">#REF!</definedName>
+    <definedName name="DP5_OD" localSheetId="5">#REF!</definedName>
     <definedName name="DP5_OD">#REF!</definedName>
-    <definedName name="DP5_PSTN_Lenth" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="DP5_PSTN_Lenth" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="DP5_PSTN_Lenth" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="DP5_PSTN_Lenth">[20]Calculations!#REF!</definedName>
-    <definedName name="DP5_Tens" localSheetId="2">#REF!</definedName>
     <definedName name="DP5_Tens" localSheetId="3">#REF!</definedName>
+    <definedName name="DP5_Tens" localSheetId="5">#REF!</definedName>
     <definedName name="DP5_Tens">#REF!</definedName>
-    <definedName name="DP5_Vol" localSheetId="2">#REF!</definedName>
     <definedName name="DP5_Vol" localSheetId="3">#REF!</definedName>
+    <definedName name="DP5_Vol" localSheetId="5">#REF!</definedName>
     <definedName name="DP5_Vol">#REF!</definedName>
-    <definedName name="DP5_Wt_Per_Ft" localSheetId="2">#REF!</definedName>
     <definedName name="DP5_Wt_Per_Ft" localSheetId="3">#REF!</definedName>
+    <definedName name="DP5_Wt_Per_Ft" localSheetId="5">#REF!</definedName>
     <definedName name="DP5_Wt_Per_Ft">#REF!</definedName>
-    <definedName name="DP5_X_Csg_Vol" localSheetId="2">#REF!</definedName>
     <definedName name="DP5_X_Csg_Vol" localSheetId="3">#REF!</definedName>
+    <definedName name="DP5_X_Csg_Vol" localSheetId="5">#REF!</definedName>
     <definedName name="DP5_X_Csg_Vol">#REF!</definedName>
-    <definedName name="DPTTL_BALL_LENTH" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="DPTTL_BALL_LENTH" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="DPTTL_BALL_LENTH" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="DPTTL_BALL_LENTH">[20]Calculations!#REF!</definedName>
-    <definedName name="DPTTL_HYD_LENTH" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="DPTTL_HYD_LENTH" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="DPTTL_HYD_LENTH" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="DPTTL_HYD_LENTH">[20]Calculations!#REF!</definedName>
-    <definedName name="DPTTL_PSTN_LENTH" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="DPTTL_PSTN_LENTH" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="DPTTL_PSTN_LENTH" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="DPTTL_PSTN_LENTH">[20]Calculations!#REF!</definedName>
-    <definedName name="Drilling1" localSheetId="2">#REF!</definedName>
     <definedName name="Drilling1" localSheetId="3">#REF!</definedName>
+    <definedName name="Drilling1" localSheetId="5">#REF!</definedName>
     <definedName name="Drilling1">#REF!</definedName>
-    <definedName name="Drilling2" localSheetId="2">#REF!</definedName>
     <definedName name="Drilling2" localSheetId="3">#REF!</definedName>
+    <definedName name="Drilling2" localSheetId="5">#REF!</definedName>
     <definedName name="Drilling2">#REF!</definedName>
-    <definedName name="Drilling3" localSheetId="2">#REF!</definedName>
     <definedName name="Drilling3" localSheetId="3">#REF!</definedName>
+    <definedName name="Drilling3" localSheetId="5">#REF!</definedName>
     <definedName name="Drilling3">#REF!</definedName>
-    <definedName name="Drilling4" localSheetId="2">#REF!</definedName>
     <definedName name="Drilling4" localSheetId="3">#REF!</definedName>
+    <definedName name="Drilling4" localSheetId="5">#REF!</definedName>
     <definedName name="Drilling4">#REF!</definedName>
-    <definedName name="Drilling5" localSheetId="2">#REF!</definedName>
     <definedName name="Drilling5" localSheetId="3">#REF!</definedName>
+    <definedName name="Drilling5" localSheetId="5">#REF!</definedName>
     <definedName name="Drilling5">#REF!</definedName>
     <definedName name="Drillpipesize">[22]DATA!$Z$2:$Z$10</definedName>
-    <definedName name="Drillpipethread" localSheetId="2">#REF!</definedName>
     <definedName name="Drillpipethread" localSheetId="3">#REF!</definedName>
+    <definedName name="Drillpipethread" localSheetId="5">#REF!</definedName>
     <definedName name="Drillpipethread">#REF!</definedName>
     <definedName name="Drillpipetype">[22]DATA!$AC$2:$AC$6</definedName>
-    <definedName name="Drillpipeweight" localSheetId="2">#REF!</definedName>
     <definedName name="Drillpipeweight" localSheetId="3">#REF!</definedName>
+    <definedName name="Drillpipeweight" localSheetId="5">#REF!</definedName>
     <definedName name="Drillpipeweight">#REF!</definedName>
     <definedName name="E_Mail">'[25]Data Entry'!$G$16</definedName>
-    <definedName name="Econoprop" localSheetId="2">#REF!</definedName>
     <definedName name="Econoprop" localSheetId="3">#REF!</definedName>
+    <definedName name="Econoprop" localSheetId="5">#REF!</definedName>
     <definedName name="Econoprop">#REF!</definedName>
     <definedName name="EKIKO2">'[22]TD_CLEAN OUT'!$D$3</definedName>
-    <definedName name="Element_Rating" localSheetId="2">#REF!</definedName>
     <definedName name="Element_Rating" localSheetId="3">#REF!</definedName>
+    <definedName name="Element_Rating" localSheetId="5">#REF!</definedName>
     <definedName name="Element_Rating">#REF!</definedName>
-    <definedName name="English" localSheetId="2">#REF!</definedName>
     <definedName name="English" localSheetId="3">#REF!</definedName>
+    <definedName name="English" localSheetId="5">#REF!</definedName>
     <definedName name="English">#REF!</definedName>
-    <definedName name="Equipmentrunin" localSheetId="2">#REF!</definedName>
     <definedName name="Equipmentrunin" localSheetId="3">#REF!</definedName>
+    <definedName name="Equipmentrunin" localSheetId="5">#REF!</definedName>
     <definedName name="Equipmentrunin">#REF!</definedName>
-    <definedName name="Exist_Liner_Top_Depth" localSheetId="2">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Exist_Liner_Top_Depth" localSheetId="3">'[20]Liner Job Info'!#REF!</definedName>
+    <definedName name="Exist_Liner_Top_Depth" localSheetId="5">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Exist_Liner_Top_Depth">'[20]Liner Job Info'!#REF!</definedName>
-    <definedName name="Existing_Liner_Top" localSheetId="2">#REF!</definedName>
     <definedName name="Existing_Liner_Top" localSheetId="3">#REF!</definedName>
+    <definedName name="Existing_Liner_Top" localSheetId="5">#REF!</definedName>
     <definedName name="Existing_Liner_Top">#REF!</definedName>
-    <definedName name="Existing_Liner_Top_Depth" localSheetId="2">#REF!</definedName>
     <definedName name="Existing_Liner_Top_Depth" localSheetId="3">#REF!</definedName>
+    <definedName name="Existing_Liner_Top_Depth" localSheetId="5">#REF!</definedName>
     <definedName name="Existing_Liner_Top_Depth">#REF!</definedName>
-    <definedName name="Ext_ID" localSheetId="2">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Ext_ID" localSheetId="3">'[20]Liner Job Info'!#REF!</definedName>
+    <definedName name="Ext_ID" localSheetId="5">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Ext_ID">'[20]Liner Job Info'!#REF!</definedName>
-    <definedName name="Ext_OD" localSheetId="2">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Ext_OD" localSheetId="3">'[20]Liner Job Info'!#REF!</definedName>
+    <definedName name="Ext_OD" localSheetId="5">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Ext_OD">'[20]Liner Job Info'!#REF!</definedName>
-    <definedName name="f" localSheetId="2">#REF!</definedName>
     <definedName name="f" localSheetId="3">#REF!</definedName>
+    <definedName name="f" localSheetId="5">#REF!</definedName>
     <definedName name="f">#REF!</definedName>
     <definedName name="fd">#N/A</definedName>
-    <definedName name="Field" localSheetId="2">#REF!</definedName>
     <definedName name="Field" localSheetId="3">#REF!</definedName>
+    <definedName name="Field" localSheetId="5">#REF!</definedName>
     <definedName name="Field">#REF!</definedName>
     <definedName name="FIelds">[22]DATA!$E$2:$E$212</definedName>
     <definedName name="File_Number">'[25]Data Entry'!$C$4</definedName>
-    <definedName name="Float_Equip_Type" localSheetId="2">#REF!</definedName>
     <definedName name="Float_Equip_Type" localSheetId="3">#REF!</definedName>
+    <definedName name="Float_Equip_Type" localSheetId="5">#REF!</definedName>
     <definedName name="Float_Equip_Type">#REF!</definedName>
-    <definedName name="Floatequipment" localSheetId="2">#REF!</definedName>
     <definedName name="Floatequipment" localSheetId="3">#REF!</definedName>
+    <definedName name="Floatequipment" localSheetId="5">#REF!</definedName>
     <definedName name="Floatequipment">#REF!</definedName>
     <definedName name="Fluids">[26]MATERIALS!$D$7</definedName>
-    <definedName name="FluidWt" localSheetId="2">#REF!</definedName>
     <definedName name="FluidWt" localSheetId="3">#REF!</definedName>
+    <definedName name="FluidWt" localSheetId="5">#REF!</definedName>
     <definedName name="FluidWt">#REF!</definedName>
-    <definedName name="Follow_Plug_Latch" localSheetId="2">#REF!</definedName>
     <definedName name="Follow_Plug_Latch" localSheetId="3">#REF!</definedName>
+    <definedName name="Follow_Plug_Latch" localSheetId="5">#REF!</definedName>
     <definedName name="Follow_Plug_Latch">#REF!</definedName>
-    <definedName name="Follow_Plug_Shear_LWP" localSheetId="2">#REF!</definedName>
     <definedName name="Follow_Plug_Shear_LWP" localSheetId="3">#REF!</definedName>
+    <definedName name="Follow_Plug_Shear_LWP" localSheetId="5">#REF!</definedName>
     <definedName name="Follow_Plug_Shear_LWP">#REF!</definedName>
-    <definedName name="Follow_Plugs_Bump?" localSheetId="2">'[27]Job Summary'!#REF!</definedName>
     <definedName name="Follow_Plugs_Bump?" localSheetId="3">'[27]Job Summary'!#REF!</definedName>
+    <definedName name="Follow_Plugs_Bump?" localSheetId="5">'[27]Job Summary'!#REF!</definedName>
     <definedName name="Follow_Plugs_Bump?">'[27]Job Summary'!#REF!</definedName>
-    <definedName name="Follow_Plugs_Bump_Press" localSheetId="2">#REF!</definedName>
     <definedName name="Follow_Plugs_Bump_Press" localSheetId="3">#REF!</definedName>
+    <definedName name="Follow_Plugs_Bump_Press" localSheetId="5">#REF!</definedName>
     <definedName name="Follow_Plugs_Bump_Press">#REF!</definedName>
-    <definedName name="Four_Plug_Syst_Leak?" localSheetId="2">#REF!</definedName>
     <definedName name="Four_Plug_Syst_Leak?" localSheetId="3">#REF!</definedName>
+    <definedName name="Four_Plug_Syst_Leak?" localSheetId="5">#REF!</definedName>
     <definedName name="Four_Plug_Syst_Leak?">#REF!</definedName>
-    <definedName name="Ft_SlackOff_LinWt_HydForce" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Ft_SlackOff_LinWt_HydForce" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Ft_SlackOff_LinWt_HydForce" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Ft_SlackOff_LinWt_HydForce">[20]Calculations!#REF!</definedName>
-    <definedName name="functioned" localSheetId="2">#REF!</definedName>
     <definedName name="functioned" localSheetId="3">#REF!</definedName>
+    <definedName name="functioned" localSheetId="5">#REF!</definedName>
     <definedName name="functioned">#REF!</definedName>
-    <definedName name="G" localSheetId="2">#REF!</definedName>
     <definedName name="G" localSheetId="3">#REF!</definedName>
+    <definedName name="G" localSheetId="5">#REF!</definedName>
     <definedName name="G">#REF!</definedName>
-    <definedName name="gdata" localSheetId="2">#REF!</definedName>
     <definedName name="gdata" localSheetId="3">#REF!</definedName>
+    <definedName name="gdata" localSheetId="5">#REF!</definedName>
     <definedName name="gdata">#REF!</definedName>
     <definedName name="H_vert">'[12]Проектные данные'!$E$5</definedName>
-    <definedName name="H2S" localSheetId="2">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="H2S" localSheetId="3">'[20]Liner Job Info'!#REF!</definedName>
+    <definedName name="H2S" localSheetId="5">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="H2S">'[20]Liner Job Info'!#REF!</definedName>
-    <definedName name="HANGER" localSheetId="2">#REF!</definedName>
     <definedName name="HANGER" localSheetId="3">#REF!</definedName>
+    <definedName name="HANGER" localSheetId="5">#REF!</definedName>
     <definedName name="HANGER">#REF!</definedName>
-    <definedName name="Hanger_size" localSheetId="2">#REF!</definedName>
     <definedName name="Hanger_size" localSheetId="3">#REF!</definedName>
+    <definedName name="Hanger_size" localSheetId="5">#REF!</definedName>
     <definedName name="Hanger_size">#REF!</definedName>
-    <definedName name="Hangerfunction" localSheetId="2">#REF!</definedName>
     <definedName name="Hangerfunction" localSheetId="3">#REF!</definedName>
+    <definedName name="Hangerfunction" localSheetId="5">#REF!</definedName>
     <definedName name="Hangerfunction">#REF!</definedName>
     <definedName name="Header">[1]IFE!$B$3:$AK$3</definedName>
-    <definedName name="HELP" localSheetId="2">#REF!</definedName>
     <definedName name="HELP" localSheetId="3">#REF!</definedName>
+    <definedName name="HELP" localSheetId="5">#REF!</definedName>
     <definedName name="HELP">#REF!</definedName>
-    <definedName name="HGR_OL_Packoff_In" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="HGR_OL_Packoff_In" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="HGR_OL_Packoff_In" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="HGR_OL_Packoff_In">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Hgr_Set?" localSheetId="2">#REF!</definedName>
     <definedName name="Hgr_Set?" localSheetId="3">#REF!</definedName>
+    <definedName name="Hgr_Set?" localSheetId="5">#REF!</definedName>
     <definedName name="Hgr_Set?">#REF!</definedName>
     <definedName name="HgrMaterial">[22]DATA!$N$2:$N$16</definedName>
-    <definedName name="Hng_Cap" localSheetId="2">#REF!</definedName>
     <definedName name="Hng_Cap" localSheetId="3">#REF!</definedName>
+    <definedName name="Hng_Cap" localSheetId="5">#REF!</definedName>
     <definedName name="Hng_Cap">#REF!</definedName>
-    <definedName name="Hngr_Body_OD" localSheetId="2">#REF!</definedName>
     <definedName name="Hngr_Body_OD" localSheetId="3">#REF!</definedName>
+    <definedName name="Hngr_Body_OD" localSheetId="5">#REF!</definedName>
     <definedName name="Hngr_Body_OD">#REF!</definedName>
-    <definedName name="Hngr_Body_yield" localSheetId="2">#REF!</definedName>
     <definedName name="Hngr_Body_yield" localSheetId="3">#REF!</definedName>
+    <definedName name="Hngr_Body_yield" localSheetId="5">#REF!</definedName>
     <definedName name="Hngr_Body_yield">#REF!</definedName>
-    <definedName name="Hngr_BP_Set" localSheetId="2">#REF!</definedName>
     <definedName name="Hngr_BP_Set" localSheetId="3">#REF!</definedName>
+    <definedName name="Hngr_BP_Set" localSheetId="5">#REF!</definedName>
     <definedName name="Hngr_BP_Set">#REF!</definedName>
-    <definedName name="Hngr_BP_Unset" localSheetId="2">#REF!</definedName>
     <definedName name="Hngr_BP_Unset" localSheetId="3">#REF!</definedName>
+    <definedName name="Hngr_BP_Unset" localSheetId="5">#REF!</definedName>
     <definedName name="Hngr_BP_Unset">#REF!</definedName>
-    <definedName name="Hngr_Bst" localSheetId="2">#REF!</definedName>
     <definedName name="Hngr_Bst" localSheetId="3">#REF!</definedName>
+    <definedName name="Hngr_Bst" localSheetId="5">#REF!</definedName>
     <definedName name="Hngr_Bst">#REF!</definedName>
-    <definedName name="Hngr_Coll" localSheetId="2">#REF!</definedName>
     <definedName name="Hngr_Coll" localSheetId="3">#REF!</definedName>
+    <definedName name="Hngr_Coll" localSheetId="5">#REF!</definedName>
     <definedName name="Hngr_Coll">#REF!</definedName>
-    <definedName name="Hngr_ID" localSheetId="2">#REF!</definedName>
     <definedName name="Hngr_ID" localSheetId="3">#REF!</definedName>
+    <definedName name="Hngr_ID" localSheetId="5">#REF!</definedName>
     <definedName name="Hngr_ID">#REF!</definedName>
-    <definedName name="Hngr_Matl_Num" localSheetId="2">#REF!</definedName>
     <definedName name="Hngr_Matl_Num" localSheetId="3">#REF!</definedName>
+    <definedName name="Hngr_Matl_Num" localSheetId="5">#REF!</definedName>
     <definedName name="Hngr_Matl_Num">#REF!</definedName>
-    <definedName name="Hngr_Mdl" localSheetId="2">#REF!</definedName>
     <definedName name="Hngr_Mdl" localSheetId="3">#REF!</definedName>
+    <definedName name="Hngr_Mdl" localSheetId="5">#REF!</definedName>
     <definedName name="Hngr_Mdl">#REF!</definedName>
-    <definedName name="Hngr_Model" localSheetId="2">#REF!</definedName>
     <definedName name="Hngr_Model" localSheetId="3">#REF!</definedName>
+    <definedName name="Hngr_Model" localSheetId="5">#REF!</definedName>
     <definedName name="Hngr_Model">#REF!</definedName>
-    <definedName name="Hngr_OD" localSheetId="2">#REF!</definedName>
     <definedName name="Hngr_OD" localSheetId="3">#REF!</definedName>
+    <definedName name="Hngr_OD" localSheetId="5">#REF!</definedName>
     <definedName name="Hngr_OD">#REF!</definedName>
-    <definedName name="Hngr_OL_PO_out" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Hngr_OL_PO_out" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Hngr_OL_PO_out" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Hngr_OL_PO_out">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Hngr_Overload_Cmt_Setup" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Hngr_Overload_Cmt_Setup" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Hngr_Overload_Cmt_Setup" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Hngr_Overload_Cmt_Setup">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Hngr_Shear" localSheetId="2">#REF!</definedName>
     <definedName name="Hngr_Shear" localSheetId="3">#REF!</definedName>
+    <definedName name="Hngr_Shear" localSheetId="5">#REF!</definedName>
     <definedName name="Hngr_Shear">#REF!</definedName>
-    <definedName name="Hngr_Tens" localSheetId="2">#REF!</definedName>
     <definedName name="Hngr_Tens" localSheetId="3">#REF!</definedName>
+    <definedName name="Hngr_Tens" localSheetId="5">#REF!</definedName>
     <definedName name="Hngr_Tens">#REF!</definedName>
-    <definedName name="Hngr_Type" localSheetId="2">#REF!</definedName>
     <definedName name="Hngr_Type" localSheetId="3">#REF!</definedName>
+    <definedName name="Hngr_Type" localSheetId="5">#REF!</definedName>
     <definedName name="Hngr_Type">#REF!</definedName>
-    <definedName name="Hngr_Yld" localSheetId="2">#REF!</definedName>
     <definedName name="Hngr_Yld" localSheetId="3">#REF!</definedName>
+    <definedName name="Hngr_Yld" localSheetId="5">#REF!</definedName>
     <definedName name="Hngr_Yld">#REF!</definedName>
     <definedName name="holevol">#N/A</definedName>
-    <definedName name="HR_Turns" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="HR_Turns" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="HR_Turns" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="HR_Turns">[20]Calculations!#REF!</definedName>
     <definedName name="Hvert">'[18]Проектные данные'!$E$5</definedName>
     <definedName name="Hvert1">'[12]Проектные данные'!$F$5</definedName>
-    <definedName name="Hyd_Cyl_Shear_Press" localSheetId="2">#REF!</definedName>
     <definedName name="Hyd_Cyl_Shear_Press" localSheetId="3">#REF!</definedName>
+    <definedName name="Hyd_Cyl_Shear_Press" localSheetId="5">#REF!</definedName>
     <definedName name="Hyd_Cyl_Shear_Press">#REF!</definedName>
-    <definedName name="Hyd_Cyl_Yield" localSheetId="2">#REF!</definedName>
     <definedName name="Hyd_Cyl_Yield" localSheetId="3">#REF!</definedName>
+    <definedName name="Hyd_Cyl_Yield" localSheetId="5">#REF!</definedName>
     <definedName name="Hyd_Cyl_Yield">#REF!</definedName>
-    <definedName name="Hyd_Effect_Force" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Hyd_Effect_Force" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Hyd_Effect_Force" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Hyd_Effect_Force">[20]Calculations!#REF!</definedName>
-    <definedName name="Hyd_force_element" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Hyd_force_element" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Hyd_force_element" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Hyd_force_element">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="HYD_Press_to_Exceed_Pckr_Sett_Force" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="HYD_Press_to_Exceed_Pckr_Sett_Force" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="HYD_Press_to_Exceed_Pckr_Sett_Force" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="HYD_Press_to_Exceed_Pckr_Sett_Force">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="HYD_Press_w_DP_and_Pist_Forces_Over_Entire_Area" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="HYD_Press_w_DP_and_Pist_Forces_Over_Entire_Area" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="HYD_Press_w_DP_and_Pist_Forces_Over_Entire_Area" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="HYD_Press_w_DP_and_Pist_Forces_Over_Entire_Area">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="HYD_Press_with_DP_Forces" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="HYD_Press_with_DP_Forces" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="HYD_Press_with_DP_Forces" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="HYD_Press_with_DP_Forces">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Hyflo_Work" localSheetId="2">#REF!</definedName>
     <definedName name="Hyflo_Work" localSheetId="3">#REF!</definedName>
+    <definedName name="Hyflo_Work" localSheetId="5">#REF!</definedName>
     <definedName name="Hyflo_Work">#REF!</definedName>
     <definedName name="i">'[12]Проектные данные'!$AD$4</definedName>
-    <definedName name="ID" localSheetId="2">#REF!</definedName>
     <definedName name="ID" localSheetId="3">#REF!</definedName>
+    <definedName name="ID" localSheetId="5">#REF!</definedName>
     <definedName name="ID">#REF!</definedName>
     <definedName name="IInt1">'[5]Проектные данные'!$AB$4</definedName>
     <definedName name="IInt2">'[5]Проектные данные'!$AB$5</definedName>
@@ -965,142 +967,142 @@
     <definedName name="IInt4">'[5]Проектные данные'!$AB$7</definedName>
     <definedName name="IInt5">'[5]Проектные данные'!$AB$8</definedName>
     <definedName name="IInt6">'[5]Проектные данные'!$AB$9</definedName>
-    <definedName name="Insert_New_Page" localSheetId="2">[28]!Insert_New_Page</definedName>
     <definedName name="Insert_New_Page" localSheetId="3">[28]!Insert_New_Page</definedName>
+    <definedName name="Insert_New_Page" localSheetId="5">[28]!Insert_New_Page</definedName>
     <definedName name="Insert_New_Page">[28]!Insert_New_Page</definedName>
-    <definedName name="Inverse_Balloon_Area" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Inverse_Balloon_Area" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Inverse_Balloon_Area" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Inverse_Balloon_Area">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Inverse_Balloon_DP_Forces" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Inverse_Balloon_DP_Forces" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Inverse_Balloon_DP_Forces" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Inverse_Balloon_DP_Forces">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="jhgj" localSheetId="2">VLOOKUP([17]!Liner2_Wt_Per_FT,OFFSET(INDIRECT(ADDRESS(MATCH([17]!Liner2_OD,[17]!Objects,0)+1,2,,,"Casing Info")),0,1,COUNTIF([17]!Objects,[17]!Liner2_OD),2),2)</definedName>
     <definedName name="jhgj" localSheetId="3">VLOOKUP([17]!Liner2_Wt_Per_FT,OFFSET(INDIRECT(ADDRESS(MATCH([17]!Liner2_OD,[17]!Objects,0)+1,2,,,"Casing Info")),0,1,COUNTIF([17]!Objects,[17]!Liner2_OD),2),2)</definedName>
+    <definedName name="jhgj" localSheetId="5">VLOOKUP([17]!Liner2_Wt_Per_FT,OFFSET(INDIRECT(ADDRESS(MATCH([17]!Liner2_OD,[17]!Objects,0)+1,2,,,"Casing Info")),0,1,COUNTIF([17]!Objects,[17]!Liner2_OD),2),2)</definedName>
     <definedName name="jhgj">VLOOKUP([17]!Liner2_Wt_Per_FT,OFFSET(INDIRECT(ADDRESS(MATCH([17]!Liner2_OD,[17]!Objects,0)+1,2,,,"Casing Info")),0,1,COUNTIF([17]!Objects,[17]!Liner2_OD),2),2)</definedName>
-    <definedName name="Job_Date" localSheetId="2">#REF!</definedName>
     <definedName name="Job_Date" localSheetId="3">#REF!</definedName>
+    <definedName name="Job_Date" localSheetId="5">#REF!</definedName>
     <definedName name="Job_Date">#REF!</definedName>
-    <definedName name="Job_Name" localSheetId="2">#REF!</definedName>
     <definedName name="Job_Name" localSheetId="3">#REF!</definedName>
+    <definedName name="Job_Name" localSheetId="5">#REF!</definedName>
     <definedName name="Job_Name">#REF!</definedName>
     <definedName name="Job_Type">'[25]Data Entry'!$G$5</definedName>
-    <definedName name="JOBTYPE" localSheetId="2">#REF!</definedName>
     <definedName name="JOBTYPE" localSheetId="3">#REF!</definedName>
+    <definedName name="JOBTYPE" localSheetId="5">#REF!</definedName>
     <definedName name="JOBTYPE">#REF!</definedName>
-    <definedName name="JOBTYPE3" localSheetId="2">'[26]DATA MASTER'!#REF!</definedName>
     <definedName name="JOBTYPE3" localSheetId="3">'[26]DATA MASTER'!#REF!</definedName>
+    <definedName name="JOBTYPE3" localSheetId="5">'[26]DATA MASTER'!#REF!</definedName>
     <definedName name="JOBTYPE3">'[26]DATA MASTER'!#REF!</definedName>
-    <definedName name="Jt_No" localSheetId="2">#REF!</definedName>
     <definedName name="Jt_No" localSheetId="3">#REF!</definedName>
+    <definedName name="Jt_No" localSheetId="5">#REF!</definedName>
     <definedName name="Jt_No">#REF!</definedName>
-    <definedName name="Kоэф.разб.3" localSheetId="2">#REF!</definedName>
     <definedName name="Kоэф.разб.3" localSheetId="3">#REF!</definedName>
+    <definedName name="Kоэф.разб.3" localSheetId="5">#REF!</definedName>
     <definedName name="Kоэф.разб.3">#REF!</definedName>
-    <definedName name="LastCsgString" localSheetId="2">#REF!</definedName>
     <definedName name="LastCsgString" localSheetId="3">#REF!</definedName>
+    <definedName name="LastCsgString" localSheetId="5">#REF!</definedName>
     <definedName name="LastCsgString">#REF!</definedName>
-    <definedName name="lb_gal" localSheetId="2">#REF!</definedName>
     <definedName name="lb_gal" localSheetId="3">#REF!</definedName>
+    <definedName name="lb_gal" localSheetId="5">#REF!</definedName>
     <definedName name="lb_gal">#REF!</definedName>
-    <definedName name="Lead_Cmt_Wt" localSheetId="2">#REF!</definedName>
     <definedName name="Lead_Cmt_Wt" localSheetId="3">#REF!</definedName>
+    <definedName name="Lead_Cmt_Wt" localSheetId="5">#REF!</definedName>
     <definedName name="Lead_Cmt_Wt">#REF!</definedName>
-    <definedName name="Lead_PDP_Latch" localSheetId="2">#REF!</definedName>
     <definedName name="Lead_PDP_Latch" localSheetId="3">#REF!</definedName>
+    <definedName name="Lead_PDP_Latch" localSheetId="5">#REF!</definedName>
     <definedName name="Lead_PDP_Latch">#REF!</definedName>
-    <definedName name="Lead_Plug_Shear_LWP" localSheetId="2">#REF!</definedName>
     <definedName name="Lead_Plug_Shear_LWP" localSheetId="3">#REF!</definedName>
+    <definedName name="Lead_Plug_Shear_LWP" localSheetId="5">#REF!</definedName>
     <definedName name="Lead_Plug_Shear_LWP">#REF!</definedName>
-    <definedName name="Lead_Plugs_Bump?" localSheetId="2">#REF!</definedName>
     <definedName name="Lead_Plugs_Bump?" localSheetId="3">#REF!</definedName>
+    <definedName name="Lead_Plugs_Bump?" localSheetId="5">#REF!</definedName>
     <definedName name="Lead_Plugs_Bump?">#REF!</definedName>
-    <definedName name="Lead_Plugs_Bump_Press" localSheetId="2">#REF!</definedName>
     <definedName name="Lead_Plugs_Bump_Press" localSheetId="3">#REF!</definedName>
+    <definedName name="Lead_Plugs_Bump_Press" localSheetId="5">#REF!</definedName>
     <definedName name="Lead_Plugs_Bump_Press">#REF!</definedName>
-    <definedName name="Leak_Off_Press" localSheetId="2">#REF!</definedName>
     <definedName name="Leak_Off_Press" localSheetId="3">#REF!</definedName>
+    <definedName name="Leak_Off_Press" localSheetId="5">#REF!</definedName>
     <definedName name="Leak_Off_Press">#REF!</definedName>
     <definedName name="Leak_Off_Test">'[24]Gulf Example (2)'!$J$3</definedName>
-    <definedName name="Leak_Off_Test_Press." localSheetId="2">#REF!</definedName>
     <definedName name="Leak_Off_Test_Press." localSheetId="3">#REF!</definedName>
+    <definedName name="Leak_Off_Test_Press." localSheetId="5">#REF!</definedName>
     <definedName name="Leak_Off_Test_Press.">#REF!</definedName>
-    <definedName name="Lease" localSheetId="2">#REF!</definedName>
     <definedName name="Lease" localSheetId="3">#REF!</definedName>
+    <definedName name="Lease" localSheetId="5">#REF!</definedName>
     <definedName name="Lease">#REF!</definedName>
-    <definedName name="Length_long" localSheetId="2">#REF!</definedName>
     <definedName name="Length_long" localSheetId="3">#REF!</definedName>
+    <definedName name="Length_long" localSheetId="5">#REF!</definedName>
     <definedName name="Length_long">#REF!</definedName>
-    <definedName name="Length_small" localSheetId="2">#REF!</definedName>
     <definedName name="Length_small" localSheetId="3">#REF!</definedName>
+    <definedName name="Length_small" localSheetId="5">#REF!</definedName>
     <definedName name="Length_small">#REF!</definedName>
-    <definedName name="Lengthlong" localSheetId="2">#REF!</definedName>
     <definedName name="Lengthlong" localSheetId="3">#REF!</definedName>
+    <definedName name="Lengthlong" localSheetId="5">#REF!</definedName>
     <definedName name="Lengthlong">#REF!</definedName>
-    <definedName name="Lengthsmall" localSheetId="2">#REF!</definedName>
     <definedName name="Lengthsmall" localSheetId="3">#REF!</definedName>
+    <definedName name="Lengthsmall" localSheetId="5">#REF!</definedName>
     <definedName name="Lengthsmall">#REF!</definedName>
-    <definedName name="Liner_ID_Area" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Liner_ID_Area" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Liner_ID_Area" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Liner_ID_Area">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Liner1_Burst" localSheetId="2">#REF!</definedName>
     <definedName name="Liner1_Burst" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner1_Burst" localSheetId="5">#REF!</definedName>
     <definedName name="Liner1_Burst">#REF!</definedName>
-    <definedName name="Liner1_Cap" localSheetId="2">#REF!</definedName>
     <definedName name="Liner1_Cap" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner1_Cap" localSheetId="5">#REF!</definedName>
     <definedName name="Liner1_Cap">#REF!</definedName>
-    <definedName name="Liner1_Collapse" localSheetId="2">#REF!</definedName>
     <definedName name="Liner1_Collapse" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner1_Collapse" localSheetId="5">#REF!</definedName>
     <definedName name="Liner1_Collapse">#REF!</definedName>
-    <definedName name="Liner1_Drift" localSheetId="2">#REF!</definedName>
     <definedName name="Liner1_Drift" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner1_Drift" localSheetId="5">#REF!</definedName>
     <definedName name="Liner1_Drift">#REF!</definedName>
-    <definedName name="Liner1_ID" localSheetId="2">#REF!</definedName>
     <definedName name="Liner1_ID" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner1_ID" localSheetId="5">#REF!</definedName>
     <definedName name="Liner1_ID">#REF!</definedName>
-    <definedName name="Liner1_Length" localSheetId="2">#REF!</definedName>
     <definedName name="Liner1_Length" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner1_Length" localSheetId="5">#REF!</definedName>
     <definedName name="Liner1_Length">#REF!</definedName>
-    <definedName name="Liner1_OD" localSheetId="2">#REF!</definedName>
     <definedName name="Liner1_OD" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner1_OD" localSheetId="5">#REF!</definedName>
     <definedName name="Liner1_OD">#REF!</definedName>
-    <definedName name="Liner1_Tensile" localSheetId="2">#REF!</definedName>
     <definedName name="Liner1_Tensile" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner1_Tensile" localSheetId="5">#REF!</definedName>
     <definedName name="Liner1_Tensile">#REF!</definedName>
-    <definedName name="Liner1_Thread" localSheetId="2">#REF!</definedName>
     <definedName name="Liner1_Thread" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner1_Thread" localSheetId="5">#REF!</definedName>
     <definedName name="Liner1_Thread">#REF!</definedName>
-    <definedName name="Liner1_Wt_Per_Ft" localSheetId="2">#REF!</definedName>
     <definedName name="Liner1_Wt_Per_Ft" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner1_Wt_Per_Ft" localSheetId="5">#REF!</definedName>
     <definedName name="Liner1_Wt_Per_Ft">#REF!</definedName>
-    <definedName name="Liner2_Burst" localSheetId="2">#REF!</definedName>
     <definedName name="Liner2_Burst" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner2_Burst" localSheetId="5">#REF!</definedName>
     <definedName name="Liner2_Burst">#REF!</definedName>
-    <definedName name="Liner2_Cap" localSheetId="2">#REF!</definedName>
     <definedName name="Liner2_Cap" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner2_Cap" localSheetId="5">#REF!</definedName>
     <definedName name="Liner2_Cap">#REF!</definedName>
-    <definedName name="Liner2_Collapse" localSheetId="2">#REF!</definedName>
     <definedName name="Liner2_Collapse" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner2_Collapse" localSheetId="5">#REF!</definedName>
     <definedName name="Liner2_Collapse">#REF!</definedName>
-    <definedName name="Liner2_Drift" localSheetId="2">#REF!</definedName>
     <definedName name="Liner2_Drift" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner2_Drift" localSheetId="5">#REF!</definedName>
     <definedName name="Liner2_Drift">#REF!</definedName>
-    <definedName name="Liner2_ID" localSheetId="2">#REF!</definedName>
     <definedName name="Liner2_ID" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner2_ID" localSheetId="5">#REF!</definedName>
     <definedName name="Liner2_ID">#REF!</definedName>
-    <definedName name="Liner2_Length" localSheetId="2">#REF!</definedName>
     <definedName name="Liner2_Length" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner2_Length" localSheetId="5">#REF!</definedName>
     <definedName name="Liner2_Length">#REF!</definedName>
-    <definedName name="Liner2_OD" localSheetId="2">#REF!</definedName>
     <definedName name="Liner2_OD" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner2_OD" localSheetId="5">#REF!</definedName>
     <definedName name="Liner2_OD">#REF!</definedName>
-    <definedName name="Liner2_Tensile" localSheetId="2">#REF!</definedName>
     <definedName name="Liner2_Tensile" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner2_Tensile" localSheetId="5">#REF!</definedName>
     <definedName name="Liner2_Tensile">#REF!</definedName>
-    <definedName name="Liner2_Thread" localSheetId="2">#REF!</definedName>
     <definedName name="Liner2_Thread" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner2_Thread" localSheetId="5">#REF!</definedName>
     <definedName name="Liner2_Thread">#REF!</definedName>
-    <definedName name="Liner2_Wt_Per_FT" localSheetId="2">#REF!</definedName>
     <definedName name="Liner2_Wt_Per_FT" localSheetId="3">#REF!</definedName>
+    <definedName name="Liner2_Wt_Per_FT" localSheetId="5">#REF!</definedName>
     <definedName name="Liner2_Wt_Per_FT">#REF!</definedName>
     <definedName name="lint10">'[5]Проектные данные'!$AB$13</definedName>
     <definedName name="lint11">'[5]Проектные данные'!$AB$14</definedName>
@@ -1111,850 +1113,850 @@
     <definedName name="lint7">'[5]Проектные данные'!$AB$10</definedName>
     <definedName name="lInt8">'[5]Проектные данные'!$AB$11</definedName>
     <definedName name="lint9">'[5]Проектные данные'!$AB$12</definedName>
-    <definedName name="Lnr_Shoe_Depth" localSheetId="2">#REF!</definedName>
     <definedName name="Lnr_Shoe_Depth" localSheetId="3">#REF!</definedName>
+    <definedName name="Lnr_Shoe_Depth" localSheetId="5">#REF!</definedName>
     <definedName name="Lnr_Shoe_Depth">#REF!</definedName>
-    <definedName name="Lnr_Thrd" localSheetId="2">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Lnr_Thrd" localSheetId="3">'[20]Liner Job Info'!#REF!</definedName>
+    <definedName name="Lnr_Thrd" localSheetId="5">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Lnr_Thrd">'[20]Liner Job Info'!#REF!</definedName>
-    <definedName name="Lnr_Wt" localSheetId="2">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Lnr_Wt" localSheetId="3">'[20]Liner Job Info'!#REF!</definedName>
+    <definedName name="Lnr_Wt" localSheetId="5">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Lnr_Wt">'[20]Liner Job Info'!#REF!</definedName>
-    <definedName name="Lnr1_Grade" localSheetId="2">#REF!</definedName>
     <definedName name="Lnr1_Grade" localSheetId="3">#REF!</definedName>
+    <definedName name="Lnr1_Grade" localSheetId="5">#REF!</definedName>
     <definedName name="Lnr1_Grade">#REF!</definedName>
-    <definedName name="Lnr1_to_LC_Vol" localSheetId="2">#REF!</definedName>
     <definedName name="Lnr1_to_LC_Vol" localSheetId="3">#REF!</definedName>
+    <definedName name="Lnr1_to_LC_Vol" localSheetId="5">#REF!</definedName>
     <definedName name="Lnr1_to_LC_Vol">#REF!</definedName>
-    <definedName name="Lnr1_Vol" localSheetId="2">#REF!</definedName>
     <definedName name="Lnr1_Vol" localSheetId="3">#REF!</definedName>
+    <definedName name="Lnr1_Vol" localSheetId="5">#REF!</definedName>
     <definedName name="Lnr1_Vol">#REF!</definedName>
-    <definedName name="Lnr1_X_OH_Vol" localSheetId="2">#REF!</definedName>
     <definedName name="Lnr1_X_OH_Vol" localSheetId="3">#REF!</definedName>
+    <definedName name="Lnr1_X_OH_Vol" localSheetId="5">#REF!</definedName>
     <definedName name="Lnr1_X_OH_Vol">#REF!</definedName>
-    <definedName name="Lnr2_Grade" localSheetId="2">#REF!</definedName>
     <definedName name="Lnr2_Grade" localSheetId="3">#REF!</definedName>
+    <definedName name="Lnr2_Grade" localSheetId="5">#REF!</definedName>
     <definedName name="Lnr2_Grade">#REF!</definedName>
-    <definedName name="Lnr2_Vol" localSheetId="2">#REF!</definedName>
     <definedName name="Lnr2_Vol" localSheetId="3">#REF!</definedName>
+    <definedName name="Lnr2_Vol" localSheetId="5">#REF!</definedName>
     <definedName name="Lnr2_Vol">#REF!</definedName>
-    <definedName name="Lnr2_X_OH_Vol" localSheetId="2">#REF!</definedName>
     <definedName name="Lnr2_X_OH_Vol" localSheetId="3">#REF!</definedName>
+    <definedName name="Lnr2_X_OH_Vol" localSheetId="5">#REF!</definedName>
     <definedName name="Lnr2_X_OH_Vol">#REF!</definedName>
-    <definedName name="Location1" localSheetId="2">#REF!</definedName>
     <definedName name="Location1" localSheetId="3">#REF!</definedName>
+    <definedName name="Location1" localSheetId="5">#REF!</definedName>
     <definedName name="Location1">#REF!</definedName>
-    <definedName name="LS" localSheetId="2">#REF!</definedName>
     <definedName name="LS" localSheetId="3">#REF!</definedName>
+    <definedName name="LS" localSheetId="5">#REF!</definedName>
     <definedName name="LS">#REF!</definedName>
-    <definedName name="LTable" localSheetId="2">#REF!</definedName>
     <definedName name="LTable" localSheetId="3">#REF!</definedName>
+    <definedName name="LTable" localSheetId="5">#REF!</definedName>
     <definedName name="LTable">#REF!</definedName>
     <definedName name="M_U_Loss">'[29]Product str Tally'!$C$15</definedName>
     <definedName name="M_U_Loss2">'[29]Product str Tally'!$D$15</definedName>
-    <definedName name="Make_up" localSheetId="2">#REF!</definedName>
     <definedName name="Make_up" localSheetId="3">#REF!</definedName>
+    <definedName name="Make_up" localSheetId="5">#REF!</definedName>
     <definedName name="Make_up">#REF!</definedName>
-    <definedName name="Make_Up_Torque_Of_Weak_Link" localSheetId="2">#REF!</definedName>
     <definedName name="Make_Up_Torque_Of_Weak_Link" localSheetId="3">#REF!</definedName>
+    <definedName name="Make_Up_Torque_Of_Weak_Link" localSheetId="5">#REF!</definedName>
     <definedName name="Make_Up_Torque_Of_Weak_Link">#REF!</definedName>
     <definedName name="Material">[22]DATA!$L$3:$L$22</definedName>
-    <definedName name="Max" localSheetId="2">#REF!</definedName>
     <definedName name="Max" localSheetId="3">#REF!</definedName>
+    <definedName name="Max" localSheetId="5">#REF!</definedName>
     <definedName name="Max">#REF!</definedName>
-    <definedName name="Max_Left_Hand_Turns" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Max_Left_Hand_Turns" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Max_Left_Hand_Turns" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Max_Left_Hand_Turns">[20]Calculations!#REF!</definedName>
-    <definedName name="Max_Left_Hand_Turns_for_Liners" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Max_Left_Hand_Turns_for_Liners" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Max_Left_Hand_Turns_for_Liners" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Max_Left_Hand_Turns_for_Liners">[20]Calculations!#REF!</definedName>
-    <definedName name="Max_Press_Circulating" localSheetId="2">#REF!</definedName>
     <definedName name="Max_Press_Circulating" localSheetId="3">#REF!</definedName>
+    <definedName name="Max_Press_Circulating" localSheetId="5">#REF!</definedName>
     <definedName name="Max_Press_Circulating">#REF!</definedName>
-    <definedName name="Max_Pull_DP" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Max_Pull_DP" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Max_Pull_DP" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Max_Pull_DP">[20]Calculations!#REF!</definedName>
-    <definedName name="Max_Turns" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Max_Turns" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Max_Turns" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Max_Turns">[20]Calculations!#REF!</definedName>
-    <definedName name="MeteringTime" localSheetId="2">#REF!</definedName>
     <definedName name="MeteringTime" localSheetId="3">#REF!</definedName>
+    <definedName name="MeteringTime" localSheetId="5">#REF!</definedName>
     <definedName name="MeteringTime">#REF!</definedName>
-    <definedName name="Metric" localSheetId="2">#REF!</definedName>
     <definedName name="Metric" localSheetId="3">#REF!</definedName>
+    <definedName name="Metric" localSheetId="5">#REF!</definedName>
     <definedName name="Metric">#REF!</definedName>
-    <definedName name="Min" localSheetId="2">#REF!</definedName>
     <definedName name="Min" localSheetId="3">#REF!</definedName>
+    <definedName name="Min" localSheetId="5">#REF!</definedName>
     <definedName name="Min">#REF!</definedName>
-    <definedName name="Min._Ten_Sett_Tool_Assy" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Min._Ten_Sett_Tool_Assy" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Min._Ten_Sett_Tool_Assy" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Min._Ten_Sett_Tool_Assy">[20]Calculations!#REF!</definedName>
-    <definedName name="Min_DP_Tens" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Min_DP_Tens" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Min_DP_Tens" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Min_DP_Tens">[20]Calculations!#REF!</definedName>
-    <definedName name="mine" localSheetId="2">#REF!</definedName>
     <definedName name="mine" localSheetId="3">#REF!</definedName>
+    <definedName name="mine" localSheetId="5">#REF!</definedName>
     <definedName name="mine">#REF!</definedName>
-    <definedName name="month" localSheetId="2">#REF!</definedName>
     <definedName name="month" localSheetId="3">#REF!</definedName>
+    <definedName name="month" localSheetId="5">#REF!</definedName>
     <definedName name="month">#REF!</definedName>
     <definedName name="Mud_Typ">'[30]Liner Job Info'!$B$31</definedName>
-    <definedName name="Mud_Type" localSheetId="2">#REF!</definedName>
     <definedName name="Mud_Type" localSheetId="3">#REF!</definedName>
+    <definedName name="Mud_Type" localSheetId="5">#REF!</definedName>
     <definedName name="Mud_Type">#REF!</definedName>
-    <definedName name="Mud_Wt" localSheetId="2">#REF!</definedName>
     <definedName name="Mud_Wt" localSheetId="3">#REF!</definedName>
+    <definedName name="Mud_Wt" localSheetId="5">#REF!</definedName>
     <definedName name="Mud_Wt">#REF!</definedName>
     <definedName name="Mudtype">[22]DATA!$Q$2:$Q$4</definedName>
     <definedName name="mudweight">[22]DATA!$P$2:$P$132</definedName>
-    <definedName name="mul" localSheetId="2">#REF!</definedName>
     <definedName name="mul" localSheetId="3">#REF!</definedName>
+    <definedName name="mul" localSheetId="5">#REF!</definedName>
     <definedName name="mul">#REF!</definedName>
-    <definedName name="MVOL1" localSheetId="2">#REF!</definedName>
     <definedName name="MVOL1" localSheetId="3">#REF!</definedName>
+    <definedName name="MVOL1" localSheetId="5">#REF!</definedName>
     <definedName name="MVOL1">#REF!</definedName>
-    <definedName name="MVOL2" localSheetId="2">#REF!</definedName>
     <definedName name="MVOL2" localSheetId="3">#REF!</definedName>
+    <definedName name="MVOL2" localSheetId="5">#REF!</definedName>
     <definedName name="MVOL2">#REF!</definedName>
-    <definedName name="MVOL3" localSheetId="2">#REF!</definedName>
     <definedName name="MVOL3" localSheetId="3">#REF!</definedName>
+    <definedName name="MVOL3" localSheetId="5">#REF!</definedName>
     <definedName name="MVOL3">#REF!</definedName>
-    <definedName name="MVOL4" localSheetId="2">#REF!</definedName>
     <definedName name="MVOL4" localSheetId="3">#REF!</definedName>
+    <definedName name="MVOL4" localSheetId="5">#REF!</definedName>
     <definedName name="MVOL4">#REF!</definedName>
-    <definedName name="MVOL4A" localSheetId="2">#REF!</definedName>
     <definedName name="MVOL4A" localSheetId="3">#REF!</definedName>
+    <definedName name="MVOL4A" localSheetId="5">#REF!</definedName>
     <definedName name="MVOL4A">#REF!</definedName>
-    <definedName name="MVOL4B" localSheetId="2">#REF!</definedName>
     <definedName name="MVOL4B" localSheetId="3">#REF!</definedName>
+    <definedName name="MVOL4B" localSheetId="5">#REF!</definedName>
     <definedName name="MVOL4B">#REF!</definedName>
-    <definedName name="MVOL5" localSheetId="2">#REF!</definedName>
     <definedName name="MVOL5" localSheetId="3">#REF!</definedName>
+    <definedName name="MVOL5" localSheetId="5">#REF!</definedName>
     <definedName name="MVOL5">#REF!</definedName>
-    <definedName name="MVOL6" localSheetId="2">#REF!</definedName>
     <definedName name="MVOL6" localSheetId="3">#REF!</definedName>
+    <definedName name="MVOL6" localSheetId="5">#REF!</definedName>
     <definedName name="MVOL6">#REF!</definedName>
     <definedName name="nds">[12]Данные!$F$5</definedName>
-    <definedName name="NO" localSheetId="2">#REF!</definedName>
     <definedName name="NO" localSheetId="3">#REF!</definedName>
+    <definedName name="NO" localSheetId="5">#REF!</definedName>
     <definedName name="NO">#REF!</definedName>
-    <definedName name="NOS" localSheetId="2">#REF!</definedName>
     <definedName name="NOS" localSheetId="3">#REF!</definedName>
+    <definedName name="NOS" localSheetId="5">#REF!</definedName>
     <definedName name="NOS">#REF!</definedName>
     <definedName name="Objects">'[22]Casing Info'!$B$2:$B$229</definedName>
-    <definedName name="OD" localSheetId="2">#REF!</definedName>
     <definedName name="OD" localSheetId="3">#REF!</definedName>
+    <definedName name="OD" localSheetId="5">#REF!</definedName>
     <definedName name="OD">#REF!</definedName>
-    <definedName name="OH_Dia" localSheetId="2">#REF!</definedName>
     <definedName name="OH_Dia" localSheetId="3">#REF!</definedName>
+    <definedName name="OH_Dia" localSheetId="5">#REF!</definedName>
     <definedName name="OH_Dia">#REF!</definedName>
-    <definedName name="OHVf" localSheetId="2">[26]MATERIALS!#REF!</definedName>
     <definedName name="OHVf" localSheetId="3">[26]MATERIALS!#REF!</definedName>
+    <definedName name="OHVf" localSheetId="5">[26]MATERIALS!#REF!</definedName>
     <definedName name="OHVf">[26]MATERIALS!#REF!</definedName>
-    <definedName name="op" localSheetId="2">#REF!</definedName>
     <definedName name="op" localSheetId="3">#REF!</definedName>
+    <definedName name="op" localSheetId="5">#REF!</definedName>
     <definedName name="op">#REF!</definedName>
-    <definedName name="Other" localSheetId="2">#REF!</definedName>
     <definedName name="Other" localSheetId="3">#REF!</definedName>
+    <definedName name="Other" localSheetId="5">#REF!</definedName>
     <definedName name="Other">#REF!</definedName>
-    <definedName name="Other1" localSheetId="2">#REF!</definedName>
     <definedName name="Other1" localSheetId="3">#REF!</definedName>
+    <definedName name="Other1" localSheetId="5">#REF!</definedName>
     <definedName name="Other1">#REF!</definedName>
-    <definedName name="Other2" localSheetId="2">#REF!</definedName>
     <definedName name="Other2" localSheetId="3">#REF!</definedName>
+    <definedName name="Other2" localSheetId="5">#REF!</definedName>
     <definedName name="Other2">#REF!</definedName>
     <definedName name="Otx">'[18]Проектные данные'!$E$7</definedName>
-    <definedName name="Overlap" localSheetId="2">#REF!</definedName>
     <definedName name="Overlap" localSheetId="3">#REF!</definedName>
+    <definedName name="Overlap" localSheetId="5">#REF!</definedName>
     <definedName name="Overlap">#REF!</definedName>
-    <definedName name="Overlap_Vol" localSheetId="2">#REF!</definedName>
     <definedName name="Overlap_Vol" localSheetId="3">#REF!</definedName>
+    <definedName name="Overlap_Vol" localSheetId="5">#REF!</definedName>
     <definedName name="Overlap_Vol">#REF!</definedName>
-    <definedName name="Pac_off_OD" localSheetId="2">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Pac_off_OD" localSheetId="3">'[20]Liner Job Info'!#REF!</definedName>
+    <definedName name="Pac_off_OD" localSheetId="5">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Pac_off_OD">'[20]Liner Job Info'!#REF!</definedName>
-    <definedName name="Packer" localSheetId="2">#REF!</definedName>
     <definedName name="Packer" localSheetId="3">#REF!</definedName>
+    <definedName name="Packer" localSheetId="5">#REF!</definedName>
     <definedName name="Packer">#REF!</definedName>
-    <definedName name="Packer_Rotation" localSheetId="2">#REF!</definedName>
     <definedName name="Packer_Rotation" localSheetId="3">#REF!</definedName>
+    <definedName name="Packer_Rotation" localSheetId="5">#REF!</definedName>
     <definedName name="Packer_Rotation">#REF!</definedName>
-    <definedName name="Packer_Set" localSheetId="2">#REF!</definedName>
     <definedName name="Packer_Set" localSheetId="3">#REF!</definedName>
+    <definedName name="Packer_Set" localSheetId="5">#REF!</definedName>
     <definedName name="Packer_Set">#REF!</definedName>
-    <definedName name="Packoff" localSheetId="2">#REF!</definedName>
     <definedName name="Packoff" localSheetId="3">#REF!</definedName>
+    <definedName name="Packoff" localSheetId="5">#REF!</definedName>
     <definedName name="Packoff">#REF!</definedName>
-    <definedName name="Packoff_In?" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Packoff_In?" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Packoff_In?" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Packoff_In?">[20]Calculations!#REF!</definedName>
-    <definedName name="Packoff_Pist_Area" localSheetId="2">#REF!</definedName>
     <definedName name="Packoff_Pist_Area" localSheetId="3">#REF!</definedName>
+    <definedName name="Packoff_Pist_Area" localSheetId="5">#REF!</definedName>
     <definedName name="Packoff_Pist_Area">#REF!</definedName>
-    <definedName name="Packoff_Stinger_OD" localSheetId="2">#REF!</definedName>
     <definedName name="Packoff_Stinger_OD" localSheetId="3">#REF!</definedName>
+    <definedName name="Packoff_Stinger_OD" localSheetId="5">#REF!</definedName>
     <definedName name="Packoff_Stinger_OD">#REF!</definedName>
-    <definedName name="Packofftype" localSheetId="2">#REF!</definedName>
     <definedName name="Packofftype" localSheetId="3">#REF!</definedName>
+    <definedName name="Packofftype" localSheetId="5">#REF!</definedName>
     <definedName name="Packofftype">#REF!</definedName>
-    <definedName name="PackoffXDP1_Pist_Area" localSheetId="2">#REF!</definedName>
     <definedName name="PackoffXDP1_Pist_Area" localSheetId="3">#REF!</definedName>
+    <definedName name="PackoffXDP1_Pist_Area" localSheetId="5">#REF!</definedName>
     <definedName name="PackoffXDP1_Pist_Area">#REF!</definedName>
-    <definedName name="PackoffXDP2_Pist_Area" localSheetId="2">#REF!</definedName>
     <definedName name="PackoffXDP2_Pist_Area" localSheetId="3">#REF!</definedName>
+    <definedName name="PackoffXDP2_Pist_Area" localSheetId="5">#REF!</definedName>
     <definedName name="PackoffXDP2_Pist_Area">#REF!</definedName>
-    <definedName name="PackoffXDP3_Pist_Area" localSheetId="2">#REF!</definedName>
     <definedName name="PackoffXDP3_Pist_Area" localSheetId="3">#REF!</definedName>
+    <definedName name="PackoffXDP3_Pist_Area" localSheetId="5">#REF!</definedName>
     <definedName name="PackoffXDP3_Pist_Area">#REF!</definedName>
-    <definedName name="PackoffXDP4_Pist_Area" localSheetId="2">#REF!</definedName>
     <definedName name="PackoffXDP4_Pist_Area" localSheetId="3">#REF!</definedName>
+    <definedName name="PackoffXDP4_Pist_Area" localSheetId="5">#REF!</definedName>
     <definedName name="PackoffXDP4_Pist_Area">#REF!</definedName>
-    <definedName name="PackoffXDP5_Pist_Area" localSheetId="2">#REF!</definedName>
     <definedName name="PackoffXDP5_Pist_Area" localSheetId="3">#REF!</definedName>
+    <definedName name="PackoffXDP5_Pist_Area" localSheetId="5">#REF!</definedName>
     <definedName name="PackoffXDP5_Pist_Area">#REF!</definedName>
-    <definedName name="Pckr_Body_Bst" localSheetId="2">#REF!</definedName>
     <definedName name="Pckr_Body_Bst" localSheetId="3">#REF!</definedName>
+    <definedName name="Pckr_Body_Bst" localSheetId="5">#REF!</definedName>
     <definedName name="Pckr_Body_Bst">#REF!</definedName>
-    <definedName name="Pckr_Body_Coll" localSheetId="2">#REF!</definedName>
     <definedName name="Pckr_Body_Coll" localSheetId="3">#REF!</definedName>
+    <definedName name="Pckr_Body_Coll" localSheetId="5">#REF!</definedName>
     <definedName name="Pckr_Body_Coll">#REF!</definedName>
-    <definedName name="Pckr_Body_Tens" localSheetId="2">#REF!</definedName>
     <definedName name="Pckr_Body_Tens" localSheetId="3">#REF!</definedName>
+    <definedName name="Pckr_Body_Tens" localSheetId="5">#REF!</definedName>
     <definedName name="Pckr_Body_Tens">#REF!</definedName>
-    <definedName name="Pckr_Body_Yield" localSheetId="2">#REF!</definedName>
     <definedName name="Pckr_Body_Yield" localSheetId="3">#REF!</definedName>
+    <definedName name="Pckr_Body_Yield" localSheetId="5">#REF!</definedName>
     <definedName name="Pckr_Body_Yield">#REF!</definedName>
-    <definedName name="Pckr_ID" localSheetId="2">#REF!</definedName>
     <definedName name="Pckr_ID" localSheetId="3">#REF!</definedName>
+    <definedName name="Pckr_ID" localSheetId="5">#REF!</definedName>
     <definedName name="Pckr_ID">#REF!</definedName>
-    <definedName name="Pckr_Matl_Num" localSheetId="2">#REF!</definedName>
     <definedName name="Pckr_Matl_Num" localSheetId="3">#REF!</definedName>
+    <definedName name="Pckr_Matl_Num" localSheetId="5">#REF!</definedName>
     <definedName name="Pckr_Matl_Num">#REF!</definedName>
-    <definedName name="Pckr_Max_OD" localSheetId="2">#REF!</definedName>
     <definedName name="Pckr_Max_OD" localSheetId="3">#REF!</definedName>
+    <definedName name="Pckr_Max_OD" localSheetId="5">#REF!</definedName>
     <definedName name="Pckr_Max_OD">#REF!</definedName>
-    <definedName name="Pckr_Model" localSheetId="2">#REF!</definedName>
     <definedName name="Pckr_Model" localSheetId="3">#REF!</definedName>
+    <definedName name="Pckr_Model" localSheetId="5">#REF!</definedName>
     <definedName name="Pckr_Model">#REF!</definedName>
-    <definedName name="Pckr_Seal_Surf_OD" localSheetId="2">#REF!</definedName>
     <definedName name="Pckr_Seal_Surf_OD" localSheetId="3">#REF!</definedName>
+    <definedName name="Pckr_Seal_Surf_OD" localSheetId="5">#REF!</definedName>
     <definedName name="Pckr_Seal_Surf_OD">#REF!</definedName>
-    <definedName name="Pckr_Sett_Force" localSheetId="2">#REF!</definedName>
     <definedName name="Pckr_Sett_Force" localSheetId="3">#REF!</definedName>
+    <definedName name="Pckr_Sett_Force" localSheetId="5">#REF!</definedName>
     <definedName name="Pckr_Sett_Force">#REF!</definedName>
-    <definedName name="Pckr_Test_Press" localSheetId="2">#REF!</definedName>
     <definedName name="Pckr_Test_Press" localSheetId="3">#REF!</definedName>
+    <definedName name="Pckr_Test_Press" localSheetId="5">#REF!</definedName>
     <definedName name="Pckr_Test_Press">#REF!</definedName>
-    <definedName name="Pe" localSheetId="2">#REF!</definedName>
     <definedName name="Pe" localSheetId="3">#REF!</definedName>
+    <definedName name="Pe" localSheetId="5">#REF!</definedName>
     <definedName name="Pe">#REF!</definedName>
-    <definedName name="Pin" localSheetId="2">#REF!</definedName>
     <definedName name="Pin" localSheetId="3">#REF!</definedName>
+    <definedName name="Pin" localSheetId="5">#REF!</definedName>
     <definedName name="Pin">#REF!</definedName>
-    <definedName name="Pist_Area_Csg_ID_to_DP_OD" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_Csg_ID_to_DP_OD" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Pist_Area_Csg_ID_to_DP_OD" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_Csg_ID_to_DP_OD">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Pist_Area_Csg_ID_to_DP1_OD" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_Csg_ID_to_DP1_OD" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Pist_Area_Csg_ID_to_DP1_OD" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_Csg_ID_to_DP1_OD">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Pist_Area_Csg_ID_to_DP2_OD" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_Csg_ID_to_DP2_OD" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Pist_Area_Csg_ID_to_DP2_OD" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_Csg_ID_to_DP2_OD">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Pist_Area_Csg_ID_to_DP3_OD" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_Csg_ID_to_DP3_OD" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Pist_Area_Csg_ID_to_DP3_OD" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_Csg_ID_to_DP3_OD">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Pist_Area_Csg_ID_to_DP4_OD" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_Csg_ID_to_DP4_OD" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Pist_Area_Csg_ID_to_DP4_OD" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_Csg_ID_to_DP4_OD">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Pist_Area_Csg_ID_to_DP5_OD" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_Csg_ID_to_DP5_OD" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Pist_Area_Csg_ID_to_DP5_OD" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_Csg_ID_to_DP5_OD">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Pist_Area_from_CsgID_to_Packoff_OD" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_from_CsgID_to_Packoff_OD" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Pist_Area_from_CsgID_to_Packoff_OD" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_from_CsgID_to_Packoff_OD">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Pist_Area_PackoffOD_DP2_OD" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_PackoffOD_DP2_OD" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Pist_Area_PackoffOD_DP2_OD" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_PackoffOD_DP2_OD">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Pist_Area_PackoffOD_DP4_OD" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_PackoffOD_DP4_OD" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Pist_Area_PackoffOD_DP4_OD" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_PackoffOD_DP4_OD">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Pist_Area_PackoffOD_DP5_OD" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_PackoffOD_DP5_OD" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Pist_Area_PackoffOD_DP5_OD" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_PackoffOD_DP5_OD">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Pist_Area_PackoffOD_to_DP1_OD" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_PackoffOD_to_DP1_OD" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Pist_Area_PackoffOD_to_DP1_OD" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_PackoffOD_to_DP1_OD">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Pist_Area_PackoffOD_to_DP3_OD" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_PackoffOD_to_DP3_OD" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Pist_Area_PackoffOD_to_DP3_OD" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Area_PackoffOD_to_DP3_OD">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Pist_Force_PackoffOD_DP_OD" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Force_PackoffOD_DP_OD" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Pist_Force_PackoffOD_DP_OD" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Pist_Force_PackoffOD_DP_OD">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="PistArea_Packoff_to_DP_OD" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="PistArea_Packoff_to_DP_OD" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="PistArea_Packoff_to_DP_OD" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="PistArea_Packoff_to_DP_OD">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Piston_forces" localSheetId="2">#REF!</definedName>
     <definedName name="Piston_forces" localSheetId="3">#REF!</definedName>
+    <definedName name="Piston_forces" localSheetId="5">#REF!</definedName>
     <definedName name="Piston_forces">#REF!</definedName>
-    <definedName name="Pkr_Bdy_Yld" localSheetId="2">#REF!</definedName>
     <definedName name="Pkr_Bdy_Yld" localSheetId="3">#REF!</definedName>
+    <definedName name="Pkr_Bdy_Yld" localSheetId="5">#REF!</definedName>
     <definedName name="Pkr_Bdy_Yld">#REF!</definedName>
-    <definedName name="Pkr_Ele_Rtg" localSheetId="2">#REF!</definedName>
     <definedName name="Pkr_Ele_Rtg" localSheetId="3">#REF!</definedName>
+    <definedName name="Pkr_Ele_Rtg" localSheetId="5">#REF!</definedName>
     <definedName name="Pkr_Ele_Rtg">#REF!</definedName>
-    <definedName name="Pkr_ID" localSheetId="2">#REF!</definedName>
     <definedName name="Pkr_ID" localSheetId="3">#REF!</definedName>
+    <definedName name="Pkr_ID" localSheetId="5">#REF!</definedName>
     <definedName name="Pkr_ID">#REF!</definedName>
-    <definedName name="Pkr_Mdl" localSheetId="2">#REF!</definedName>
     <definedName name="Pkr_Mdl" localSheetId="3">#REF!</definedName>
+    <definedName name="Pkr_Mdl" localSheetId="5">#REF!</definedName>
     <definedName name="Pkr_Mdl">#REF!</definedName>
-    <definedName name="Pkr_OD" localSheetId="2">#REF!</definedName>
     <definedName name="Pkr_OD" localSheetId="3">#REF!</definedName>
+    <definedName name="Pkr_OD" localSheetId="5">#REF!</definedName>
     <definedName name="Pkr_OD">#REF!</definedName>
     <definedName name="plotm">#N/A</definedName>
-    <definedName name="Plug_Bmp_Hngr_Ovr_Ld" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Plug_Bmp_Hngr_Ovr_Ld" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Plug_Bmp_Hngr_Ovr_Ld" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Plug_Bmp_Hngr_Ovr_Ld">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Plug_Bmp_psi_w_DP" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Plug_Bmp_psi_w_DP" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Plug_Bmp_psi_w_DP" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Plug_Bmp_psi_w_DP">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Plug_Bmp_psi_wo_DP" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Plug_Bmp_psi_wo_DP" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Plug_Bmp_psi_wo_DP" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Plug_Bmp_psi_wo_DP">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Plug_Press_Rating" localSheetId="2">#REF!</definedName>
     <definedName name="Plug_Press_Rating" localSheetId="3">#REF!</definedName>
+    <definedName name="Plug_Press_Rating" localSheetId="5">#REF!</definedName>
     <definedName name="Plug_Press_Rating">#REF!</definedName>
-    <definedName name="Plug_Temp_Rating" localSheetId="2">#REF!</definedName>
     <definedName name="Plug_Temp_Rating" localSheetId="3">#REF!</definedName>
+    <definedName name="Plug_Temp_Rating" localSheetId="5">#REF!</definedName>
     <definedName name="Plug_Temp_Rating">#REF!</definedName>
-    <definedName name="Plug_Type" localSheetId="2">#REF!</definedName>
     <definedName name="Plug_Type" localSheetId="3">#REF!</definedName>
+    <definedName name="Plug_Type" localSheetId="5">#REF!</definedName>
     <definedName name="Plug_Type">#REF!</definedName>
-    <definedName name="Plug_Type_2_Plugs" localSheetId="2">#REF!</definedName>
     <definedName name="Plug_Type_2_Plugs" localSheetId="3">#REF!</definedName>
+    <definedName name="Plug_Type_2_Plugs" localSheetId="5">#REF!</definedName>
     <definedName name="Plug_Type_2_Plugs">#REF!</definedName>
-    <definedName name="Plug_Type_4_plugs" localSheetId="2">#REF!</definedName>
     <definedName name="Plug_Type_4_plugs" localSheetId="3">#REF!</definedName>
+    <definedName name="Plug_Type_4_plugs" localSheetId="5">#REF!</definedName>
     <definedName name="Plug_Type_4_plugs">#REF!</definedName>
-    <definedName name="PlugMethod" localSheetId="2">#REF!</definedName>
     <definedName name="PlugMethod" localSheetId="3">#REF!</definedName>
+    <definedName name="PlugMethod" localSheetId="5">#REF!</definedName>
     <definedName name="PlugMethod">#REF!</definedName>
-    <definedName name="Plugs" localSheetId="2">#REF!</definedName>
     <definedName name="Plugs" localSheetId="3">#REF!</definedName>
+    <definedName name="Plugs" localSheetId="5">#REF!</definedName>
     <definedName name="Plugs">#REF!</definedName>
-    <definedName name="Plugs_Bump?" localSheetId="2">#REF!</definedName>
     <definedName name="Plugs_Bump?" localSheetId="3">#REF!</definedName>
+    <definedName name="Plugs_Bump?" localSheetId="5">#REF!</definedName>
     <definedName name="Plugs_Bump?">#REF!</definedName>
-    <definedName name="Plugs_Leak_2_Plugs" localSheetId="2">#REF!</definedName>
     <definedName name="Plugs_Leak_2_Plugs" localSheetId="3">#REF!</definedName>
+    <definedName name="Plugs_Leak_2_Plugs" localSheetId="5">#REF!</definedName>
     <definedName name="Plugs_Leak_2_Plugs">#REF!</definedName>
-    <definedName name="postbriefer" localSheetId="2">#REF!</definedName>
     <definedName name="postbriefer" localSheetId="3">#REF!</definedName>
+    <definedName name="postbriefer" localSheetId="5">#REF!</definedName>
     <definedName name="postbriefer">#REF!</definedName>
-    <definedName name="postvriefer" localSheetId="2">#REF!</definedName>
     <definedName name="postvriefer" localSheetId="3">#REF!</definedName>
+    <definedName name="postvriefer" localSheetId="5">#REF!</definedName>
     <definedName name="postvriefer">#REF!</definedName>
-    <definedName name="Pp" localSheetId="2">#REF!</definedName>
     <definedName name="Pp" localSheetId="3">#REF!</definedName>
+    <definedName name="Pp" localSheetId="5">#REF!</definedName>
     <definedName name="Pp">#REF!</definedName>
-    <definedName name="PPF" localSheetId="2">#REF!</definedName>
     <definedName name="PPF" localSheetId="3">#REF!</definedName>
+    <definedName name="PPF" localSheetId="5">#REF!</definedName>
     <definedName name="PPF">#REF!</definedName>
-    <definedName name="prebriefer" localSheetId="2">#REF!</definedName>
     <definedName name="prebriefer" localSheetId="3">#REF!</definedName>
+    <definedName name="prebriefer" localSheetId="5">#REF!</definedName>
     <definedName name="prebriefer">#REF!</definedName>
-    <definedName name="Press_if_Pckr_Sett_Force_exceededby_incl_DP_and_Pist_forces" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Press_if_Pckr_Sett_Force_exceededby_incl_DP_and_Pist_forces" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Press_if_Pckr_Sett_Force_exceededby_incl_DP_and_Pist_forces" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Press_if_Pckr_Sett_Force_exceededby_incl_DP_and_Pist_forces">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Press_Plugs_Bumped" localSheetId="2">#REF!</definedName>
     <definedName name="Press_Plugs_Bumped" localSheetId="3">#REF!</definedName>
+    <definedName name="Press_Plugs_Bumped" localSheetId="5">#REF!</definedName>
     <definedName name="Press_Plugs_Bumped">#REF!</definedName>
-    <definedName name="Press_Shear_Ball_Seat" localSheetId="2">#REF!</definedName>
     <definedName name="Press_Shear_Ball_Seat" localSheetId="3">#REF!</definedName>
+    <definedName name="Press_Shear_Ball_Seat" localSheetId="5">#REF!</definedName>
     <definedName name="Press_Shear_Ball_Seat">#REF!</definedName>
-    <definedName name="Press_Shear_LWP" localSheetId="2">#REF!</definedName>
     <definedName name="Press_Shear_LWP" localSheetId="3">#REF!</definedName>
+    <definedName name="Press_Shear_LWP" localSheetId="5">#REF!</definedName>
     <definedName name="Press_Shear_LWP">#REF!</definedName>
-    <definedName name="Press_to_Release_Hyd_Sett_Tool" localSheetId="2">#REF!</definedName>
     <definedName name="Press_to_Release_Hyd_Sett_Tool" localSheetId="3">#REF!</definedName>
+    <definedName name="Press_to_Release_Hyd_Sett_Tool" localSheetId="5">#REF!</definedName>
     <definedName name="Press_to_Release_Hyd_Sett_Tool">#REF!</definedName>
-    <definedName name="Press_to_Set_Hngr" localSheetId="2">#REF!</definedName>
     <definedName name="Press_to_Set_Hngr" localSheetId="3">#REF!</definedName>
+    <definedName name="Press_to_Set_Hngr" localSheetId="5">#REF!</definedName>
     <definedName name="Press_to_Set_Hngr">#REF!</definedName>
-    <definedName name="Pressure" localSheetId="2">#REF!</definedName>
     <definedName name="Pressure" localSheetId="3">#REF!</definedName>
+    <definedName name="Pressure" localSheetId="5">#REF!</definedName>
     <definedName name="Pressure">#REF!</definedName>
-    <definedName name="Program_Date" localSheetId="2">#REF!</definedName>
     <definedName name="Program_Date" localSheetId="3">#REF!</definedName>
+    <definedName name="Program_Date" localSheetId="5">#REF!</definedName>
     <definedName name="Program_Date">#REF!</definedName>
-    <definedName name="PROP1DELIVERED" localSheetId="2">#REF!</definedName>
     <definedName name="PROP1DELIVERED" localSheetId="3">#REF!</definedName>
+    <definedName name="PROP1DELIVERED" localSheetId="5">#REF!</definedName>
     <definedName name="PROP1DELIVERED">#REF!</definedName>
-    <definedName name="PROP2DELIVERED" localSheetId="2">#REF!</definedName>
     <definedName name="PROP2DELIVERED" localSheetId="3">#REF!</definedName>
+    <definedName name="PROP2DELIVERED" localSheetId="5">#REF!</definedName>
     <definedName name="PROP2DELIVERED">#REF!</definedName>
-    <definedName name="Pstn_Force_Actual" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Pstn_Force_Actual" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Pstn_Force_Actual" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Pstn_Force_Actual">[20]Calculations!#REF!</definedName>
-    <definedName name="Pstn_lb_on_DS" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Pstn_lb_on_DS" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Pstn_lb_on_DS" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Pstn_lb_on_DS">[20]Calculations!#REF!</definedName>
-    <definedName name="Pstn_lb_on_PO" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Pstn_lb_on_PO" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Pstn_lb_on_PO" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Pstn_lb_on_PO">[20]Calculations!#REF!</definedName>
-    <definedName name="Pt" localSheetId="2">#REF!</definedName>
     <definedName name="Pt" localSheetId="3">#REF!</definedName>
+    <definedName name="Pt" localSheetId="5">#REF!</definedName>
     <definedName name="Pt">#REF!</definedName>
-    <definedName name="PU_Dogs" localSheetId="2">#REF!</definedName>
     <definedName name="PU_Dogs" localSheetId="3">#REF!</definedName>
+    <definedName name="PU_Dogs" localSheetId="5">#REF!</definedName>
     <definedName name="PU_Dogs">#REF!</definedName>
-    <definedName name="PU_Packoff" localSheetId="2">#REF!</definedName>
     <definedName name="PU_Packoff" localSheetId="3">#REF!</definedName>
+    <definedName name="PU_Packoff" localSheetId="5">#REF!</definedName>
     <definedName name="PU_Packoff">#REF!</definedName>
-    <definedName name="Pyp" localSheetId="2">#REF!</definedName>
     <definedName name="Pyp" localSheetId="3">#REF!</definedName>
+    <definedName name="Pyp" localSheetId="5">#REF!</definedName>
     <definedName name="Pyp">#REF!</definedName>
-    <definedName name="Q" localSheetId="2">#REF!</definedName>
     <definedName name="Q" localSheetId="3">#REF!</definedName>
+    <definedName name="Q" localSheetId="5">#REF!</definedName>
     <definedName name="Q">#REF!</definedName>
     <definedName name="Quote_Number">'[25]Data Entry'!$C$7</definedName>
-    <definedName name="quoteprob" localSheetId="2">#REF!</definedName>
     <definedName name="quoteprob" localSheetId="3">#REF!</definedName>
+    <definedName name="quoteprob" localSheetId="5">#REF!</definedName>
     <definedName name="quoteprob">#REF!</definedName>
-    <definedName name="ra" localSheetId="2">#REF!</definedName>
     <definedName name="ra" localSheetId="3">#REF!</definedName>
+    <definedName name="ra" localSheetId="5">#REF!</definedName>
     <definedName name="ra">#REF!</definedName>
-    <definedName name="rb" localSheetId="2">#REF!</definedName>
     <definedName name="rb" localSheetId="3">#REF!</definedName>
+    <definedName name="rb" localSheetId="5">#REF!</definedName>
     <definedName name="rb">#REF!</definedName>
     <definedName name="Rdop">'[18]Проектные данные'!$E$8</definedName>
     <definedName name="Rdop1">'[12]Проектные данные'!$F$8</definedName>
-    <definedName name="Rds_to_Mech_Rel_Hyd_Sett_Tool" localSheetId="2">#REF!</definedName>
     <definedName name="Rds_to_Mech_Rel_Hyd_Sett_Tool" localSheetId="3">#REF!</definedName>
+    <definedName name="Rds_to_Mech_Rel_Hyd_Sett_Tool" localSheetId="5">#REF!</definedName>
     <definedName name="Rds_to_Mech_Rel_Hyd_Sett_Tool">#REF!</definedName>
-    <definedName name="Rem_DP1_Tens" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Rem_DP1_Tens" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Rem_DP1_Tens" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Rem_DP1_Tens">[20]Calculations!#REF!</definedName>
-    <definedName name="Rem_DP2_Tens" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Rem_DP2_Tens" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Rem_DP2_Tens" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Rem_DP2_Tens">[20]Calculations!#REF!</definedName>
-    <definedName name="Rem_DP3_Tens" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Rem_DP3_Tens" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Rem_DP3_Tens" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Rem_DP3_Tens">[20]Calculations!#REF!</definedName>
-    <definedName name="Rem_DP4_Tens" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Rem_DP4_Tens" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Rem_DP4_Tens" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Rem_DP4_Tens">[20]Calculations!#REF!</definedName>
-    <definedName name="Rem_DP5_Tens" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Rem_DP5_Tens" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Rem_DP5_Tens" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Rem_DP5_Tens">[20]Calculations!#REF!</definedName>
-    <definedName name="RENSTO" localSheetId="2">#REF!</definedName>
     <definedName name="RENSTO" localSheetId="3">#REF!</definedName>
+    <definedName name="RENSTO" localSheetId="5">#REF!</definedName>
     <definedName name="RENSTO">#REF!</definedName>
-    <definedName name="Rentalequipment" localSheetId="2">#REF!</definedName>
     <definedName name="Rentalequipment" localSheetId="3">#REF!</definedName>
+    <definedName name="Rentalequipment" localSheetId="5">#REF!</definedName>
     <definedName name="Rentalequipment">#REF!</definedName>
-    <definedName name="rere" localSheetId="2">#REF!</definedName>
     <definedName name="rere" localSheetId="3">#REF!</definedName>
+    <definedName name="rere" localSheetId="5">#REF!</definedName>
     <definedName name="rere">#REF!</definedName>
-    <definedName name="RH_or_LH_Set_Hgr" localSheetId="2">#REF!</definedName>
     <definedName name="RH_or_LH_Set_Hgr" localSheetId="3">#REF!</definedName>
+    <definedName name="RH_or_LH_Set_Hgr" localSheetId="5">#REF!</definedName>
     <definedName name="RH_or_LH_Set_Hgr">#REF!</definedName>
-    <definedName name="RH_SHEAR" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="RH_SHEAR" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="RH_SHEAR" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="RH_SHEAR">[20]Calculations!#REF!</definedName>
-    <definedName name="RH_SHEAR_LNGTH" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="RH_SHEAR_LNGTH" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="RH_SHEAR_LNGTH" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="RH_SHEAR_LNGTH">[20]Calculations!#REF!</definedName>
-    <definedName name="Rig" localSheetId="2">#REF!</definedName>
     <definedName name="Rig" localSheetId="3">#REF!</definedName>
+    <definedName name="Rig" localSheetId="5">#REF!</definedName>
     <definedName name="Rig">#REF!</definedName>
-    <definedName name="Rig_Number" localSheetId="2">#REF!</definedName>
     <definedName name="Rig_Number" localSheetId="3">#REF!</definedName>
+    <definedName name="Rig_Number" localSheetId="5">#REF!</definedName>
     <definedName name="Rig_Number">#REF!</definedName>
-    <definedName name="Rig_Output" localSheetId="2">#REF!</definedName>
     <definedName name="Rig_Output" localSheetId="3">#REF!</definedName>
+    <definedName name="Rig_Output" localSheetId="5">#REF!</definedName>
     <definedName name="Rig_Output">#REF!</definedName>
-    <definedName name="Rnds_to_Release_Setting_Tool" localSheetId="2">#REF!</definedName>
     <definedName name="Rnds_to_Release_Setting_Tool" localSheetId="3">#REF!</definedName>
+    <definedName name="Rnds_to_Release_Setting_Tool" localSheetId="5">#REF!</definedName>
     <definedName name="Rnds_to_Release_Setting_Tool">#REF!</definedName>
-    <definedName name="Rnds_to_Set_Hngr" localSheetId="2">#REF!</definedName>
     <definedName name="Rnds_to_Set_Hngr" localSheetId="3">#REF!</definedName>
+    <definedName name="Rnds_to_Set_Hngr" localSheetId="5">#REF!</definedName>
     <definedName name="Rnds_to_Set_Hngr">#REF!</definedName>
-    <definedName name="Rotation" localSheetId="2">#REF!</definedName>
     <definedName name="Rotation" localSheetId="3">#REF!</definedName>
+    <definedName name="Rotation" localSheetId="5">#REF!</definedName>
     <definedName name="Rotation">#REF!</definedName>
-    <definedName name="Runningtool" localSheetId="2">#REF!</definedName>
     <definedName name="Runningtool" localSheetId="3">#REF!</definedName>
+    <definedName name="Runningtool" localSheetId="5">#REF!</definedName>
     <definedName name="Runningtool">#REF!</definedName>
     <definedName name="S">[23]Данные!$A$52:$A$99</definedName>
     <definedName name="Sales_Person">'[25]Data Entry'!$C$9</definedName>
-    <definedName name="Sales_Ticket_Number" localSheetId="2">#REF!</definedName>
     <definedName name="Sales_Ticket_Number" localSheetId="3">#REF!</definedName>
+    <definedName name="Sales_Ticket_Number" localSheetId="5">#REF!</definedName>
     <definedName name="Sales_Ticket_Number">#REF!</definedName>
-    <definedName name="Salesequipment" localSheetId="2">#REF!</definedName>
     <definedName name="Salesequipment" localSheetId="3">#REF!</definedName>
+    <definedName name="Salesequipment" localSheetId="5">#REF!</definedName>
     <definedName name="Salesequipment">#REF!</definedName>
-    <definedName name="Salesman" localSheetId="2">#REF!</definedName>
     <definedName name="Salesman" localSheetId="3">#REF!</definedName>
+    <definedName name="Salesman" localSheetId="5">#REF!</definedName>
     <definedName name="Salesman">#REF!</definedName>
-    <definedName name="SeatID" localSheetId="2">#REF!</definedName>
     <definedName name="SeatID" localSheetId="3">#REF!</definedName>
+    <definedName name="SeatID" localSheetId="5">#REF!</definedName>
     <definedName name="SeatID">#REF!</definedName>
-    <definedName name="SeatNumber" localSheetId="2">#REF!</definedName>
     <definedName name="SeatNumber" localSheetId="3">#REF!</definedName>
+    <definedName name="SeatNumber" localSheetId="5">#REF!</definedName>
     <definedName name="SeatNumber">#REF!</definedName>
-    <definedName name="SeatShear" localSheetId="2">#REF!</definedName>
     <definedName name="SeatShear" localSheetId="3">#REF!</definedName>
+    <definedName name="SeatShear" localSheetId="5">#REF!</definedName>
     <definedName name="SeatShear">#REF!</definedName>
-    <definedName name="SeatType" localSheetId="2">#REF!</definedName>
     <definedName name="SeatType" localSheetId="3">#REF!</definedName>
+    <definedName name="SeatType" localSheetId="5">#REF!</definedName>
     <definedName name="SeatType">#REF!</definedName>
-    <definedName name="Second_Plugs_Leak" localSheetId="2">#REF!</definedName>
     <definedName name="Second_Plugs_Leak" localSheetId="3">#REF!</definedName>
+    <definedName name="Second_Plugs_Leak" localSheetId="5">#REF!</definedName>
     <definedName name="Second_Plugs_Leak">#REF!</definedName>
-    <definedName name="Service_Rep" localSheetId="2">#REF!</definedName>
     <definedName name="Service_Rep" localSheetId="3">#REF!</definedName>
+    <definedName name="Service_Rep" localSheetId="5">#REF!</definedName>
     <definedName name="Service_Rep">#REF!</definedName>
-    <definedName name="Service_Ticket_Number" localSheetId="2">#REF!</definedName>
     <definedName name="Service_Ticket_Number" localSheetId="3">#REF!</definedName>
+    <definedName name="Service_Ticket_Number" localSheetId="5">#REF!</definedName>
     <definedName name="Service_Ticket_Number">#REF!</definedName>
-    <definedName name="Sett_Tool_Tens" localSheetId="2">#REF!</definedName>
     <definedName name="Sett_Tool_Tens" localSheetId="3">#REF!</definedName>
+    <definedName name="Sett_Tool_Tens" localSheetId="5">#REF!</definedName>
     <definedName name="Sett_Tool_Tens">#REF!</definedName>
-    <definedName name="Sett_Tool_Torsion_Limit" localSheetId="2">#REF!</definedName>
     <definedName name="Sett_Tool_Torsion_Limit" localSheetId="3">#REF!</definedName>
+    <definedName name="Sett_Tool_Torsion_Limit" localSheetId="5">#REF!</definedName>
     <definedName name="Sett_Tool_Torsion_Limit">#REF!</definedName>
-    <definedName name="sgdfg" localSheetId="2">#REF!</definedName>
     <definedName name="sgdfg" localSheetId="3">#REF!</definedName>
+    <definedName name="sgdfg" localSheetId="5">#REF!</definedName>
     <definedName name="sgdfg">#REF!</definedName>
-    <definedName name="Shear_HR_Mech_Release" localSheetId="2">#REF!</definedName>
     <definedName name="Shear_HR_Mech_Release" localSheetId="3">#REF!</definedName>
+    <definedName name="Shear_HR_Mech_Release" localSheetId="5">#REF!</definedName>
     <definedName name="Shear_HR_Mech_Release">#REF!</definedName>
-    <definedName name="Shear_Press" localSheetId="2">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Shear_Press" localSheetId="3">'[20]Liner Job Info'!#REF!</definedName>
+    <definedName name="Shear_Press" localSheetId="5">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Shear_Press">'[20]Liner Job Info'!#REF!</definedName>
-    <definedName name="Sher_for_HR_Mech_Release" localSheetId="2">#REF!</definedName>
     <definedName name="Sher_for_HR_Mech_Release" localSheetId="3">#REF!</definedName>
+    <definedName name="Sher_for_HR_Mech_Release" localSheetId="5">#REF!</definedName>
     <definedName name="Sher_for_HR_Mech_Release">#REF!</definedName>
     <definedName name="Ship_To">'[25]Data Entry'!$C$5</definedName>
-    <definedName name="Shoe_Jt_BBLS" localSheetId="2">#REF!</definedName>
     <definedName name="Shoe_Jt_BBLS" localSheetId="3">#REF!</definedName>
+    <definedName name="Shoe_Jt_BBLS" localSheetId="5">#REF!</definedName>
     <definedName name="Shoe_Jt_BBLS">#REF!</definedName>
-    <definedName name="Shoe_Track_Length" localSheetId="2">#REF!</definedName>
     <definedName name="Shoe_Track_Length" localSheetId="3">#REF!</definedName>
+    <definedName name="Shoe_Track_Length" localSheetId="5">#REF!</definedName>
     <definedName name="Shoe_Track_Length">#REF!</definedName>
-    <definedName name="ShoeTrack_Vol" localSheetId="2">#REF!</definedName>
     <definedName name="ShoeTrack_Vol" localSheetId="3">#REF!</definedName>
+    <definedName name="ShoeTrack_Vol" localSheetId="5">#REF!</definedName>
     <definedName name="ShoeTrack_Vol">#REF!</definedName>
-    <definedName name="Show_1" localSheetId="2">[28]!Show_1</definedName>
     <definedName name="Show_1" localSheetId="3">[28]!Show_1</definedName>
+    <definedName name="Show_1" localSheetId="5">[28]!Show_1</definedName>
     <definedName name="Show_1">[28]!Show_1</definedName>
-    <definedName name="Show_2" localSheetId="2">[28]!Show_2</definedName>
     <definedName name="Show_2" localSheetId="3">[28]!Show_2</definedName>
+    <definedName name="Show_2" localSheetId="5">[28]!Show_2</definedName>
     <definedName name="Show_2">[28]!Show_2</definedName>
-    <definedName name="SleeveLength" localSheetId="2">#REF!</definedName>
     <definedName name="SleeveLength" localSheetId="3">#REF!</definedName>
+    <definedName name="SleeveLength" localSheetId="5">#REF!</definedName>
     <definedName name="SleeveLength">#REF!</definedName>
     <definedName name="Sold_To">'[25]Data Entry'!$C$6</definedName>
-    <definedName name="Spacer_Wt" localSheetId="2">#REF!</definedName>
     <definedName name="Spacer_Wt" localSheetId="3">#REF!</definedName>
+    <definedName name="Spacer_Wt" localSheetId="5">#REF!</definedName>
     <definedName name="Spacer_Wt">#REF!</definedName>
-    <definedName name="SpacerType" localSheetId="2">#REF!</definedName>
     <definedName name="SpacerType" localSheetId="3">#REF!</definedName>
+    <definedName name="SpacerType" localSheetId="5">#REF!</definedName>
     <definedName name="SpacerType">#REF!</definedName>
-    <definedName name="Spiral_Type" localSheetId="2">#REF!</definedName>
     <definedName name="Spiral_Type" localSheetId="3">#REF!</definedName>
+    <definedName name="Spiral_Type" localSheetId="5">#REF!</definedName>
     <definedName name="Spiral_Type">#REF!</definedName>
-    <definedName name="SpiralType" localSheetId="2">#REF!</definedName>
     <definedName name="SpiralType" localSheetId="3">#REF!</definedName>
+    <definedName name="SpiralType" localSheetId="5">#REF!</definedName>
     <definedName name="SpiralType">#REF!</definedName>
     <definedName name="ssss">[31]TABLIC!$A$1:$K$278</definedName>
-    <definedName name="State" localSheetId="2">#REF!</definedName>
     <definedName name="State" localSheetId="3">#REF!</definedName>
+    <definedName name="State" localSheetId="5">#REF!</definedName>
     <definedName name="State">#REF!</definedName>
     <definedName name="States">[22]DATA!$B$2:$B$5</definedName>
-    <definedName name="Stickup" localSheetId="2">#REF!</definedName>
     <definedName name="Stickup" localSheetId="3">#REF!</definedName>
+    <definedName name="Stickup" localSheetId="5">#REF!</definedName>
     <definedName name="Stickup">#REF!</definedName>
-    <definedName name="Stretch_DP4_Lnr_Wt" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Stretch_DP4_Lnr_Wt" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Stretch_DP4_Lnr_Wt" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Stretch_DP4_Lnr_Wt">[20]Calculations!#REF!</definedName>
-    <definedName name="Stretch_DP5_Lnr_Wt" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Stretch_DP5_Lnr_Wt" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Stretch_DP5_Lnr_Wt" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Stretch_DP5_Lnr_Wt">[20]Calculations!#REF!</definedName>
     <definedName name="Stretch_TTL_Lnr_Wt">[20]Calculations!$G$34</definedName>
-    <definedName name="SU" localSheetId="2">#REF!</definedName>
     <definedName name="SU" localSheetId="3">#REF!</definedName>
+    <definedName name="SU" localSheetId="5">#REF!</definedName>
     <definedName name="SU">#REF!</definedName>
-    <definedName name="Surf_Equ_Tens" localSheetId="2">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Surf_Equ_Tens" localSheetId="3">'[20]Liner Job Info'!#REF!</definedName>
+    <definedName name="Surf_Equ_Tens" localSheetId="5">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="Surf_Equ_Tens">'[20]Liner Job Info'!#REF!</definedName>
-    <definedName name="Surf_Equip_Model" localSheetId="2">#REF!</definedName>
     <definedName name="Surf_Equip_Model" localSheetId="3">#REF!</definedName>
+    <definedName name="Surf_Equip_Model" localSheetId="5">#REF!</definedName>
     <definedName name="Surf_Equip_Model">#REF!</definedName>
-    <definedName name="Surf_Equip_Tens" localSheetId="2">#REF!</definedName>
     <definedName name="Surf_Equip_Tens" localSheetId="3">#REF!</definedName>
+    <definedName name="Surf_Equip_Tens" localSheetId="5">#REF!</definedName>
     <definedName name="Surf_Equip_Tens">#REF!</definedName>
-    <definedName name="Surf_Indication" localSheetId="2">#REF!</definedName>
     <definedName name="Surf_Indication" localSheetId="3">#REF!</definedName>
+    <definedName name="Surf_Indication" localSheetId="5">#REF!</definedName>
     <definedName name="Surf_Indication">#REF!</definedName>
-    <definedName name="Surfaceequipment" localSheetId="2">#REF!</definedName>
     <definedName name="Surfaceequipment" localSheetId="3">#REF!</definedName>
+    <definedName name="Surfaceequipment" localSheetId="5">#REF!</definedName>
     <definedName name="Surfaceequipment">#REF!</definedName>
-    <definedName name="Sy" localSheetId="2">#REF!</definedName>
     <definedName name="Sy" localSheetId="3">#REF!</definedName>
+    <definedName name="Sy" localSheetId="5">#REF!</definedName>
     <definedName name="Sy">#REF!</definedName>
     <definedName name="t" hidden="1">{#N/A,#N/A,FALSE,"Oil-Based Mud"}</definedName>
-    <definedName name="T_D_y_n" localSheetId="2">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="T_D_y_n" localSheetId="3">'[20]Liner Job Info'!#REF!</definedName>
+    <definedName name="T_D_y_n" localSheetId="5">'[20]Liner Job Info'!#REF!</definedName>
     <definedName name="T_D_y_n">'[20]Liner Job Info'!#REF!</definedName>
-    <definedName name="Tail_Cmt_Wt" localSheetId="2">#REF!</definedName>
     <definedName name="Tail_Cmt_Wt" localSheetId="3">#REF!</definedName>
+    <definedName name="Tail_Cmt_Wt" localSheetId="5">#REF!</definedName>
     <definedName name="Tail_Cmt_Wt">#REF!</definedName>
-    <definedName name="Target" localSheetId="2">#REF!</definedName>
     <definedName name="Target" localSheetId="3">#REF!</definedName>
+    <definedName name="Target" localSheetId="5">#REF!</definedName>
     <definedName name="Target">#REF!</definedName>
-    <definedName name="TB_Ext_API_Coll" localSheetId="2">#REF!</definedName>
     <definedName name="TB_Ext_API_Coll" localSheetId="3">#REF!</definedName>
+    <definedName name="TB_Ext_API_Coll" localSheetId="5">#REF!</definedName>
     <definedName name="TB_Ext_API_Coll">#REF!</definedName>
-    <definedName name="TB_Ext_Bst" localSheetId="2">#REF!</definedName>
     <definedName name="TB_Ext_Bst" localSheetId="3">#REF!</definedName>
+    <definedName name="TB_Ext_Bst" localSheetId="5">#REF!</definedName>
     <definedName name="TB_Ext_Bst">#REF!</definedName>
-    <definedName name="TB_Ext_Col" localSheetId="2">#REF!</definedName>
     <definedName name="TB_Ext_Col" localSheetId="3">#REF!</definedName>
+    <definedName name="TB_Ext_Col" localSheetId="5">#REF!</definedName>
     <definedName name="TB_Ext_Col">#REF!</definedName>
-    <definedName name="TB_EXT_ID" localSheetId="2">#REF!</definedName>
     <definedName name="TB_EXT_ID" localSheetId="3">#REF!</definedName>
+    <definedName name="TB_EXT_ID" localSheetId="5">#REF!</definedName>
     <definedName name="TB_EXT_ID">#REF!</definedName>
-    <definedName name="Tb_Ext_OD" localSheetId="2">#REF!</definedName>
     <definedName name="Tb_Ext_OD" localSheetId="3">#REF!</definedName>
+    <definedName name="Tb_Ext_OD" localSheetId="5">#REF!</definedName>
     <definedName name="Tb_Ext_OD">#REF!</definedName>
-    <definedName name="TB_Ext_Yield_Coll" localSheetId="2">#REF!</definedName>
     <definedName name="TB_Ext_Yield_Coll" localSheetId="3">#REF!</definedName>
+    <definedName name="TB_Ext_Yield_Coll" localSheetId="5">#REF!</definedName>
     <definedName name="TB_Ext_Yield_Coll">#REF!</definedName>
-    <definedName name="TB_Ext_Yield_Strength" localSheetId="2">#REF!</definedName>
     <definedName name="TB_Ext_Yield_Strength" localSheetId="3">#REF!</definedName>
+    <definedName name="TB_Ext_Yield_Strength" localSheetId="5">#REF!</definedName>
     <definedName name="TB_Ext_Yield_Strength">#REF!</definedName>
-    <definedName name="TB_Ext_Yld" localSheetId="2">#REF!</definedName>
     <definedName name="TB_Ext_Yld" localSheetId="3">#REF!</definedName>
+    <definedName name="TB_Ext_Yld" localSheetId="5">#REF!</definedName>
     <definedName name="TB_Ext_Yld">#REF!</definedName>
-    <definedName name="tbgthd" localSheetId="2">#REF!</definedName>
     <definedName name="tbgthd" localSheetId="3">#REF!</definedName>
+    <definedName name="tbgthd" localSheetId="5">#REF!</definedName>
     <definedName name="tbgthd">#REF!</definedName>
-    <definedName name="tbgys" localSheetId="2">#REF!</definedName>
     <definedName name="tbgys" localSheetId="3">#REF!</definedName>
+    <definedName name="tbgys" localSheetId="5">#REF!</definedName>
     <definedName name="tbgys">#REF!</definedName>
-    <definedName name="TD" localSheetId="2">#REF!</definedName>
     <definedName name="TD" localSheetId="3">#REF!</definedName>
+    <definedName name="TD" localSheetId="5">#REF!</definedName>
     <definedName name="TD">#REF!</definedName>
     <definedName name="temp" hidden="1">{#N/A,#N/A,FALSE,"Oil-Based Mud"}</definedName>
-    <definedName name="Temperature" localSheetId="2">#REF!</definedName>
     <definedName name="Temperature" localSheetId="3">#REF!</definedName>
+    <definedName name="Temperature" localSheetId="5">#REF!</definedName>
     <definedName name="Temperature">#REF!</definedName>
-    <definedName name="test" localSheetId="2">#REF!</definedName>
     <definedName name="test" localSheetId="3">#REF!</definedName>
+    <definedName name="test" localSheetId="5">#REF!</definedName>
     <definedName name="test">#REF!</definedName>
-    <definedName name="Test_po_out_1" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Test_po_out_1" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Test_po_out_1" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Test_po_out_1">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Test_po_out_2" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Test_po_out_2" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="Test_po_out_2" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="Test_po_out_2">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="TICKET" localSheetId="2">#REF!</definedName>
     <definedName name="TICKET" localSheetId="3">#REF!</definedName>
+    <definedName name="TICKET" localSheetId="5">#REF!</definedName>
     <definedName name="TICKET">#REF!</definedName>
-    <definedName name="TICKET_NUMBER" localSheetId="2">'[26]DATA MASTER'!#REF!</definedName>
     <definedName name="TICKET_NUMBER" localSheetId="3">'[26]DATA MASTER'!#REF!</definedName>
+    <definedName name="TICKET_NUMBER" localSheetId="5">'[26]DATA MASTER'!#REF!</definedName>
     <definedName name="TICKET_NUMBER">'[26]DATA MASTER'!#REF!</definedName>
-    <definedName name="TOL" localSheetId="2">#REF!</definedName>
     <definedName name="TOL" localSheetId="3">#REF!</definedName>
+    <definedName name="TOL" localSheetId="5">#REF!</definedName>
     <definedName name="TOL">#REF!</definedName>
-    <definedName name="TOP" localSheetId="2">#REF!</definedName>
     <definedName name="TOP" localSheetId="3">#REF!</definedName>
+    <definedName name="TOP" localSheetId="5">#REF!</definedName>
     <definedName name="TOP">#REF!</definedName>
-    <definedName name="Top_Drive_y_n" localSheetId="2">#REF!</definedName>
     <definedName name="Top_Drive_y_n" localSheetId="3">#REF!</definedName>
+    <definedName name="Top_Drive_y_n" localSheetId="5">#REF!</definedName>
     <definedName name="Top_Drive_y_n">#REF!</definedName>
-    <definedName name="Torque" localSheetId="2">#REF!</definedName>
     <definedName name="Torque" localSheetId="3">#REF!</definedName>
+    <definedName name="Torque" localSheetId="5">#REF!</definedName>
     <definedName name="Torque">#REF!</definedName>
-    <definedName name="Tot_Bottoms_Up" localSheetId="2">#REF!</definedName>
     <definedName name="Tot_Bottoms_Up" localSheetId="3">#REF!</definedName>
+    <definedName name="Tot_Bottoms_Up" localSheetId="5">#REF!</definedName>
     <definedName name="Tot_Bottoms_Up">#REF!</definedName>
-    <definedName name="Tot_DP_Length" localSheetId="2">#REF!</definedName>
     <definedName name="Tot_DP_Length" localSheetId="3">#REF!</definedName>
+    <definedName name="Tot_DP_Length" localSheetId="5">#REF!</definedName>
     <definedName name="Tot_DP_Length">#REF!</definedName>
-    <definedName name="Tot_DP_Vol" localSheetId="2">#REF!</definedName>
     <definedName name="Tot_DP_Vol" localSheetId="3">#REF!</definedName>
+    <definedName name="Tot_DP_Vol" localSheetId="5">#REF!</definedName>
     <definedName name="Tot_DP_Vol">#REF!</definedName>
-    <definedName name="Tot_left_hand_turns_to_release_HR" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Tot_left_hand_turns_to_release_HR" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Tot_left_hand_turns_to_release_HR" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Tot_left_hand_turns_to_release_HR">[20]Calculations!#REF!</definedName>
     <definedName name="Tot_Liner_Wt">[20]Calculations!$G$24</definedName>
-    <definedName name="Tot_Lnr_Vol_to_LC" localSheetId="2">#REF!</definedName>
     <definedName name="Tot_Lnr_Vol_to_LC" localSheetId="3">#REF!</definedName>
+    <definedName name="Tot_Lnr_Vol_to_LC" localSheetId="5">#REF!</definedName>
     <definedName name="Tot_Lnr_Vol_to_LC">#REF!</definedName>
-    <definedName name="Tot_Vol_to_Bump_Plugs" localSheetId="2">#REF!</definedName>
     <definedName name="Tot_Vol_to_Bump_Plugs" localSheetId="3">#REF!</definedName>
+    <definedName name="Tot_Vol_to_Bump_Plugs" localSheetId="5">#REF!</definedName>
     <definedName name="Tot_Vol_to_Bump_Plugs">#REF!</definedName>
-    <definedName name="Tot_Vol_to_Shoe" localSheetId="2">#REF!</definedName>
     <definedName name="Tot_Vol_to_Shoe" localSheetId="3">#REF!</definedName>
+    <definedName name="Tot_Vol_to_Shoe" localSheetId="5">#REF!</definedName>
     <definedName name="Tot_Vol_to_Shoe">#REF!</definedName>
-    <definedName name="Tot_Wt_Loss" localSheetId="2">#REF!</definedName>
     <definedName name="Tot_Wt_Loss" localSheetId="3">#REF!</definedName>
+    <definedName name="Tot_Wt_Loss" localSheetId="5">#REF!</definedName>
     <definedName name="Tot_Wt_Loss">#REF!</definedName>
     <definedName name="Total_DP_Wt">[20]Calculations!$G$14</definedName>
-    <definedName name="Trapped_forces" localSheetId="2">#REF!</definedName>
     <definedName name="Trapped_forces" localSheetId="3">#REF!</definedName>
+    <definedName name="Trapped_forces" localSheetId="5">#REF!</definedName>
     <definedName name="Trapped_forces">#REF!</definedName>
-    <definedName name="TST" localSheetId="2">#REF!</definedName>
     <definedName name="TST" localSheetId="3">#REF!</definedName>
+    <definedName name="TST" localSheetId="5">#REF!</definedName>
     <definedName name="TST">#REF!</definedName>
-    <definedName name="TVD_Table" localSheetId="2">#REF!</definedName>
     <definedName name="TVD_Table" localSheetId="3">#REF!</definedName>
+    <definedName name="TVD_Table" localSheetId="5">#REF!</definedName>
     <definedName name="TVD_Table">#REF!</definedName>
     <definedName name="ug0">'[12]Проектные данные'!$C$15</definedName>
-    <definedName name="Unimin" localSheetId="2">#REF!</definedName>
     <definedName name="Unimin" localSheetId="3">#REF!</definedName>
+    <definedName name="Unimin" localSheetId="5">#REF!</definedName>
     <definedName name="Unimin">#REF!</definedName>
     <definedName name="Used">[22]DATA!$AU$2:$AU$3</definedName>
     <definedName name="Vallist">'[22]Casing Info'!$A$2:$A$30</definedName>
     <definedName name="vallist2">#N/A</definedName>
-    <definedName name="Volume" localSheetId="2">#REF!</definedName>
     <definedName name="Volume" localSheetId="3">#REF!</definedName>
+    <definedName name="Volume" localSheetId="5">#REF!</definedName>
     <definedName name="Volume">#REF!</definedName>
     <definedName name="volume1" hidden="1">{#N/A,#N/A,FALSE,"Volume"}</definedName>
-    <definedName name="volume2" localSheetId="2">#REF!</definedName>
     <definedName name="volume2" localSheetId="3">#REF!</definedName>
+    <definedName name="volume2" localSheetId="5">#REF!</definedName>
     <definedName name="volume2">#REF!</definedName>
-    <definedName name="volume3" localSheetId="2">#REF!</definedName>
     <definedName name="volume3" localSheetId="3">#REF!</definedName>
+    <definedName name="volume3" localSheetId="5">#REF!</definedName>
     <definedName name="volume3">#REF!</definedName>
-    <definedName name="volume4" localSheetId="2">#REF!</definedName>
     <definedName name="volume4" localSheetId="3">#REF!</definedName>
+    <definedName name="volume4" localSheetId="5">#REF!</definedName>
     <definedName name="volume4">#REF!</definedName>
-    <definedName name="volume5" localSheetId="2">#REF!</definedName>
     <definedName name="volume5" localSheetId="3">#REF!</definedName>
+    <definedName name="volume5" localSheetId="5">#REF!</definedName>
     <definedName name="volume5">#REF!</definedName>
-    <definedName name="Water_Depth" localSheetId="2">#REF!</definedName>
     <definedName name="Water_Depth" localSheetId="3">#REF!</definedName>
+    <definedName name="Water_Depth" localSheetId="5">#REF!</definedName>
     <definedName name="Water_Depth">#REF!</definedName>
-    <definedName name="Weak_DP" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Weak_DP" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Weak_DP" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Weak_DP">[20]Calculations!#REF!</definedName>
-    <definedName name="Weak_link" localSheetId="2">[20]Calculations!#REF!</definedName>
     <definedName name="Weak_link" localSheetId="3">[20]Calculations!#REF!</definedName>
+    <definedName name="Weak_link" localSheetId="5">[20]Calculations!#REF!</definedName>
     <definedName name="Weak_link">[20]Calculations!#REF!</definedName>
-    <definedName name="week" localSheetId="2">#REF!</definedName>
     <definedName name="week" localSheetId="3">#REF!</definedName>
+    <definedName name="week" localSheetId="5">#REF!</definedName>
     <definedName name="week">#REF!</definedName>
-    <definedName name="Weight" localSheetId="2">#REF!</definedName>
     <definedName name="Weight" localSheetId="3">#REF!</definedName>
+    <definedName name="Weight" localSheetId="5">#REF!</definedName>
     <definedName name="Weight">#REF!</definedName>
-    <definedName name="Well_Number" localSheetId="2">#REF!</definedName>
     <definedName name="Well_Number" localSheetId="3">#REF!</definedName>
+    <definedName name="Well_Number" localSheetId="5">#REF!</definedName>
     <definedName name="Well_Number">#REF!</definedName>
     <definedName name="Wellname">'[25]Data Entry'!$G$3</definedName>
-    <definedName name="WELLNO" localSheetId="2">#REF!</definedName>
     <definedName name="WELLNO" localSheetId="3">#REF!</definedName>
+    <definedName name="WELLNO" localSheetId="5">#REF!</definedName>
     <definedName name="WELLNO">#REF!</definedName>
     <definedName name="wrn.OBM." hidden="1">{#N/A,#N/A,FALSE,"Oil-Based Mud"}</definedName>
     <definedName name="wrn.VOLUME." hidden="1">{#N/A,#N/A,FALSE,"Volume"}</definedName>
-    <definedName name="Wt_Applied_to_Set_Pckr" localSheetId="2">#REF!</definedName>
     <definedName name="Wt_Applied_to_Set_Pckr" localSheetId="3">#REF!</definedName>
+    <definedName name="Wt_Applied_to_Set_Pckr" localSheetId="5">#REF!</definedName>
     <definedName name="Wt_Applied_to_Set_Pckr">#REF!</definedName>
-    <definedName name="Wt_w_Cmt" localSheetId="2">#REF!</definedName>
     <definedName name="Wt_w_Cmt" localSheetId="3">#REF!</definedName>
+    <definedName name="Wt_w_Cmt" localSheetId="5">#REF!</definedName>
     <definedName name="Wt_w_Cmt">#REF!</definedName>
-    <definedName name="Wt_W_Pkr_Tst" localSheetId="2">#REF!</definedName>
     <definedName name="Wt_W_Pkr_Tst" localSheetId="3">#REF!</definedName>
+    <definedName name="Wt_W_Pkr_Tst" localSheetId="5">#REF!</definedName>
     <definedName name="Wt_W_Pkr_Tst">#REF!</definedName>
-    <definedName name="YesNo" localSheetId="2">#REF!</definedName>
     <definedName name="YesNo" localSheetId="3">#REF!</definedName>
+    <definedName name="YesNo" localSheetId="5">#REF!</definedName>
     <definedName name="YesNo">#REF!</definedName>
-    <definedName name="Z" localSheetId="2">#REF!</definedName>
     <definedName name="Z" localSheetId="3">#REF!</definedName>
+    <definedName name="Z" localSheetId="5">#REF!</definedName>
     <definedName name="Z">#REF!</definedName>
-    <definedName name="Zip_Code" localSheetId="2">#REF!</definedName>
     <definedName name="Zip_Code" localSheetId="3">#REF!</definedName>
+    <definedName name="Zip_Code" localSheetId="5">#REF!</definedName>
     <definedName name="Zip_Code">#REF!</definedName>
-    <definedName name="ZXP_Seal_Area" localSheetId="2">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="ZXP_Seal_Area" localSheetId="3">'[20]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="ZXP_Seal_Area" localSheetId="5">'[20]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="ZXP_Seal_Area">'[20]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="ZXPSLEEVE" localSheetId="2">#REF!</definedName>
     <definedName name="ZXPSLEEVE" localSheetId="3">#REF!</definedName>
+    <definedName name="ZXPSLEEVE" localSheetId="5">#REF!</definedName>
     <definedName name="ZXPSLEEVE">#REF!</definedName>
-    <definedName name="Акт_на_сборку_компоновки" localSheetId="2">#REF!</definedName>
     <definedName name="Акт_на_сборку_компоновки" localSheetId="3">#REF!</definedName>
+    <definedName name="Акт_на_сборку_компоновки" localSheetId="5">#REF!</definedName>
     <definedName name="Акт_на_сборку_компоновки">#REF!</definedName>
-    <definedName name="_xlnm.Database" localSheetId="2">'[32]Tally WS'!#REF!</definedName>
     <definedName name="_xlnm.Database" localSheetId="3">'[32]Tally WS'!#REF!</definedName>
+    <definedName name="_xlnm.Database" localSheetId="5">'[32]Tally WS'!#REF!</definedName>
     <definedName name="_xlnm.Database">'[32]Tally WS'!#REF!</definedName>
-    <definedName name="Бур" localSheetId="2">#REF!</definedName>
     <definedName name="Бур" localSheetId="3">#REF!</definedName>
+    <definedName name="Бур" localSheetId="5">#REF!</definedName>
     <definedName name="Бур">#REF!</definedName>
-    <definedName name="Горизонтальная" localSheetId="2">#REF!</definedName>
     <definedName name="Горизонтальная" localSheetId="3">#REF!</definedName>
+    <definedName name="Горизонтальная" localSheetId="5">#REF!</definedName>
     <definedName name="Горизонтальная">#REF!</definedName>
     <definedName name="Д">'[33]Price Naykch'!$B$2:$B$95</definedName>
-    <definedName name="дл" localSheetId="2">VLOOKUP([17]!Liner1_Wt_Per_Ft,OFFSET(INDIRECT(ADDRESS(MATCH([17]!Liner1_OD,[17]!Objects,0)+1,2,,,"Casing Info")),0,1,COUNTIF([17]!Objects,[17]!Liner1_OD),2),2)</definedName>
     <definedName name="дл" localSheetId="3">VLOOKUP([17]!Liner1_Wt_Per_Ft,OFFSET(INDIRECT(ADDRESS(MATCH([17]!Liner1_OD,[17]!Objects,0)+1,2,,,"Casing Info")),0,1,COUNTIF([17]!Objects,[17]!Liner1_OD),2),2)</definedName>
+    <definedName name="дл" localSheetId="5">VLOOKUP([17]!Liner1_Wt_Per_Ft,OFFSET(INDIRECT(ADDRESS(MATCH([17]!Liner1_OD,[17]!Objects,0)+1,2,,,"Casing Info")),0,1,COUNTIF([17]!Objects,[17]!Liner1_OD),2),2)</definedName>
     <definedName name="дл">VLOOKUP([17]!Liner1_Wt_Per_Ft,OFFSET(INDIRECT(ADDRESS(MATCH([17]!Liner1_OD,[17]!Objects,0)+1,2,,,"Casing Info")),0,1,COUNTIF([17]!Objects,[17]!Liner1_OD),2),2)</definedName>
-    <definedName name="Доб" localSheetId="2">#REF!</definedName>
     <definedName name="Доб" localSheetId="3">#REF!</definedName>
+    <definedName name="Доб" localSheetId="5">#REF!</definedName>
     <definedName name="Доб">#REF!</definedName>
     <definedName name="Долота">[21]List!$C$2:$C$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Фактическая!$2:$7</definedName>
     <definedName name="Интервал">[21]List!$A$2:$A$36</definedName>
-    <definedName name="Карта" localSheetId="2">#REF!</definedName>
     <definedName name="Карта" localSheetId="3">#REF!</definedName>
+    <definedName name="Карта" localSheetId="5">#REF!</definedName>
     <definedName name="Карта">#REF!</definedName>
-    <definedName name="кеаоргеог" localSheetId="2">#REF!</definedName>
     <definedName name="кеаоргеог" localSheetId="3">#REF!</definedName>
+    <definedName name="кеаоргеог" localSheetId="5">#REF!</definedName>
     <definedName name="кеаоргеог">#REF!</definedName>
-    <definedName name="Коэф.разб.2" localSheetId="2">#REF!</definedName>
     <definedName name="Коэф.разб.2" localSheetId="3">#REF!</definedName>
+    <definedName name="Коэф.разб.2" localSheetId="5">#REF!</definedName>
     <definedName name="Коэф.разб.2">#REF!</definedName>
-    <definedName name="коэф.разб.4" localSheetId="2">#REF!</definedName>
     <definedName name="коэф.разб.4" localSheetId="3">#REF!</definedName>
+    <definedName name="коэф.разб.4" localSheetId="5">#REF!</definedName>
     <definedName name="коэф.разб.4">#REF!</definedName>
-    <definedName name="Коэф.разб.5" localSheetId="2">#REF!</definedName>
     <definedName name="Коэф.разб.5" localSheetId="3">#REF!</definedName>
+    <definedName name="Коэф.разб.5" localSheetId="5">#REF!</definedName>
     <definedName name="Коэф.разб.5">#REF!</definedName>
-    <definedName name="Коэф_разбавл_1" localSheetId="2">#REF!</definedName>
     <definedName name="Коэф_разбавл_1" localSheetId="3">#REF!</definedName>
+    <definedName name="Коэф_разбавл_1" localSheetId="5">#REF!</definedName>
     <definedName name="Коэф_разбавл_1">#REF!</definedName>
-    <definedName name="Направление" localSheetId="2">#REF!</definedName>
     <definedName name="Направление" localSheetId="3">#REF!</definedName>
+    <definedName name="Направление" localSheetId="5">#REF!</definedName>
     <definedName name="Направление">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Фактическая!$A$1:$P$98</definedName>
-    <definedName name="остаток_с_3_инт" localSheetId="2">#REF!</definedName>
     <definedName name="остаток_с_3_инт" localSheetId="3">#REF!</definedName>
+    <definedName name="остаток_с_3_инт" localSheetId="5">#REF!</definedName>
     <definedName name="остаток_с_3_инт">#REF!</definedName>
-    <definedName name="остаток0" localSheetId="2">#REF!</definedName>
     <definedName name="остаток0" localSheetId="3">#REF!</definedName>
+    <definedName name="остаток0" localSheetId="5">#REF!</definedName>
     <definedName name="остаток0">#REF!</definedName>
-    <definedName name="остаток1" localSheetId="2">#REF!</definedName>
     <definedName name="остаток1" localSheetId="3">#REF!</definedName>
+    <definedName name="остаток1" localSheetId="5">#REF!</definedName>
     <definedName name="остаток1">#REF!</definedName>
-    <definedName name="остаток2" localSheetId="2">#REF!</definedName>
     <definedName name="остаток2" localSheetId="3">#REF!</definedName>
+    <definedName name="остаток2" localSheetId="5">#REF!</definedName>
     <definedName name="остаток2">#REF!</definedName>
-    <definedName name="Побур_1_инт" localSheetId="2">#REF!</definedName>
     <definedName name="Побур_1_инт" localSheetId="3">#REF!</definedName>
+    <definedName name="Побур_1_инт" localSheetId="5">#REF!</definedName>
     <definedName name="Побур_1_инт">#REF!</definedName>
-    <definedName name="Прожект" localSheetId="2">#REF!</definedName>
     <definedName name="Прожект" localSheetId="3">#REF!</definedName>
+    <definedName name="Прожект" localSheetId="5">#REF!</definedName>
     <definedName name="Прожект">#REF!</definedName>
     <definedName name="Раствор">[21]List!$B$2:$B$36</definedName>
-    <definedName name="рощнмщэ" localSheetId="2">'[34]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="рощнмщэ" localSheetId="3">'[34]Casing Tally (Rus)'!#REF!</definedName>
+    <definedName name="рощнмщэ" localSheetId="5">'[34]Casing Tally (Rus)'!#REF!</definedName>
     <definedName name="рощнмщэ">'[34]Casing Tally (Rus)'!#REF!</definedName>
-    <definedName name="Список" localSheetId="2">#REF!</definedName>
     <definedName name="Список" localSheetId="3">#REF!</definedName>
+    <definedName name="Список" localSheetId="5">#REF!</definedName>
     <definedName name="Список">#REF!</definedName>
-    <definedName name="Супер" localSheetId="2">#REF!</definedName>
     <definedName name="Супер" localSheetId="3">#REF!</definedName>
+    <definedName name="Супер" localSheetId="5">#REF!</definedName>
     <definedName name="Супер">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -2002,7 +2004,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="159">
   <si>
     <t>ФАКТИЧЕСКАЯ МЕРА ХВОСТОВИКА</t>
   </si>
@@ -2219,6 +2221,267 @@
   <si>
     <t>Патрубок</t>
   </si>
+  <si>
+    <t>Подвеска</t>
+  </si>
+  <si>
+    <t>Плановая глубина</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Элемент</t>
+  </si>
+  <si>
+    <t>Длина, м</t>
+  </si>
+  <si>
+    <t>Суммарная длина, м</t>
+  </si>
+  <si>
+    <t>Глубина верха, м</t>
+  </si>
+  <si>
+    <t>Глубина низа, м</t>
+  </si>
+  <si>
+    <t>Плановый интервал, м</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>Пакер подвеска▼</t>
+  </si>
+  <si>
+    <t>2587.15</t>
+  </si>
+  <si>
+    <t>2589.75</t>
+  </si>
+  <si>
+    <t>2600 ± 30</t>
+  </si>
+  <si>
+    <t>Интервал соблюден</t>
+  </si>
+  <si>
+    <t>Труба №1</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>13.85</t>
+  </si>
+  <si>
+    <t>2699.75</t>
+  </si>
+  <si>
+    <t>2710.75</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Труба №2</t>
+  </si>
+  <si>
+    <t>24.85</t>
+  </si>
+  <si>
+    <t>2688.75</t>
+  </si>
+  <si>
+    <t>Труба №3</t>
+  </si>
+  <si>
+    <t>35.85</t>
+  </si>
+  <si>
+    <t>2677.75</t>
+  </si>
+  <si>
+    <t>Труба №4</t>
+  </si>
+  <si>
+    <t>46.85</t>
+  </si>
+  <si>
+    <t>2666.75</t>
+  </si>
+  <si>
+    <t>Труба №5</t>
+  </si>
+  <si>
+    <t>57.85</t>
+  </si>
+  <si>
+    <t>2655.75</t>
+  </si>
+  <si>
+    <t>Труба №6</t>
+  </si>
+  <si>
+    <t>68.85</t>
+  </si>
+  <si>
+    <t>2644.75</t>
+  </si>
+  <si>
+    <t>Труба №7</t>
+  </si>
+  <si>
+    <t>79.85</t>
+  </si>
+  <si>
+    <t>2633.75</t>
+  </si>
+  <si>
+    <t>Труба №8</t>
+  </si>
+  <si>
+    <t>90.85</t>
+  </si>
+  <si>
+    <t>2622.75</t>
+  </si>
+  <si>
+    <t>Труба №9</t>
+  </si>
+  <si>
+    <t>101.85</t>
+  </si>
+  <si>
+    <t>2611.75</t>
+  </si>
+  <si>
+    <t>Труба №10</t>
+  </si>
+  <si>
+    <t>112.85</t>
+  </si>
+  <si>
+    <t>2600.75</t>
+  </si>
+  <si>
+    <t>Башмак</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>2700 ± 3</t>
+  </si>
+  <si>
+    <t>Начало отсчета - башмак</t>
+  </si>
+  <si>
+    <t>кош▼</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>2647.75</t>
+  </si>
+  <si>
+    <t>2648.75</t>
+  </si>
+  <si>
+    <t>2650 ± 3</t>
+  </si>
+  <si>
+    <t>56.25</t>
+  </si>
+  <si>
+    <t>45.25</t>
+  </si>
+  <si>
+    <t>2699.85</t>
+  </si>
+  <si>
+    <t>34.15</t>
+  </si>
+  <si>
+    <t>2677.65</t>
+  </si>
+  <si>
+    <t>2688.85</t>
+  </si>
+  <si>
+    <t>22.95</t>
+  </si>
+  <si>
+    <t>2666.45</t>
+  </si>
+  <si>
+    <t>2655.15</t>
+  </si>
+  <si>
+    <t>2666.55</t>
+  </si>
+  <si>
+    <t>Патрубок №П-5</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>2660.15</t>
+  </si>
+  <si>
+    <t>64.85</t>
+  </si>
+  <si>
+    <t>2586.65</t>
+  </si>
+  <si>
+    <t>2589.25</t>
+  </si>
+  <si>
+    <t>58.75</t>
+  </si>
+  <si>
+    <t>2659.25</t>
+  </si>
+  <si>
+    <t>47.25</t>
+  </si>
+  <si>
+    <t>2636.25</t>
+  </si>
+  <si>
+    <t>2647.85</t>
+  </si>
+  <si>
+    <t>35.65</t>
+  </si>
+  <si>
+    <t>2624.65</t>
+  </si>
+  <si>
+    <t>2636.35</t>
+  </si>
+  <si>
+    <t>23.95</t>
+  </si>
+  <si>
+    <t>2612.95</t>
+  </si>
+  <si>
+    <t>2624.75</t>
+  </si>
+  <si>
+    <t>2601.15</t>
+  </si>
+  <si>
+    <t>2613.05</t>
+  </si>
 </sst>
 </file>
 
@@ -2228,7 +2491,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="General\ &quot;шт&quot;"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2420,8 +2683,31 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2452,8 +2738,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F4F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2856,13 +3178,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3288,6 +3625,67 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="25" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="25" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="26" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="26" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="26" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal_Мера СБТ PЗачистка хвост" xfId="2"/>
@@ -9637,8 +10035,8 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="A1:D23" totalsRowShown="0" dataDxfId="8">
   <autoFilter ref="A1:D23"/>
-  <sortState ref="A2:M82">
-    <sortCondition ref="A1:A82"/>
+  <sortState ref="A2:D23">
+    <sortCondition ref="C1:C23"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="2" name="Описание элементов хвостовика" dataDxfId="7"/>
@@ -9971,7 +10369,7 @@
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B49" sqref="B49:D49"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24:E24"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -14308,10 +14706,478 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="41" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="157" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" style="157" customWidth="1"/>
+    <col min="3" max="8" width="15.7109375" style="157" customWidth="1"/>
+    <col min="9" max="16384" width="41" style="157"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="157" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="157" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="157" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="157" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="157" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="157" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="157">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="157">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="157">
+        <v>3293.75</v>
+      </c>
+      <c r="F2" s="157">
+        <v>3294</v>
+      </c>
+      <c r="G2" s="157">
+        <v>3294</v>
+      </c>
+      <c r="H2" s="157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="157" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="157">
+        <v>0.35</v>
+      </c>
+      <c r="D3" s="157">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="157">
+        <v>3293.4</v>
+      </c>
+      <c r="F3" s="157">
+        <v>3293.75</v>
+      </c>
+      <c r="G3" s="157">
+        <v>3293.4</v>
+      </c>
+      <c r="H3" s="157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="157">
+        <v>1</v>
+      </c>
+      <c r="B4" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="157">
+        <v>11.42</v>
+      </c>
+      <c r="D4" s="157">
+        <v>12.02</v>
+      </c>
+      <c r="E4" s="157">
+        <v>3281.98</v>
+      </c>
+      <c r="F4" s="157">
+        <v>3293.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="157" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="157">
+        <v>0.35</v>
+      </c>
+      <c r="D5" s="157">
+        <v>12.37</v>
+      </c>
+      <c r="E5" s="157">
+        <v>3281.63</v>
+      </c>
+      <c r="F5" s="157">
+        <v>3281.98</v>
+      </c>
+      <c r="G5" s="157">
+        <v>3281.98</v>
+      </c>
+      <c r="H5" s="157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="157">
+        <v>2</v>
+      </c>
+      <c r="B6" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="157">
+        <v>11.02</v>
+      </c>
+      <c r="D6" s="157">
+        <v>23.39</v>
+      </c>
+      <c r="E6" s="157">
+        <v>3270.61</v>
+      </c>
+      <c r="F6" s="157">
+        <v>3281.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="157" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="157">
+        <v>1.3</v>
+      </c>
+      <c r="D7" s="157">
+        <v>24.69</v>
+      </c>
+      <c r="E7" s="157">
+        <v>3269.31</v>
+      </c>
+      <c r="F7" s="157">
+        <v>3270.61</v>
+      </c>
+      <c r="G7" s="157">
+        <v>3270.61</v>
+      </c>
+      <c r="H7" s="157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="157" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="157">
+        <v>0.85</v>
+      </c>
+      <c r="D8" s="157">
+        <v>25.540000000000003</v>
+      </c>
+      <c r="E8" s="157">
+        <v>3268.46</v>
+      </c>
+      <c r="F8" s="157">
+        <v>3269.31</v>
+      </c>
+      <c r="G8" s="157">
+        <v>3267</v>
+      </c>
+      <c r="H8" s="157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="157">
+        <v>3</v>
+      </c>
+      <c r="B9" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="157">
+        <v>11.2</v>
+      </c>
+      <c r="D9" s="157">
+        <v>36.74</v>
+      </c>
+      <c r="E9" s="157">
+        <v>3257.26</v>
+      </c>
+      <c r="F9" s="157">
+        <v>3268.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="157">
+        <v>4</v>
+      </c>
+      <c r="B10" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="157">
+        <v>11.23</v>
+      </c>
+      <c r="D10" s="157">
+        <v>47.97</v>
+      </c>
+      <c r="E10" s="157">
+        <v>3246.03</v>
+      </c>
+      <c r="F10" s="157">
+        <v>3257.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="157">
+        <v>5</v>
+      </c>
+      <c r="B11" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="157">
+        <v>11.25</v>
+      </c>
+      <c r="D11" s="157">
+        <v>59.22</v>
+      </c>
+      <c r="E11" s="157">
+        <v>3234.78</v>
+      </c>
+      <c r="F11" s="157">
+        <v>3246.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="157">
+        <v>6</v>
+      </c>
+      <c r="B12" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="157">
+        <v>11.1</v>
+      </c>
+      <c r="D12" s="157">
+        <v>70.319999999999993</v>
+      </c>
+      <c r="E12" s="157">
+        <v>3223.68</v>
+      </c>
+      <c r="F12" s="157">
+        <v>3234.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="157">
+        <v>0.72</v>
+      </c>
+      <c r="D13" s="157">
+        <v>71.039999999999992</v>
+      </c>
+      <c r="E13" s="157">
+        <v>3222.96</v>
+      </c>
+      <c r="F13" s="157">
+        <v>3223.68</v>
+      </c>
+      <c r="G13" s="157">
+        <v>3223.68</v>
+      </c>
+      <c r="H13" s="157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="157">
+        <v>7</v>
+      </c>
+      <c r="B14" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="157">
+        <v>11.01</v>
+      </c>
+      <c r="D14" s="157">
+        <v>82.05</v>
+      </c>
+      <c r="E14" s="157">
+        <v>3211.95</v>
+      </c>
+      <c r="F14" s="157">
+        <v>3222.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="157">
+        <v>8</v>
+      </c>
+      <c r="B15" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="157">
+        <v>10.8</v>
+      </c>
+      <c r="D15" s="157">
+        <v>92.85</v>
+      </c>
+      <c r="E15" s="157">
+        <v>3201.15</v>
+      </c>
+      <c r="F15" s="157">
+        <v>3211.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="157">
+        <v>9</v>
+      </c>
+      <c r="B16" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="157">
+        <v>11.09</v>
+      </c>
+      <c r="D16" s="157">
+        <v>103.94</v>
+      </c>
+      <c r="E16" s="157">
+        <v>3190.06</v>
+      </c>
+      <c r="F16" s="157">
+        <v>3201.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="157">
+        <v>10</v>
+      </c>
+      <c r="B17" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="157">
+        <v>11.4</v>
+      </c>
+      <c r="D17" s="157">
+        <v>115.34</v>
+      </c>
+      <c r="E17" s="157">
+        <v>3178.66</v>
+      </c>
+      <c r="F17" s="157">
+        <v>3190.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="157">
+        <v>11</v>
+      </c>
+      <c r="B18" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="157">
+        <v>11.3</v>
+      </c>
+      <c r="D18" s="157">
+        <v>126.64</v>
+      </c>
+      <c r="E18" s="157">
+        <v>3167.36</v>
+      </c>
+      <c r="F18" s="157">
+        <v>3178.66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="157">
+        <v>12</v>
+      </c>
+      <c r="B19" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="157">
+        <v>11.19</v>
+      </c>
+      <c r="D19" s="157">
+        <v>137.83000000000001</v>
+      </c>
+      <c r="E19" s="157">
+        <v>3156.17</v>
+      </c>
+      <c r="F19" s="157">
+        <v>3167.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="157">
+        <v>13</v>
+      </c>
+      <c r="B20" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="157">
+        <v>11.11</v>
+      </c>
+      <c r="D20" s="157">
+        <v>148.94</v>
+      </c>
+      <c r="E20" s="157">
+        <v>3145.06</v>
+      </c>
+      <c r="F20" s="157">
+        <v>3156.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="157">
+        <v>0.85</v>
+      </c>
+      <c r="D21" s="157">
+        <v>149.79</v>
+      </c>
+      <c r="E21" s="157">
+        <v>3144.21</v>
+      </c>
+      <c r="F21" s="157">
+        <v>3145.06</v>
+      </c>
+      <c r="G21" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="157">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14319,9 +15185,10 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="9" max="16" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -14335,7 +15202,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="98">
         <v>1</v>
       </c>
@@ -14349,7 +15216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="98">
         <v>2</v>
       </c>
@@ -14357,13 +15224,13 @@
         <v>36</v>
       </c>
       <c r="C3" s="98">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D3" s="98">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="98">
         <v>3</v>
       </c>
@@ -14371,13 +15238,13 @@
         <v>36</v>
       </c>
       <c r="C4" s="98">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D4" s="98">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="98">
         <v>4</v>
       </c>
@@ -14385,13 +15252,13 @@
         <v>36</v>
       </c>
       <c r="C5" s="98">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="D5" s="98">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="98">
         <v>5</v>
       </c>
@@ -14399,13 +15266,21 @@
         <v>36</v>
       </c>
       <c r="C6" s="98">
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="D6" s="98">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="159"/>
+      <c r="L6" s="159"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+    </row>
+    <row r="7" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="98">
         <v>6</v>
       </c>
@@ -14413,13 +15288,37 @@
         <v>36</v>
       </c>
       <c r="C7" s="98">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="D7" s="98">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I7" s="160" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="160" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="160" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="160" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="160" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" s="160" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="160" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="98">
         <v>7</v>
       </c>
@@ -14427,13 +15326,35 @@
         <v>36</v>
       </c>
       <c r="C8" s="98">
-        <v>11</v>
+        <v>11.6</v>
       </c>
       <c r="D8" s="98">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I8" s="161"/>
+      <c r="J8" s="162" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" s="161" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="O8" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" s="161" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="98">
         <v>8</v>
       </c>
@@ -14441,13 +15362,37 @@
         <v>36</v>
       </c>
       <c r="C9" s="98">
-        <v>11</v>
+        <v>11.7</v>
       </c>
       <c r="D9" s="98">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I9" s="172">
+        <v>2</v>
+      </c>
+      <c r="J9" s="173" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="172" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="174">
+        <v>45658</v>
+      </c>
+      <c r="M9" s="172" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" s="172" t="s">
+        <v>128</v>
+      </c>
+      <c r="O9" s="172" t="s">
+        <v>129</v>
+      </c>
+      <c r="P9" s="172" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="98">
         <v>9</v>
       </c>
@@ -14455,13 +15400,35 @@
         <v>36</v>
       </c>
       <c r="C10" s="98">
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="D10" s="98">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I10" s="166">
+        <v>1</v>
+      </c>
+      <c r="J10" s="167" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="166" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="166" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="166" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="166"/>
+    </row>
+    <row r="11" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="98">
         <v>10</v>
       </c>
@@ -14469,13 +15436,35 @@
         <v>36</v>
       </c>
       <c r="C11" s="98">
-        <v>11</v>
+        <v>11.9</v>
       </c>
       <c r="D11" s="98">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I11" s="164">
+        <v>2</v>
+      </c>
+      <c r="J11" s="165" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="175">
+        <v>45941</v>
+      </c>
+      <c r="L11" s="164" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" s="164" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="164" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" s="164" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" s="164"/>
+    </row>
+    <row r="12" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="98">
         <v>11</v>
       </c>
@@ -14483,13 +15472,35 @@
         <v>36</v>
       </c>
       <c r="C12" s="98">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="98">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I12" s="166">
+        <v>3</v>
+      </c>
+      <c r="J12" s="167" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="176">
+        <v>44136</v>
+      </c>
+      <c r="L12" s="166" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" s="166" t="s">
+        <v>134</v>
+      </c>
+      <c r="N12" s="166" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" s="166" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" s="166"/>
+    </row>
+    <row r="13" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="98">
         <v>12</v>
       </c>
@@ -14497,13 +15508,35 @@
         <v>36</v>
       </c>
       <c r="C13" s="98">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="D13" s="98">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I13" s="164">
+        <v>4</v>
+      </c>
+      <c r="J13" s="165" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="177">
+        <v>11263</v>
+      </c>
+      <c r="L13" s="164" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="N13" s="164" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="164" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="164"/>
+    </row>
+    <row r="14" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="98">
         <v>13</v>
       </c>
@@ -14511,13 +15544,35 @@
         <v>36</v>
       </c>
       <c r="C14" s="98">
-        <v>11</v>
+        <v>12.2</v>
       </c>
       <c r="D14" s="98">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I14" s="166">
+        <v>5</v>
+      </c>
+      <c r="J14" s="167" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="176">
+        <v>14916</v>
+      </c>
+      <c r="L14" s="176">
+        <v>24047</v>
+      </c>
+      <c r="M14" s="166" t="s">
+        <v>138</v>
+      </c>
+      <c r="N14" s="166" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" s="166" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="166"/>
+    </row>
+    <row r="15" spans="1:16" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="98">
         <v>14</v>
       </c>
@@ -14525,13 +15580,33 @@
         <v>36</v>
       </c>
       <c r="C15" s="98">
-        <v>11</v>
+        <v>12.3</v>
       </c>
       <c r="D15" s="98">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I15" s="164"/>
+      <c r="J15" s="165" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" s="164" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" s="177">
+        <v>45658</v>
+      </c>
+      <c r="M15" s="164" t="s">
+        <v>138</v>
+      </c>
+      <c r="N15" s="164" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" s="164" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" s="164"/>
+    </row>
+    <row r="16" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="98">
         <v>15</v>
       </c>
@@ -14539,13 +15614,37 @@
         <v>36</v>
       </c>
       <c r="C16" s="98">
-        <v>11</v>
+        <v>12.4</v>
       </c>
       <c r="D16" s="98">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I16" s="161">
+        <v>3</v>
+      </c>
+      <c r="J16" s="162" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="163">
+        <v>21947</v>
+      </c>
+      <c r="L16" s="161" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" s="161" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16" s="161" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" s="161" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="161" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="98">
         <v>16</v>
       </c>
@@ -14553,13 +15652,35 @@
         <v>36</v>
       </c>
       <c r="C17" s="98">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="D17" s="98">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I17" s="164">
+        <v>1</v>
+      </c>
+      <c r="J17" s="165" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="177">
+        <v>18568</v>
+      </c>
+      <c r="L17" s="164" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" s="164" t="s">
+        <v>127</v>
+      </c>
+      <c r="N17" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" s="164" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="164"/>
+    </row>
+    <row r="18" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="98">
         <v>17</v>
       </c>
@@ -14567,13 +15688,35 @@
         <v>36</v>
       </c>
       <c r="C18" s="98">
-        <v>11</v>
+        <v>12.6</v>
       </c>
       <c r="D18" s="98">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I18" s="166">
+        <v>2</v>
+      </c>
+      <c r="J18" s="167" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="176">
+        <v>22221</v>
+      </c>
+      <c r="L18" s="166" t="s">
+        <v>148</v>
+      </c>
+      <c r="M18" s="166" t="s">
+        <v>149</v>
+      </c>
+      <c r="N18" s="166" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" s="166" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="166"/>
+    </row>
+    <row r="19" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="98">
         <v>18</v>
       </c>
@@ -14581,13 +15724,35 @@
         <v>36</v>
       </c>
       <c r="C19" s="98">
-        <v>11</v>
+        <v>12.7</v>
       </c>
       <c r="D19" s="98">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I19" s="164">
+        <v>3</v>
+      </c>
+      <c r="J19" s="165" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="177">
+        <v>25873</v>
+      </c>
+      <c r="L19" s="164" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19" s="164" t="s">
+        <v>152</v>
+      </c>
+      <c r="N19" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="O19" s="164" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="164"/>
+    </row>
+    <row r="20" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="98">
         <v>19</v>
       </c>
@@ -14595,13 +15760,35 @@
         <v>36</v>
       </c>
       <c r="C20" s="98">
-        <v>11</v>
+        <v>12.8</v>
       </c>
       <c r="D20" s="98">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I20" s="166">
+        <v>4</v>
+      </c>
+      <c r="J20" s="167" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="176">
+        <v>29526</v>
+      </c>
+      <c r="L20" s="166" t="s">
+        <v>154</v>
+      </c>
+      <c r="M20" s="166" t="s">
+        <v>155</v>
+      </c>
+      <c r="N20" s="166" t="s">
+        <v>156</v>
+      </c>
+      <c r="O20" s="166" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" s="166"/>
+    </row>
+    <row r="21" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="98">
         <v>20</v>
       </c>
@@ -14609,13 +15796,35 @@
         <v>36</v>
       </c>
       <c r="C21" s="98">
-        <v>11</v>
+        <v>12.9</v>
       </c>
       <c r="D21" s="98">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I21" s="164">
+        <v>5</v>
+      </c>
+      <c r="J21" s="165" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="177">
+        <v>33178</v>
+      </c>
+      <c r="L21" s="177">
+        <v>42339</v>
+      </c>
+      <c r="M21" s="164" t="s">
+        <v>157</v>
+      </c>
+      <c r="N21" s="164" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" s="164" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" s="159"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="98">
         <v>21</v>
       </c>
@@ -14623,13 +15832,13 @@
         <v>36</v>
       </c>
       <c r="C22" s="98">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="D22" s="98">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="98">
         <v>22</v>
       </c>
@@ -14643,7 +15852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="98">
         <v>23</v>
       </c>
@@ -14657,7 +15866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="98">
         <v>24</v>
       </c>
@@ -14671,7 +15880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="98">
         <v>25</v>
       </c>
@@ -14685,7 +15894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="98">
         <v>26</v>
       </c>
@@ -14699,7 +15908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="98">
         <v>27</v>
       </c>
@@ -14713,7 +15922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="98">
         <v>28</v>
       </c>
@@ -14727,7 +15936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="98">
         <v>29</v>
       </c>
@@ -14741,7 +15950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="98">
         <v>30</v>
       </c>
@@ -14755,7 +15964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="98">
         <v>31</v>
       </c>
@@ -16023,12 +17232,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16054,13 +17263,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B2" s="98">
-        <v>0.25</v>
+        <v>1904</v>
       </c>
       <c r="C2" s="98">
-        <v>3294</v>
+        <v>1901.1899999999998</v>
       </c>
       <c r="D2" s="98">
         <v>3</v>
@@ -16068,27 +17277,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="98" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B3" s="98">
-        <v>1.3</v>
+        <v>303.74</v>
       </c>
       <c r="C3" s="98">
-        <v>3270.61</v>
+        <v>2204.9299999999998</v>
       </c>
       <c r="D3" s="98">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B4" s="98">
-        <v>0.35</v>
+        <v>400</v>
       </c>
       <c r="C4" s="98">
-        <v>3293.75</v>
+        <v>2604.9299999999998</v>
       </c>
       <c r="D4" s="98">
         <v>3</v>
@@ -16096,13 +17305,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="98" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B5" s="98">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="C5" s="98">
-        <v>3281.98</v>
+        <v>2605.2299999999996</v>
       </c>
       <c r="D5" s="98">
         <v>3</v>
@@ -16110,13 +17319,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B6" s="98">
-        <v>0.85</v>
+        <v>1.6</v>
       </c>
       <c r="C6" s="98">
-        <v>3269.31</v>
+        <v>2606.83</v>
       </c>
       <c r="D6" s="98">
         <v>3</v>
@@ -16124,27 +17333,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="98" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B7" s="98">
-        <v>0.85</v>
+        <v>2.6</v>
       </c>
       <c r="C7" s="98">
-        <v>3145.06</v>
+        <v>2609.4299999999998</v>
       </c>
       <c r="D7" s="98">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="98">
-        <v>0.85</v>
-      </c>
-      <c r="C8" s="98">
-        <v>3003.83</v>
+      <c r="A8" s="158" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="158">
+        <v>0.72</v>
+      </c>
+      <c r="C8" s="158">
+        <v>2621.64</v>
       </c>
       <c r="D8" s="98">
         <v>3</v>
@@ -16152,13 +17361,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="98" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B9" s="98">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="C9" s="98">
-        <v>2876.06</v>
+        <v>2690.91</v>
       </c>
       <c r="D9" s="98">
         <v>3</v>
@@ -16166,13 +17375,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="98" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B10" s="98">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="C10" s="98">
-        <v>2783.41</v>
+        <v>2759.6</v>
       </c>
       <c r="D10" s="98">
         <v>3</v>
@@ -16180,13 +17389,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="98" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B11" s="98">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="C11" s="98">
-        <v>2621.64</v>
+        <v>2783.41</v>
       </c>
       <c r="D11" s="98">
         <v>3</v>
@@ -16200,7 +17409,7 @@
         <v>0.72</v>
       </c>
       <c r="C12" s="98">
-        <v>3223.68</v>
+        <v>2829.8399999999997</v>
       </c>
       <c r="D12" s="98">
         <v>3</v>
@@ -16208,26 +17417,26 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="98" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B13" s="98">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="C13" s="98">
-        <v>3086.13</v>
+        <v>2876.06</v>
       </c>
       <c r="D13" s="98">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="98">
+      <c r="B14" s="158">
         <v>0.72</v>
       </c>
-      <c r="C14" s="98">
+      <c r="C14" s="158">
         <v>2922.63</v>
       </c>
       <c r="D14" s="98">
@@ -16236,13 +17445,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B15" s="98">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="C15" s="98">
-        <v>2829.8399999999997</v>
+        <v>3003.83</v>
       </c>
       <c r="D15" s="98">
         <v>3</v>
@@ -16256,7 +17465,7 @@
         <v>0.72</v>
       </c>
       <c r="C16" s="98">
-        <v>2759.6</v>
+        <v>3086.13</v>
       </c>
       <c r="D16" s="98">
         <v>3</v>
@@ -16264,13 +17473,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="98" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B17" s="98">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="C17" s="98">
-        <v>2690.91</v>
+        <v>3145.06</v>
       </c>
       <c r="D17" s="98">
         <v>3</v>
@@ -16278,13 +17487,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="98" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B18" s="98">
-        <v>2.6</v>
+        <v>0.72</v>
       </c>
       <c r="C18" s="98">
-        <v>2609.4299999999998</v>
+        <v>3223.68</v>
       </c>
       <c r="D18" s="98">
         <v>3</v>
@@ -16292,13 +17501,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="98" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B19" s="98">
-        <v>0.3</v>
+        <v>0.85</v>
       </c>
       <c r="C19" s="98">
-        <v>2605.2299999999996</v>
+        <v>3269.31</v>
       </c>
       <c r="D19" s="98">
         <v>3</v>
@@ -16306,58 +17515,58 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="98" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B20" s="98">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="C20" s="98">
-        <v>2606.83</v>
+        <v>3270.61</v>
       </c>
       <c r="D20" s="98">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="98">
-        <v>400</v>
-      </c>
-      <c r="C21" s="98">
-        <v>2604.9299999999998</v>
+      <c r="A21" s="158" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="158">
+        <v>0.35</v>
+      </c>
+      <c r="C21" s="158">
+        <v>3281.98</v>
       </c>
       <c r="D21" s="98">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="98">
-        <v>1904</v>
-      </c>
-      <c r="C22" s="98">
-        <v>1901.1899999999998</v>
+      <c r="A22" s="158" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="158">
+        <v>0.35</v>
+      </c>
+      <c r="C22" s="158">
+        <v>3293.75</v>
       </c>
       <c r="D22" s="98">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="98">
-        <v>303.74</v>
-      </c>
-      <c r="C23" s="98">
-        <v>2204.9299999999998</v>
+      <c r="A23" s="158" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="158">
+        <v>0.25</v>
+      </c>
+      <c r="C23" s="158">
+        <v>3294</v>
       </c>
       <c r="D23" s="98">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -16368,7 +17577,345 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F5:M18"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="13" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="6:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="160" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="160" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="160" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="160" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="160" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="160" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="160" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="6:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="168"/>
+      <c r="G7" s="169" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="168" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="168" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="168" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="168" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="168" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="168" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="164">
+        <v>1</v>
+      </c>
+      <c r="G8" s="165" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="164" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="164" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="164" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="164" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="164" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="164"/>
+    </row>
+    <row r="9" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="166">
+        <v>2</v>
+      </c>
+      <c r="G9" s="167" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="166" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="166" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="166" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="166" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="166"/>
+    </row>
+    <row r="10" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="164">
+        <v>3</v>
+      </c>
+      <c r="G10" s="165" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="164" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="164" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="164" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="164" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="164" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="164"/>
+    </row>
+    <row r="11" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="166">
+        <v>4</v>
+      </c>
+      <c r="G11" s="167" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="166" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="166" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="166" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="166" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="166" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="166"/>
+    </row>
+    <row r="12" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="164">
+        <v>5</v>
+      </c>
+      <c r="G12" s="165" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="164" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="164" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="164" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="164" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="164" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="164"/>
+    </row>
+    <row r="13" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="166">
+        <v>6</v>
+      </c>
+      <c r="G13" s="167" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="166" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="166" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="166" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="166" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="166" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="166"/>
+    </row>
+    <row r="14" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="164">
+        <v>7</v>
+      </c>
+      <c r="G14" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="164" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="164" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="164" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="164" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="164"/>
+    </row>
+    <row r="15" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="166">
+        <v>8</v>
+      </c>
+      <c r="G15" s="167" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="166" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="166" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="166" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="166" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="166"/>
+    </row>
+    <row r="16" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="164">
+        <v>9</v>
+      </c>
+      <c r="G16" s="165" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="164" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="164" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="164" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="164" t="s">
+        <v>113</v>
+      </c>
+      <c r="L16" s="164" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="164"/>
+    </row>
+    <row r="17" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="166">
+        <v>10</v>
+      </c>
+      <c r="G17" s="167" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="166" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="166" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="166" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="166" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="166" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="166"/>
+    </row>
+    <row r="18" spans="6:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="161">
+        <v>1</v>
+      </c>
+      <c r="G18" s="170" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="171">
+        <v>2.6</v>
+      </c>
+      <c r="I18" s="171">
+        <v>2.85</v>
+      </c>
+      <c r="J18" s="171" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="171" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="171" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="171" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
